--- a/SISTEMA_MANTENIMIENTO/uploads/faltantes_resultado.xlsx
+++ b/SISTEMA_MANTENIMIENTO/uploads/faltantes_resultado.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="Completados" sheetId="2" r:id="rId2"/>
+    <sheet name="Completado_Filas" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="9">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -4016,7 +4017,7 @@
         <v>14.5</v>
       </c>
       <c r="E2">
-        <v>-0.2</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4033,7 +4034,7 @@
         <v>14.3</v>
       </c>
       <c r="E3">
-        <v>-1.3</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4050,7 +4051,7 @@
         <v>12.2</v>
       </c>
       <c r="E4">
-        <v>0.1</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4067,7 +4068,7 @@
         <v>9.9</v>
       </c>
       <c r="E5">
-        <v>0.2</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4084,7 +4085,7 @@
         <v>11.6</v>
       </c>
       <c r="E6">
-        <v>0.9</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4101,7 +4102,7 @@
         <v>13.5</v>
       </c>
       <c r="E7">
-        <v>-1.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4118,7 +4119,7 @@
         <v>15.1</v>
       </c>
       <c r="E8">
-        <v>-1.9</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4135,7 +4136,7 @@
         <v>16.9</v>
       </c>
       <c r="E9">
-        <v>-2.5</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4152,7 +4153,7 @@
         <v>9.6</v>
       </c>
       <c r="E10">
-        <v>0.4</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4169,7 +4170,7 @@
         <v>11</v>
       </c>
       <c r="E11">
-        <v>-1.4</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4186,7 +4187,7 @@
         <v>13</v>
       </c>
       <c r="E12">
-        <v>-2.8</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4203,7 +4204,7 @@
         <v>14.3</v>
       </c>
       <c r="E13">
-        <v>-1.2</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4220,7 +4221,7 @@
         <v>14.8</v>
       </c>
       <c r="E14">
-        <v>-0.2</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4237,7 +4238,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="E15">
-        <v>0.1</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4254,7 +4255,7 @@
         <v>10.8</v>
       </c>
       <c r="E16">
-        <v>-0.1</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4271,7 +4272,7 @@
         <v>10.5</v>
       </c>
       <c r="E17">
-        <v>0.3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4288,7 +4289,7 @@
         <v>7.7</v>
       </c>
       <c r="E18">
-        <v>1.9</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4305,7 +4306,7 @@
         <v>13</v>
       </c>
       <c r="E19">
-        <v>-1.4</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4322,7 +4323,7 @@
         <v>10.6</v>
       </c>
       <c r="E20">
-        <v>-1.7</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4339,7 +4340,7 @@
         <v>16</v>
       </c>
       <c r="E21">
-        <v>-1.3</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4350,13 +4351,13 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>16.5</v>
       </c>
       <c r="D22">
-        <v>15.1</v>
+        <v>13.2</v>
       </c>
       <c r="E22">
-        <v>-2</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4367,13 +4368,13 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>6.1</v>
+        <v>7.2</v>
       </c>
       <c r="D23">
-        <v>10.8</v>
+        <v>13.8</v>
       </c>
       <c r="E23">
-        <v>-0.1</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4384,13 +4385,13 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>13.1</v>
+        <v>15.5</v>
       </c>
       <c r="D24">
-        <v>10.6</v>
+        <v>13.6</v>
       </c>
       <c r="E24">
-        <v>0.1</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4401,13 +4402,13 @@
         <v>2</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>13.9</v>
       </c>
       <c r="D25">
-        <v>14.8</v>
+        <v>14</v>
       </c>
       <c r="E25">
-        <v>0.2</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4418,13 +4419,13 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>16.4</v>
       </c>
       <c r="D26">
-        <v>12.8</v>
+        <v>13.3</v>
       </c>
       <c r="E26">
-        <v>-0.4</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4435,13 +4436,13 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>29.9</v>
+        <v>46</v>
       </c>
       <c r="D27">
-        <v>12.8</v>
+        <v>18.4</v>
       </c>
       <c r="E27">
-        <v>-1.5</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4452,13 +4453,13 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>0.4</v>
+        <v>10.3</v>
       </c>
       <c r="D28">
-        <v>17.3</v>
+        <v>13.7</v>
       </c>
       <c r="E28">
-        <v>-0.7</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4469,13 +4470,13 @@
         <v>2</v>
       </c>
       <c r="C29">
-        <v>2.6</v>
+        <v>12.7</v>
       </c>
       <c r="D29">
-        <v>14.4</v>
+        <v>14.1</v>
       </c>
       <c r="E29">
-        <v>-1</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4486,13 +4487,13 @@
         <v>2</v>
       </c>
       <c r="C30">
-        <v>3.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D30">
-        <v>19.1</v>
+        <v>14.1</v>
       </c>
       <c r="E30">
-        <v>-2.6</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4503,13 +4504,13 @@
         <v>2</v>
       </c>
       <c r="C31">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="D31">
-        <v>16.3</v>
+        <v>16.9</v>
       </c>
       <c r="E31">
-        <v>-2.7</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4520,13 +4521,13 @@
         <v>2</v>
       </c>
       <c r="C32">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="D32">
-        <v>8.1</v>
+        <v>10.4</v>
       </c>
       <c r="E32">
-        <v>1.8</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4537,13 +4538,13 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>0.8</v>
+        <v>10.7</v>
       </c>
       <c r="D33">
-        <v>15.1</v>
+        <v>13</v>
       </c>
       <c r="E33">
-        <v>-0.4</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4554,13 +4555,13 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>0.8</v>
+        <v>7.6</v>
       </c>
       <c r="D34">
-        <v>15</v>
+        <v>12.4</v>
       </c>
       <c r="E34">
-        <v>-1.8</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4571,13 +4572,13 @@
         <v>2</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D35">
-        <v>22.8</v>
+        <v>18.1</v>
       </c>
       <c r="E35">
-        <v>-1.4</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -4588,13 +4589,13 @@
         <v>2</v>
       </c>
       <c r="C36">
-        <v>7.3</v>
+        <v>11.2</v>
       </c>
       <c r="D36">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="E36">
-        <v>-1.5</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -4605,13 +4606,13 @@
         <v>2</v>
       </c>
       <c r="C37">
-        <v>7.3</v>
+        <v>9.4</v>
       </c>
       <c r="D37">
-        <v>16.1</v>
+        <v>14</v>
       </c>
       <c r="E37">
-        <v>-5</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -4622,13 +4623,13 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>5.2</v>
+        <v>10</v>
       </c>
       <c r="D38">
-        <v>23.3</v>
+        <v>20.4</v>
       </c>
       <c r="E38">
-        <v>-3.9</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -4639,13 +4640,13 @@
         <v>2</v>
       </c>
       <c r="C39">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="D39">
-        <v>13.3</v>
+        <v>12</v>
       </c>
       <c r="E39">
-        <v>-1.2</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -4656,13 +4657,13 @@
         <v>2</v>
       </c>
       <c r="C40">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="D40">
-        <v>14.8</v>
+        <v>12.1</v>
       </c>
       <c r="E40">
-        <v>-0.6</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -4673,13 +4674,13 @@
         <v>2</v>
       </c>
       <c r="C41">
-        <v>8</v>
+        <v>11.7</v>
       </c>
       <c r="D41">
-        <v>20.6</v>
+        <v>19.4</v>
       </c>
       <c r="E41">
-        <v>-3.9</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4690,13 +4691,13 @@
         <v>2</v>
       </c>
       <c r="C42">
-        <v>7.4</v>
+        <v>0.9</v>
       </c>
       <c r="D42">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="E42">
-        <v>0.1</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -4707,13 +4708,13 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>1.9</v>
+        <v>5.1</v>
       </c>
       <c r="D43">
-        <v>8</v>
+        <v>9.6</v>
       </c>
       <c r="E43">
-        <v>-2.2</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -4724,13 +4725,13 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <v>4.7</v>
+        <v>6.8</v>
       </c>
       <c r="D44">
-        <v>9.5</v>
+        <v>11.9</v>
       </c>
       <c r="E44">
-        <v>-1.7</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -4741,13 +4742,13 @@
         <v>2</v>
       </c>
       <c r="C45">
-        <v>7.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D45">
-        <v>16.3</v>
+        <v>13</v>
       </c>
       <c r="E45">
-        <v>-2.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -4758,13 +4759,13 @@
         <v>2</v>
       </c>
       <c r="C46">
-        <v>6.3</v>
+        <v>11</v>
       </c>
       <c r="D46">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="E46">
-        <v>-2.4</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -4775,13 +4776,13 @@
         <v>2</v>
       </c>
       <c r="C47">
-        <v>24.6</v>
+        <v>31.5</v>
       </c>
       <c r="D47">
-        <v>16.2</v>
+        <v>21.9</v>
       </c>
       <c r="E47">
-        <v>-3.3</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -4792,13 +4793,13 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>1.7</v>
+        <v>6.3</v>
       </c>
       <c r="D48">
-        <v>11.9</v>
+        <v>10.5</v>
       </c>
       <c r="E48">
-        <v>-0.4</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -4809,13 +4810,13 @@
         <v>2</v>
       </c>
       <c r="C49">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="D49">
-        <v>15.2</v>
+        <v>12.8</v>
       </c>
       <c r="E49">
-        <v>-1.9</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -4832,7 +4833,7 @@
         <v>6.4</v>
       </c>
       <c r="E50">
-        <v>0.8</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -4849,7 +4850,7 @@
         <v>5</v>
       </c>
       <c r="E51">
-        <v>-2.2</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -4866,7 +4867,7 @@
         <v>14.5</v>
       </c>
       <c r="E52">
-        <v>-0.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -4883,7 +4884,7 @@
         <v>14.3</v>
       </c>
       <c r="E53">
-        <v>-1.3</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -4900,7 +4901,7 @@
         <v>12.2</v>
       </c>
       <c r="E54">
-        <v>0.1</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4917,7 +4918,7 @@
         <v>9.9</v>
       </c>
       <c r="E55">
-        <v>0.2</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4934,7 +4935,7 @@
         <v>11.6</v>
       </c>
       <c r="E56">
-        <v>0.9</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4951,7 +4952,7 @@
         <v>13.5</v>
       </c>
       <c r="E57">
-        <v>-1.1</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4968,7 +4969,7 @@
         <v>15.1</v>
       </c>
       <c r="E58">
-        <v>-1.9</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4985,7 +4986,7 @@
         <v>16.9</v>
       </c>
       <c r="E59">
-        <v>-2.5</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -5002,7 +5003,7 @@
         <v>14.8</v>
       </c>
       <c r="E60">
-        <v>-1</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -5019,7 +5020,7 @@
         <v>12.1</v>
       </c>
       <c r="E61">
-        <v>0.3</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -5036,7 +5037,7 @@
         <v>11.4</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -5053,7 +5054,7 @@
         <v>8.6</v>
       </c>
       <c r="E63">
-        <v>-0.8</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -5070,7 +5071,7 @@
         <v>13.6</v>
       </c>
       <c r="E64">
-        <v>-0.2</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -5087,7 +5088,7 @@
         <v>11.4</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -5104,7 +5105,7 @@
         <v>10.6</v>
       </c>
       <c r="E66">
-        <v>0.6</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -5121,7 +5122,7 @@
         <v>11.3</v>
       </c>
       <c r="E67">
-        <v>-0.3</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -5138,7 +5139,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="E68">
-        <v>-0.7</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -5155,7 +5156,7 @@
         <v>12.4</v>
       </c>
       <c r="E69">
-        <v>-2.6</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -5172,7 +5173,7 @@
         <v>19.3</v>
       </c>
       <c r="E70">
-        <v>-3</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -5189,7 +5190,7 @@
         <v>17.1</v>
       </c>
       <c r="E71">
-        <v>-1.2</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -5206,7 +5207,7 @@
         <v>15.8</v>
       </c>
       <c r="E72">
-        <v>-1.4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -5223,7 +5224,7 @@
         <v>9.6</v>
       </c>
       <c r="E73">
-        <v>0.4</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -5240,7 +5241,7 @@
         <v>11</v>
       </c>
       <c r="E74">
-        <v>-1.4</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -5257,7 +5258,7 @@
         <v>8.1</v>
       </c>
       <c r="E75">
-        <v>0.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -5274,7 +5275,7 @@
         <v>6.5</v>
       </c>
       <c r="E76">
-        <v>0.8</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -5291,7 +5292,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="E77">
-        <v>0.9</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -5308,7 +5309,7 @@
         <v>11.8</v>
       </c>
       <c r="E78">
-        <v>-0.8</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -5325,7 +5326,7 @@
         <v>8</v>
       </c>
       <c r="E79">
-        <v>0.3</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -5342,7 +5343,7 @@
         <v>14.8</v>
       </c>
       <c r="E80">
-        <v>-0.2</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -5359,7 +5360,7 @@
         <v>11.8</v>
       </c>
       <c r="E81">
-        <v>-1.9</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -5376,7 +5377,7 @@
         <v>16.8</v>
       </c>
       <c r="E82">
-        <v>-3.1</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -5393,7 +5394,7 @@
         <v>13</v>
       </c>
       <c r="E83">
-        <v>-2.8</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -5410,7 +5411,7 @@
         <v>14.3</v>
       </c>
       <c r="E84">
-        <v>-1.2</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -5427,7 +5428,7 @@
         <v>14.8</v>
       </c>
       <c r="E85">
-        <v>-0.2</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -5444,7 +5445,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="E86">
-        <v>0.1</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -5461,7 +5462,7 @@
         <v>10.8</v>
       </c>
       <c r="E87">
-        <v>-0.1</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -5478,7 +5479,7 @@
         <v>10.8</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -5495,7 +5496,7 @@
         <v>14</v>
       </c>
       <c r="E89">
-        <v>0.6</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -5512,7 +5513,7 @@
         <v>13.4</v>
       </c>
       <c r="E90">
-        <v>-0.4</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -5529,7 +5530,7 @@
         <v>12.2</v>
       </c>
       <c r="E91">
-        <v>0.2</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -5546,7 +5547,7 @@
         <v>12.3</v>
       </c>
       <c r="E92">
-        <v>-0.9</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -5563,7 +5564,7 @@
         <v>9</v>
       </c>
       <c r="E93">
-        <v>-1.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -5580,7 +5581,7 @@
         <v>17.3</v>
       </c>
       <c r="E94">
-        <v>-3.2</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -5597,7 +5598,7 @@
         <v>16.7</v>
       </c>
       <c r="E95">
-        <v>-1.1</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -5614,7 +5615,7 @@
         <v>14.4</v>
       </c>
       <c r="E96">
-        <v>-2.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -5631,7 +5632,7 @@
         <v>10.5</v>
       </c>
       <c r="E97">
-        <v>-1.7</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -5648,7 +5649,7 @@
         <v>6.2</v>
       </c>
       <c r="E98">
-        <v>1.7</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -5665,7 +5666,7 @@
         <v>9</v>
       </c>
       <c r="E99">
-        <v>-0.7</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -5682,7 +5683,7 @@
         <v>8.6</v>
       </c>
       <c r="E100">
-        <v>-0.5</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -5699,7 +5700,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="E101">
-        <v>0.4</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -5716,7 +5717,7 @@
         <v>8</v>
       </c>
       <c r="E102">
-        <v>0.1</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -5733,7 +5734,7 @@
         <v>10.6</v>
       </c>
       <c r="E103">
-        <v>0.1</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -5750,7 +5751,7 @@
         <v>4.9</v>
       </c>
       <c r="E104">
-        <v>-0.7</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -5767,7 +5768,7 @@
         <v>13.8</v>
       </c>
       <c r="E105">
-        <v>-1.8</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -5784,7 +5785,7 @@
         <v>11.5</v>
       </c>
       <c r="E106">
-        <v>-2.1</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -5801,7 +5802,7 @@
         <v>11.9</v>
       </c>
       <c r="E107">
-        <v>-1.5</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -5818,7 +5819,7 @@
         <v>8.5</v>
       </c>
       <c r="E108">
-        <v>0.8</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -5835,7 +5836,7 @@
         <v>12.7</v>
       </c>
       <c r="E109">
-        <v>-0.7</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -5852,7 +5853,7 @@
         <v>15.3</v>
       </c>
       <c r="E110">
-        <v>-1.6</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -5869,7 +5870,7 @@
         <v>13.2</v>
       </c>
       <c r="E111">
-        <v>-0.6</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -5886,7 +5887,7 @@
         <v>7.9</v>
       </c>
       <c r="E112">
-        <v>0.7</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -5903,7 +5904,7 @@
         <v>8.9</v>
       </c>
       <c r="E113">
-        <v>0.8</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -5920,7 +5921,7 @@
         <v>7.6</v>
       </c>
       <c r="E114">
-        <v>1.7</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -5937,7 +5938,7 @@
         <v>14.9</v>
       </c>
       <c r="E115">
-        <v>-0.1</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -5954,7 +5955,7 @@
         <v>7.2</v>
       </c>
       <c r="E116">
-        <v>1.2</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -5971,7 +5972,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="E117">
-        <v>0.1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -5988,7 +5989,7 @@
         <v>6.7</v>
       </c>
       <c r="E118">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -6005,7 +6006,7 @@
         <v>6</v>
       </c>
       <c r="E119">
-        <v>0.6</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -6022,7 +6023,7 @@
         <v>12.6</v>
       </c>
       <c r="E120">
-        <v>-1.4</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -6033,13 +6034,13 @@
         <v>3</v>
       </c>
       <c r="C121">
-        <v>8.1</v>
+        <v>9.4</v>
       </c>
       <c r="D121">
-        <v>13.3</v>
+        <v>12.3</v>
       </c>
       <c r="E121">
-        <v>-1</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -6050,13 +6051,13 @@
         <v>3</v>
       </c>
       <c r="C122">
-        <v>1.3</v>
+        <v>5.1</v>
       </c>
       <c r="D122">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="E122">
-        <v>-1.2</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -6067,13 +6068,13 @@
         <v>3</v>
       </c>
       <c r="C123">
-        <v>1.2</v>
+        <v>5.7</v>
       </c>
       <c r="D123">
-        <v>22.3</v>
+        <v>18.4</v>
       </c>
       <c r="E123">
-        <v>-2.9</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -6084,13 +6085,13 @@
         <v>3</v>
       </c>
       <c r="C124">
-        <v>4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D124">
-        <v>13.3</v>
+        <v>12</v>
       </c>
       <c r="E124">
-        <v>-3.7</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -6101,13 +6102,13 @@
         <v>3</v>
       </c>
       <c r="C125">
-        <v>5.2</v>
+        <v>13.8</v>
       </c>
       <c r="D125">
-        <v>7.1</v>
+        <v>12</v>
       </c>
       <c r="E125">
-        <v>-0.5</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -6118,13 +6119,13 @@
         <v>3</v>
       </c>
       <c r="C126">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="D126">
-        <v>21.3</v>
+        <v>18.4</v>
       </c>
       <c r="E126">
-        <v>-2.1</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -6135,13 +6136,13 @@
         <v>3</v>
       </c>
       <c r="C127">
-        <v>4</v>
+        <v>11.3</v>
       </c>
       <c r="D127">
-        <v>13</v>
+        <v>11.6</v>
       </c>
       <c r="E127">
-        <v>-1.3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -6152,13 +6153,13 @@
         <v>3</v>
       </c>
       <c r="C128">
-        <v>3.7</v>
+        <v>15.5</v>
       </c>
       <c r="D128">
-        <v>11.6</v>
+        <v>14.3</v>
       </c>
       <c r="E128">
-        <v>-0.3</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -6169,13 +6170,13 @@
         <v>3</v>
       </c>
       <c r="C129">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="D129">
-        <v>14.1</v>
+        <v>12.5</v>
       </c>
       <c r="E129">
-        <v>0.3</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -6186,13 +6187,13 @@
         <v>3</v>
       </c>
       <c r="C130">
-        <v>0.9</v>
+        <v>8.6</v>
       </c>
       <c r="D130">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="E130">
-        <v>-1.5</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -6203,13 +6204,13 @@
         <v>3</v>
       </c>
       <c r="C131">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="D131">
-        <v>14.1</v>
+        <v>10.2</v>
       </c>
       <c r="E131">
-        <v>0.5</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -6223,10 +6224,10 @@
         <v>2.3</v>
       </c>
       <c r="D132">
-        <v>26.3</v>
+        <v>21.7</v>
       </c>
       <c r="E132">
-        <v>-2.4</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -6237,13 +6238,13 @@
         <v>3</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="D133">
-        <v>24.3</v>
+        <v>20.8</v>
       </c>
       <c r="E133">
-        <v>-2.3</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -6254,13 +6255,13 @@
         <v>3</v>
       </c>
       <c r="C134">
-        <v>2.3</v>
+        <v>7.8</v>
       </c>
       <c r="D134">
-        <v>8.4</v>
+        <v>12.2</v>
       </c>
       <c r="E134">
-        <v>-0.3</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -6271,13 +6272,13 @@
         <v>3</v>
       </c>
       <c r="C135">
-        <v>3.8</v>
+        <v>10.4</v>
       </c>
       <c r="D135">
-        <v>12.9</v>
+        <v>13.7</v>
       </c>
       <c r="E135">
-        <v>-0.7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -6288,13 +6289,13 @@
         <v>3</v>
       </c>
       <c r="C136">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="D136">
-        <v>20.6</v>
+        <v>18.2</v>
       </c>
       <c r="E136">
-        <v>-3</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -6305,13 +6306,13 @@
         <v>3</v>
       </c>
       <c r="C137">
-        <v>4</v>
+        <v>13.9</v>
       </c>
       <c r="D137">
-        <v>14.8</v>
+        <v>14</v>
       </c>
       <c r="E137">
-        <v>0.2</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -6322,13 +6323,13 @@
         <v>3</v>
       </c>
       <c r="C138">
-        <v>24</v>
+        <v>16.4</v>
       </c>
       <c r="D138">
-        <v>12.8</v>
+        <v>13.3</v>
       </c>
       <c r="E138">
-        <v>-0.4</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -6339,13 +6340,13 @@
         <v>3</v>
       </c>
       <c r="C139">
-        <v>29.9</v>
+        <v>46</v>
       </c>
       <c r="D139">
-        <v>12.8</v>
+        <v>18.4</v>
       </c>
       <c r="E139">
-        <v>-1.5</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -6356,13 +6357,13 @@
         <v>3</v>
       </c>
       <c r="C140">
-        <v>0.4</v>
+        <v>10.3</v>
       </c>
       <c r="D140">
-        <v>17.3</v>
+        <v>13.7</v>
       </c>
       <c r="E140">
-        <v>-0.7</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -6373,13 +6374,13 @@
         <v>3</v>
       </c>
       <c r="C141">
-        <v>2.6</v>
+        <v>12.7</v>
       </c>
       <c r="D141">
-        <v>14.4</v>
+        <v>14.1</v>
       </c>
       <c r="E141">
-        <v>-1</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -6390,13 +6391,13 @@
         <v>3</v>
       </c>
       <c r="C142">
-        <v>3.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D142">
-        <v>19.1</v>
+        <v>14.1</v>
       </c>
       <c r="E142">
-        <v>-2.6</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -6407,13 +6408,13 @@
         <v>3</v>
       </c>
       <c r="C143">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="D143">
-        <v>14.8</v>
+        <v>15.4</v>
       </c>
       <c r="E143">
-        <v>-4.9</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -6424,13 +6425,13 @@
         <v>3</v>
       </c>
       <c r="C144">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="D144">
-        <v>16.3</v>
+        <v>16.9</v>
       </c>
       <c r="E144">
-        <v>-2.7</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -6441,13 +6442,13 @@
         <v>3</v>
       </c>
       <c r="C145">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="D145">
-        <v>13.3</v>
+        <v>12</v>
       </c>
       <c r="E145">
-        <v>-1.2</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -6458,13 +6459,13 @@
         <v>3</v>
       </c>
       <c r="C146">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="D146">
-        <v>14.8</v>
+        <v>12.1</v>
       </c>
       <c r="E146">
-        <v>-0.6</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -6475,13 +6476,13 @@
         <v>3</v>
       </c>
       <c r="C147">
-        <v>1.7</v>
+        <v>6.3</v>
       </c>
       <c r="D147">
-        <v>11.9</v>
+        <v>10.5</v>
       </c>
       <c r="E147">
-        <v>-0.4</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -6492,13 +6493,13 @@
         <v>3</v>
       </c>
       <c r="C148">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="D148">
-        <v>15.2</v>
+        <v>12.8</v>
       </c>
       <c r="E148">
-        <v>-1.9</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -6509,13 +6510,13 @@
         <v>4</v>
       </c>
       <c r="C149">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D149">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="E149">
-        <v>0.8</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -6526,13 +6527,13 @@
         <v>4</v>
       </c>
       <c r="C150">
-        <v>18.2</v>
+        <v>10.2</v>
       </c>
       <c r="D150">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="E150">
-        <v>-2.2</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -6543,13 +6544,13 @@
         <v>4</v>
       </c>
       <c r="C151">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D151">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="E151">
-        <v>-0.2</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -6563,10 +6564,10 @@
         <v>0</v>
       </c>
       <c r="D152">
-        <v>14.3</v>
+        <v>15.5</v>
       </c>
       <c r="E152">
-        <v>-1.3</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -6580,10 +6581,10 @@
         <v>7.3</v>
       </c>
       <c r="D153">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="E153">
-        <v>0.1</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -6594,13 +6595,13 @@
         <v>4</v>
       </c>
       <c r="C154">
-        <v>4.4</v>
+        <v>9.5</v>
       </c>
       <c r="D154">
-        <v>9.9</v>
+        <v>8.4</v>
       </c>
       <c r="E154">
-        <v>0.2</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -6611,13 +6612,13 @@
         <v>4</v>
       </c>
       <c r="C155">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="D155">
         <v>11.6</v>
       </c>
       <c r="E155">
-        <v>0.9</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -6628,13 +6629,13 @@
         <v>4</v>
       </c>
       <c r="C156">
-        <v>4.9</v>
+        <v>2.3</v>
       </c>
       <c r="D156">
-        <v>13.5</v>
+        <v>15.3</v>
       </c>
       <c r="E156">
-        <v>-1.1</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -6645,13 +6646,13 @@
         <v>4</v>
       </c>
       <c r="C157">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="D157">
-        <v>15.1</v>
+        <v>15.6</v>
       </c>
       <c r="E157">
-        <v>-1.9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -6662,13 +6663,13 @@
         <v>4</v>
       </c>
       <c r="C158">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D158">
-        <v>16.9</v>
+        <v>18</v>
       </c>
       <c r="E158">
-        <v>-2.5</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -6679,13 +6680,13 @@
         <v>4</v>
       </c>
       <c r="C159">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D159">
-        <v>14.8</v>
+        <v>15.3</v>
       </c>
       <c r="E159">
-        <v>-1</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -6696,13 +6697,13 @@
         <v>4</v>
       </c>
       <c r="C160">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="D160">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="E160">
-        <v>0.3</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -6713,13 +6714,13 @@
         <v>4</v>
       </c>
       <c r="C161">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="D161">
-        <v>11.4</v>
+        <v>12.4</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -6730,13 +6731,13 @@
         <v>4</v>
       </c>
       <c r="C162">
-        <v>8.1</v>
+        <v>6.2</v>
       </c>
       <c r="D162">
-        <v>8.6</v>
+        <v>6.8</v>
       </c>
       <c r="E162">
-        <v>-0.8</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -6747,13 +6748,13 @@
         <v>4</v>
       </c>
       <c r="C163">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="D163">
-        <v>13.6</v>
+        <v>13.1</v>
       </c>
       <c r="E163">
-        <v>-0.2</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -6767,10 +6768,10 @@
         <v>0</v>
       </c>
       <c r="D164">
-        <v>11.4</v>
+        <v>10.6</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -6784,10 +6785,10 @@
         <v>0.9</v>
       </c>
       <c r="D165">
-        <v>10.6</v>
+        <v>9</v>
       </c>
       <c r="E165">
-        <v>0.6</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -6798,13 +6799,13 @@
         <v>4</v>
       </c>
       <c r="C166">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="D166">
-        <v>11.3</v>
+        <v>10.2</v>
       </c>
       <c r="E166">
-        <v>-0.3</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -6815,13 +6816,13 @@
         <v>4</v>
       </c>
       <c r="C167">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="D167">
         <v>9.699999999999999</v>
       </c>
       <c r="E167">
-        <v>-0.7</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -6832,13 +6833,13 @@
         <v>4</v>
       </c>
       <c r="C168">
-        <v>6.1</v>
+        <v>4.4</v>
       </c>
       <c r="D168">
-        <v>12.4</v>
+        <v>14</v>
       </c>
       <c r="E168">
-        <v>-2.6</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -6849,13 +6850,13 @@
         <v>4</v>
       </c>
       <c r="C169">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="D169">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="E169">
-        <v>-3</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -6866,13 +6867,13 @@
         <v>4</v>
       </c>
       <c r="C170">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="D170">
-        <v>17.1</v>
+        <v>18.5</v>
       </c>
       <c r="E170">
-        <v>-1.2</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -6883,13 +6884,13 @@
         <v>4</v>
       </c>
       <c r="C171">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="D171">
-        <v>15.8</v>
+        <v>15.3</v>
       </c>
       <c r="E171">
-        <v>-1.4</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -6900,13 +6901,13 @@
         <v>4</v>
       </c>
       <c r="C172">
-        <v>8.6</v>
+        <v>15.3</v>
       </c>
       <c r="D172">
-        <v>9.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E172">
-        <v>0.4</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -6917,13 +6918,13 @@
         <v>4</v>
       </c>
       <c r="C173">
-        <v>6.1</v>
+        <v>8.4</v>
       </c>
       <c r="D173">
         <v>11</v>
       </c>
       <c r="E173">
-        <v>-1.4</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -6934,13 +6935,13 @@
         <v>4</v>
       </c>
       <c r="C174">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="D174">
-        <v>8.1</v>
+        <v>7.1</v>
       </c>
       <c r="E174">
-        <v>0.5</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -6951,13 +6952,13 @@
         <v>4</v>
       </c>
       <c r="C175">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="D175">
-        <v>6.5</v>
+        <v>5.6</v>
       </c>
       <c r="E175">
-        <v>0.8</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -6968,13 +6969,13 @@
         <v>4</v>
       </c>
       <c r="C176">
-        <v>6.8</v>
+        <v>11.6</v>
       </c>
       <c r="D176">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E176">
-        <v>0.9</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6985,13 +6986,13 @@
         <v>4</v>
       </c>
       <c r="C177">
-        <v>5.8</v>
+        <v>7.1</v>
       </c>
       <c r="D177">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="E177">
-        <v>-0.8</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -7002,13 +7003,13 @@
         <v>4</v>
       </c>
       <c r="C178">
-        <v>10.2</v>
+        <v>25.5</v>
       </c>
       <c r="D178">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E178">
-        <v>0.3</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -7019,13 +7020,13 @@
         <v>4</v>
       </c>
       <c r="C179">
-        <v>6.2</v>
+        <v>3.7</v>
       </c>
       <c r="D179">
-        <v>14.8</v>
+        <v>15.6</v>
       </c>
       <c r="E179">
-        <v>-0.2</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -7036,13 +7037,13 @@
         <v>4</v>
       </c>
       <c r="C180">
-        <v>13.1</v>
+        <v>11.4</v>
       </c>
       <c r="D180">
-        <v>11.8</v>
+        <v>12.3</v>
       </c>
       <c r="E180">
-        <v>-1.9</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -7053,13 +7054,13 @@
         <v>4</v>
       </c>
       <c r="C181">
-        <v>4.6</v>
+        <v>0.4</v>
       </c>
       <c r="D181">
-        <v>16.8</v>
+        <v>20.8</v>
       </c>
       <c r="E181">
-        <v>-3.1</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -7070,13 +7071,13 @@
         <v>4</v>
       </c>
       <c r="C182">
-        <v>4.8</v>
+        <v>0.4</v>
       </c>
       <c r="D182">
-        <v>13</v>
+        <v>15.8</v>
       </c>
       <c r="E182">
-        <v>-2.8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -7093,7 +7094,7 @@
         <v>14.3</v>
       </c>
       <c r="E183">
-        <v>-1.2</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -7104,13 +7105,13 @@
         <v>4</v>
       </c>
       <c r="C184">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="D184">
-        <v>14.8</v>
+        <v>15.5</v>
       </c>
       <c r="E184">
-        <v>-0.2</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -7121,13 +7122,13 @@
         <v>4</v>
       </c>
       <c r="C185">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="D185">
-        <v>9.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="E185">
-        <v>0.1</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -7138,13 +7139,13 @@
         <v>4</v>
       </c>
       <c r="C186">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="D186">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="E186">
-        <v>-0.1</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -7155,13 +7156,13 @@
         <v>4</v>
       </c>
       <c r="C187">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="D187">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -7175,10 +7176,10 @@
         <v>0</v>
       </c>
       <c r="D188">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="E188">
-        <v>0.6</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -7189,13 +7190,13 @@
         <v>4</v>
       </c>
       <c r="C189">
-        <v>5.8</v>
+        <v>2.5</v>
       </c>
       <c r="D189">
-        <v>13.4</v>
+        <v>14.8</v>
       </c>
       <c r="E189">
-        <v>-0.4</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -7206,13 +7207,13 @@
         <v>4</v>
       </c>
       <c r="C190">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="D190">
-        <v>12.2</v>
+        <v>12.7</v>
       </c>
       <c r="E190">
-        <v>0.2</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -7223,13 +7224,13 @@
         <v>4</v>
       </c>
       <c r="C191">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D191">
-        <v>12.3</v>
+        <v>11.3</v>
       </c>
       <c r="E191">
-        <v>-0.9</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -7240,13 +7241,13 @@
         <v>4</v>
       </c>
       <c r="C192">
-        <v>4.6</v>
+        <v>5.9</v>
       </c>
       <c r="D192">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="E192">
-        <v>-1.5</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -7257,13 +7258,13 @@
         <v>4</v>
       </c>
       <c r="C193">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="D193">
-        <v>17.3</v>
+        <v>19.7</v>
       </c>
       <c r="E193">
-        <v>-3.2</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -7274,13 +7275,13 @@
         <v>4</v>
       </c>
       <c r="C194">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D194">
-        <v>16.7</v>
+        <v>16.1</v>
       </c>
       <c r="E194">
-        <v>-1.1</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -7291,13 +7292,13 @@
         <v>4</v>
       </c>
       <c r="C195">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="D195">
-        <v>14.4</v>
+        <v>15.2</v>
       </c>
       <c r="E195">
-        <v>-2.9</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -7311,10 +7312,10 @@
         <v>7.1</v>
       </c>
       <c r="D196">
-        <v>10.5</v>
+        <v>11.7</v>
       </c>
       <c r="E196">
-        <v>-1.7</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -7325,13 +7326,13 @@
         <v>4</v>
       </c>
       <c r="C197">
-        <v>8.6</v>
+        <v>10.1</v>
       </c>
       <c r="D197">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="E197">
-        <v>1.7</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -7342,13 +7343,13 @@
         <v>4</v>
       </c>
       <c r="C198">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="D198">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E198">
-        <v>-0.7</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -7359,13 +7360,13 @@
         <v>4</v>
       </c>
       <c r="C199">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="D199">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
       <c r="E199">
-        <v>-0.5</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -7376,13 +7377,13 @@
         <v>4</v>
       </c>
       <c r="C200">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="D200">
-        <v>9.300000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="E200">
-        <v>0.4</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -7393,13 +7394,13 @@
         <v>4</v>
       </c>
       <c r="C201">
-        <v>1.9</v>
+        <v>5.2</v>
       </c>
       <c r="D201">
-        <v>8</v>
+        <v>6.7</v>
       </c>
       <c r="E201">
-        <v>0.1</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -7410,13 +7411,13 @@
         <v>4</v>
       </c>
       <c r="C202">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="D202">
-        <v>10.6</v>
+        <v>12.8</v>
       </c>
       <c r="E202">
-        <v>0.1</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -7427,13 +7428,13 @@
         <v>4</v>
       </c>
       <c r="C203">
-        <v>13</v>
+        <v>17.8</v>
       </c>
       <c r="D203">
-        <v>4.9</v>
+        <v>6.6</v>
       </c>
       <c r="E203">
-        <v>-0.7</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -7444,13 +7445,13 @@
         <v>4</v>
       </c>
       <c r="C204">
-        <v>4.8</v>
+        <v>6.4</v>
       </c>
       <c r="D204">
-        <v>13.8</v>
+        <v>15</v>
       </c>
       <c r="E204">
-        <v>-1.8</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -7461,13 +7462,13 @@
         <v>4</v>
       </c>
       <c r="C205">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="D205">
-        <v>11.5</v>
+        <v>11.9</v>
       </c>
       <c r="E205">
-        <v>-2.1</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -7478,13 +7479,13 @@
         <v>4</v>
       </c>
       <c r="C206">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="D206">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E206">
-        <v>-0.8</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -7495,13 +7496,13 @@
         <v>4</v>
       </c>
       <c r="C207">
-        <v>10.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D207">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="E207">
-        <v>-1.9</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -7512,13 +7513,13 @@
         <v>4</v>
       </c>
       <c r="C208">
-        <v>6.1</v>
+        <v>5.2</v>
       </c>
       <c r="D208">
         <v>11.9</v>
       </c>
       <c r="E208">
-        <v>-1.5</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -7529,13 +7530,13 @@
         <v>4</v>
       </c>
       <c r="C209">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D209">
-        <v>8.5</v>
+        <v>9.6</v>
       </c>
       <c r="E209">
-        <v>0.8</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -7546,13 +7547,13 @@
         <v>4</v>
       </c>
       <c r="C210">
-        <v>6.8</v>
+        <v>10.1</v>
       </c>
       <c r="D210">
-        <v>4.4</v>
+        <v>6.6</v>
       </c>
       <c r="E210">
-        <v>0.1</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -7563,13 +7564,13 @@
         <v>4</v>
       </c>
       <c r="C211">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="D211">
-        <v>10.1</v>
+        <v>9</v>
       </c>
       <c r="E211">
-        <v>-0.6</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -7580,13 +7581,13 @@
         <v>4</v>
       </c>
       <c r="C212">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="D212">
-        <v>9.699999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E212">
-        <v>-1.9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -7597,13 +7598,13 @@
         <v>4</v>
       </c>
       <c r="C213">
-        <v>5.3</v>
+        <v>2</v>
       </c>
       <c r="D213">
-        <v>9.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="E213">
-        <v>-0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -7614,13 +7615,13 @@
         <v>4</v>
       </c>
       <c r="C214">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="D214">
-        <v>12.1</v>
+        <v>26.1</v>
       </c>
       <c r="E214">
-        <v>2.2</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -7631,13 +7632,13 @@
         <v>4</v>
       </c>
       <c r="C215">
-        <v>9.1</v>
+        <v>13.6</v>
       </c>
       <c r="D215">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E215">
-        <v>-1.1</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -7648,13 +7649,13 @@
         <v>4</v>
       </c>
       <c r="C216">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="D216">
-        <v>12.7</v>
+        <v>13.2</v>
       </c>
       <c r="E216">
-        <v>-0.7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -7665,13 +7666,13 @@
         <v>4</v>
       </c>
       <c r="C217">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="D217">
-        <v>15.3</v>
+        <v>15.9</v>
       </c>
       <c r="E217">
-        <v>-1.6</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -7682,13 +7683,13 @@
         <v>4</v>
       </c>
       <c r="C218">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D218">
-        <v>15</v>
+        <v>16.1</v>
       </c>
       <c r="E218">
-        <v>-1.1</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -7699,13 +7700,13 @@
         <v>4</v>
       </c>
       <c r="C219">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D219">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="E219">
-        <v>-0.2</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -7716,13 +7717,13 @@
         <v>4</v>
       </c>
       <c r="C220">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="D220">
-        <v>13.2</v>
+        <v>14.4</v>
       </c>
       <c r="E220">
-        <v>-0.6</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -7733,13 +7734,13 @@
         <v>4</v>
       </c>
       <c r="C221">
-        <v>8.4</v>
+        <v>7.3</v>
       </c>
       <c r="D221">
-        <v>14.1</v>
+        <v>14.8</v>
       </c>
       <c r="E221">
-        <v>0.3</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -7750,13 +7751,13 @@
         <v>4</v>
       </c>
       <c r="C222">
-        <v>0.9</v>
+        <v>7.5</v>
       </c>
       <c r="D222">
-        <v>17.5</v>
+        <v>19.8</v>
       </c>
       <c r="E222">
-        <v>-1.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -7767,13 +7768,13 @@
         <v>4</v>
       </c>
       <c r="C223">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="D223">
-        <v>26.3</v>
+        <v>28.7</v>
       </c>
       <c r="E223">
-        <v>-2.4</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -7784,13 +7785,13 @@
         <v>4</v>
       </c>
       <c r="C224">
-        <v>29.9</v>
+        <v>44.2</v>
       </c>
       <c r="D224">
-        <v>12.8</v>
+        <v>22.1</v>
       </c>
       <c r="E224">
-        <v>-1.5</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -7801,13 +7802,13 @@
         <v>4</v>
       </c>
       <c r="C225">
-        <v>0.4</v>
+        <v>3.7</v>
       </c>
       <c r="D225">
-        <v>16.6</v>
+        <v>17.1</v>
       </c>
       <c r="E225">
-        <v>-0.5</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -7818,13 +7819,13 @@
         <v>4</v>
       </c>
       <c r="C226">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="D226">
-        <v>13.3</v>
+        <v>16.9</v>
       </c>
       <c r="E226">
-        <v>-1.2</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -7835,13 +7836,13 @@
         <v>4</v>
       </c>
       <c r="C227">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D227">
-        <v>14.8</v>
+        <v>13.8</v>
       </c>
       <c r="E227">
-        <v>-0.6</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -7852,13 +7853,13 @@
         <v>4</v>
       </c>
       <c r="C228">
-        <v>8</v>
+        <v>9.9</v>
       </c>
       <c r="D228">
-        <v>20.6</v>
+        <v>24.5</v>
       </c>
       <c r="E228">
-        <v>-3.9</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -7869,13 +7870,13 @@
         <v>4</v>
       </c>
       <c r="C229">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="D229">
-        <v>14.6</v>
+        <v>16</v>
       </c>
       <c r="E229">
-        <v>-0.1</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -7886,13 +7887,4276 @@
         <v>4</v>
       </c>
       <c r="C230">
+        <v>2.5</v>
+      </c>
+      <c r="D230">
+        <v>19.4</v>
+      </c>
+      <c r="E230">
+        <v>7.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E250"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>37926</v>
+      </c>
+      <c r="C2">
+        <v>75.8</v>
+      </c>
+      <c r="D2">
+        <v>0.3</v>
+      </c>
+      <c r="E2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>37956</v>
+      </c>
+      <c r="C3">
+        <v>101.64</v>
+      </c>
+      <c r="D3">
+        <v>18.2</v>
+      </c>
+      <c r="E3">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>37987</v>
+      </c>
+      <c r="C4">
+        <v>0.3</v>
+      </c>
+      <c r="D4">
+        <v>0.3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>38018</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>38047</v>
+      </c>
+      <c r="C6">
+        <v>7.3</v>
+      </c>
+      <c r="D6">
+        <v>7.3</v>
+      </c>
+      <c r="E6">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>38078</v>
+      </c>
+      <c r="C7">
+        <v>4.4</v>
+      </c>
+      <c r="D7">
+        <v>4.4</v>
+      </c>
+      <c r="E7">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>38108</v>
+      </c>
+      <c r="C8">
+        <v>4.2</v>
+      </c>
+      <c r="D8">
+        <v>4.2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>38139</v>
+      </c>
+      <c r="C9">
+        <v>4.9</v>
+      </c>
+      <c r="D9">
+        <v>4.9</v>
+      </c>
+      <c r="E9">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>38169</v>
+      </c>
+      <c r="C10">
+        <v>1.2</v>
+      </c>
+      <c r="D10">
+        <v>1.2</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>38200</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>38231</v>
+      </c>
+      <c r="C12">
+        <v>74.64</v>
+      </c>
+      <c r="D12">
+        <v>0.2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>38261</v>
+      </c>
+      <c r="C13">
+        <v>66.98</v>
+      </c>
+      <c r="D13">
+        <v>4.9</v>
+      </c>
+      <c r="E13">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>38292</v>
+      </c>
+      <c r="C14">
+        <v>35.76</v>
+      </c>
+      <c r="D14">
+        <v>4.6</v>
+      </c>
+      <c r="E14">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>38322</v>
+      </c>
+      <c r="C15">
+        <v>42.96</v>
+      </c>
+      <c r="D15">
+        <v>8.1</v>
+      </c>
+      <c r="E15">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>38353</v>
+      </c>
+      <c r="C16">
+        <v>12.72</v>
+      </c>
+      <c r="D16">
+        <v>1.4</v>
+      </c>
+      <c r="E16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>38384</v>
+      </c>
+      <c r="C17">
+        <v>41.04</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>38412</v>
+      </c>
+      <c r="C18">
+        <v>49.6</v>
+      </c>
+      <c r="D18">
+        <v>0.9</v>
+      </c>
+      <c r="E18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>38443</v>
+      </c>
+      <c r="C19">
+        <v>204.96</v>
+      </c>
+      <c r="D19">
+        <v>6.8</v>
+      </c>
+      <c r="E19">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>38473</v>
+      </c>
+      <c r="C20">
+        <v>117.12</v>
+      </c>
+      <c r="D20">
+        <v>2.2</v>
+      </c>
+      <c r="E20">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>38504</v>
+      </c>
+      <c r="C21">
+        <v>167.5</v>
+      </c>
+      <c r="D21">
+        <v>6.1</v>
+      </c>
+      <c r="E21">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>38534</v>
+      </c>
+      <c r="C22">
+        <v>104.68</v>
+      </c>
+      <c r="D22">
+        <v>0.7</v>
+      </c>
+      <c r="E22">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>38565</v>
+      </c>
+      <c r="C23">
+        <v>57.12</v>
+      </c>
+      <c r="D23">
+        <v>3.4</v>
+      </c>
+      <c r="E23">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>38596</v>
+      </c>
+      <c r="C24">
+        <v>67.2</v>
+      </c>
+      <c r="D24">
+        <v>1.8</v>
+      </c>
+      <c r="E24">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>38626</v>
+      </c>
+      <c r="C25">
+        <v>8.6</v>
+      </c>
+      <c r="D25">
+        <v>8.6</v>
+      </c>
+      <c r="E25">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>38657</v>
+      </c>
+      <c r="C26">
+        <v>6.1</v>
+      </c>
+      <c r="D26">
+        <v>6.1</v>
+      </c>
+      <c r="E26">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>38687</v>
+      </c>
+      <c r="C27">
+        <v>149.04</v>
+      </c>
+      <c r="D27">
+        <v>2.5</v>
+      </c>
+      <c r="E27">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <v>38718</v>
+      </c>
+      <c r="C28">
+        <v>97.92</v>
+      </c>
+      <c r="D28">
+        <v>0.9</v>
+      </c>
+      <c r="E28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>38749</v>
+      </c>
+      <c r="C29">
+        <v>71.76000000000001</v>
+      </c>
+      <c r="D29">
+        <v>6.8</v>
+      </c>
+      <c r="E29">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>38777</v>
+      </c>
+      <c r="C30">
+        <v>134.64</v>
+      </c>
+      <c r="D30">
+        <v>5.8</v>
+      </c>
+      <c r="E30">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>38808</v>
+      </c>
+      <c r="C31">
+        <v>107.4</v>
+      </c>
+      <c r="D31">
+        <v>10.2</v>
+      </c>
+      <c r="E31">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>38838</v>
+      </c>
+      <c r="C32">
+        <v>122.4</v>
+      </c>
+      <c r="D32">
+        <v>6.2</v>
+      </c>
+      <c r="E32">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>38869</v>
+      </c>
+      <c r="C33">
+        <v>181.12</v>
+      </c>
+      <c r="D33">
+        <v>13.1</v>
+      </c>
+      <c r="E33">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>38899</v>
+      </c>
+      <c r="C34">
+        <v>119.12</v>
+      </c>
+      <c r="D34">
+        <v>4.6</v>
+      </c>
+      <c r="E34">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>38930</v>
+      </c>
+      <c r="C35">
+        <v>4.8</v>
+      </c>
+      <c r="D35">
+        <v>4.8</v>
+      </c>
+      <c r="E35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <v>38961</v>
+      </c>
+      <c r="C36">
+        <v>0.8</v>
+      </c>
+      <c r="D36">
+        <v>0.8</v>
+      </c>
+      <c r="E36">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <v>38991</v>
+      </c>
+      <c r="C37">
+        <v>1.9</v>
+      </c>
+      <c r="D37">
+        <v>1.9</v>
+      </c>
+      <c r="E37">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <v>39022</v>
+      </c>
+      <c r="C38">
+        <v>2.2</v>
+      </c>
+      <c r="D38">
+        <v>2.2</v>
+      </c>
+      <c r="E38">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <v>39052</v>
+      </c>
+      <c r="C39">
+        <v>4.1</v>
+      </c>
+      <c r="D39">
+        <v>4.1</v>
+      </c>
+      <c r="E39">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
+        <v>39083</v>
+      </c>
+      <c r="C40">
+        <v>45.28</v>
+      </c>
+      <c r="D40">
+        <v>1.8</v>
+      </c>
+      <c r="E40">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <v>39114</v>
+      </c>
+      <c r="C41">
+        <v>39.12</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
+        <v>39142</v>
+      </c>
+      <c r="C42">
+        <v>70.56</v>
+      </c>
+      <c r="D42">
+        <v>5.8</v>
+      </c>
+      <c r="E42">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
+        <v>39173</v>
+      </c>
+      <c r="C43">
+        <v>134.88</v>
+      </c>
+      <c r="D43">
+        <v>2.6</v>
+      </c>
+      <c r="E43">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2">
+        <v>39203</v>
+      </c>
+      <c r="C44">
+        <v>109.27</v>
+      </c>
+      <c r="D44">
+        <v>2.6</v>
+      </c>
+      <c r="E44">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2">
+        <v>39234</v>
+      </c>
+      <c r="C45">
+        <v>205.92</v>
+      </c>
+      <c r="D45">
+        <v>4.6</v>
+      </c>
+      <c r="E45">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2">
+        <v>39264</v>
+      </c>
+      <c r="C46">
+        <v>55.2</v>
+      </c>
+      <c r="D46">
+        <v>1.4</v>
+      </c>
+      <c r="E46">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2">
+        <v>39295</v>
+      </c>
+      <c r="C47">
+        <v>176.4</v>
+      </c>
+      <c r="D47">
+        <v>0.2</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2">
+        <v>39326</v>
+      </c>
+      <c r="C48">
+        <v>97.2</v>
+      </c>
+      <c r="D48">
+        <v>1.4</v>
+      </c>
+      <c r="E48">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2">
+        <v>39356</v>
+      </c>
+      <c r="C49">
+        <v>67.44</v>
+      </c>
+      <c r="D49">
+        <v>7.1</v>
+      </c>
+      <c r="E49">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2">
+        <v>39387</v>
+      </c>
+      <c r="C50">
+        <v>85.44</v>
+      </c>
+      <c r="D50">
+        <v>8.6</v>
+      </c>
+      <c r="E50">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2">
+        <v>39417</v>
+      </c>
+      <c r="C51">
+        <v>59.28</v>
+      </c>
+      <c r="D51">
+        <v>6.1</v>
+      </c>
+      <c r="E51">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2">
+        <v>39448</v>
+      </c>
+      <c r="C52">
+        <v>64.8</v>
+      </c>
+      <c r="D52">
+        <v>2.9</v>
+      </c>
+      <c r="E52">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2">
+        <v>39479</v>
+      </c>
+      <c r="C53">
+        <v>94.56</v>
+      </c>
+      <c r="D53">
+        <v>1.1</v>
+      </c>
+      <c r="E53">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2">
+        <v>39508</v>
+      </c>
+      <c r="C54">
+        <v>64.56</v>
+      </c>
+      <c r="D54">
+        <v>1.9</v>
+      </c>
+      <c r="E54">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2">
+        <v>39539</v>
+      </c>
+      <c r="C55">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2">
+        <v>39569</v>
+      </c>
+      <c r="C56">
+        <v>119.04</v>
+      </c>
+      <c r="D56">
+        <v>13</v>
+      </c>
+      <c r="E56">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2">
+        <v>39600</v>
+      </c>
+      <c r="C57">
+        <v>138</v>
+      </c>
+      <c r="D57">
+        <v>4.8</v>
+      </c>
+      <c r="E57">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2">
+        <v>39630</v>
+      </c>
+      <c r="C58">
+        <v>132</v>
+      </c>
+      <c r="D58">
+        <v>4.8</v>
+      </c>
+      <c r="E58">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2">
+        <v>39661</v>
+      </c>
+      <c r="C59">
+        <v>112.56</v>
+      </c>
+      <c r="D59">
+        <v>40.3</v>
+      </c>
+      <c r="E59">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2">
+        <v>39692</v>
+      </c>
+      <c r="C60">
+        <v>126</v>
+      </c>
+      <c r="D60">
+        <v>58.5</v>
+      </c>
+      <c r="E60">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2">
+        <v>39722</v>
+      </c>
+      <c r="C61">
+        <v>162.24</v>
+      </c>
+      <c r="D61">
+        <v>6.1</v>
+      </c>
+      <c r="E61">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2">
+        <v>39753</v>
+      </c>
+      <c r="C62">
+        <v>101.92</v>
+      </c>
+      <c r="D62">
+        <v>8.4</v>
+      </c>
+      <c r="E62">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2">
+        <v>39783</v>
+      </c>
+      <c r="C63">
+        <v>77.04000000000001</v>
+      </c>
+      <c r="D63">
+        <v>49.9</v>
+      </c>
+      <c r="E63">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2">
+        <v>39814</v>
+      </c>
+      <c r="C64">
+        <v>106.76</v>
+      </c>
+      <c r="D64">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="E64">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2">
+        <v>39845</v>
+      </c>
+      <c r="C65">
+        <v>78.23999999999999</v>
+      </c>
+      <c r="D65">
+        <v>48</v>
+      </c>
+      <c r="E65">
         <v>2.7</v>
       </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2">
+        <v>39873</v>
+      </c>
+      <c r="C66">
+        <v>73.76000000000001</v>
+      </c>
+      <c r="D66">
+        <v>25.1</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2">
+        <v>39904</v>
+      </c>
+      <c r="C67">
+        <v>109.96</v>
+      </c>
+      <c r="D67">
+        <v>65.2</v>
+      </c>
+      <c r="E67">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2">
+        <v>39934</v>
+      </c>
+      <c r="C68">
+        <v>103.44</v>
+      </c>
+      <c r="D68">
+        <v>71.5</v>
+      </c>
+      <c r="E68">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2">
+        <v>39965</v>
+      </c>
+      <c r="C69">
+        <v>110.88</v>
+      </c>
+      <c r="D69">
+        <v>1.1</v>
+      </c>
+      <c r="E69">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2">
+        <v>39995</v>
+      </c>
+      <c r="C70">
+        <v>169.2</v>
+      </c>
+      <c r="D70">
+        <v>1.1</v>
+      </c>
+      <c r="E70">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2">
+        <v>40026</v>
+      </c>
+      <c r="C71">
+        <v>133.2</v>
+      </c>
+      <c r="D71">
+        <v>38.9</v>
+      </c>
+      <c r="E71">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2">
+        <v>40057</v>
+      </c>
+      <c r="C72">
+        <v>53.28</v>
+      </c>
+      <c r="D72">
+        <v>15</v>
+      </c>
+      <c r="E72">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2">
+        <v>40087</v>
+      </c>
+      <c r="C73">
+        <v>67.44</v>
+      </c>
+      <c r="D73">
+        <v>3.2</v>
+      </c>
+      <c r="E73">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2">
+        <v>40118</v>
+      </c>
+      <c r="C74">
+        <v>32.64</v>
+      </c>
+      <c r="D74">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="E74">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2">
+        <v>40148</v>
+      </c>
+      <c r="C75">
+        <v>59.28</v>
+      </c>
+      <c r="D75">
+        <v>5.1</v>
+      </c>
+      <c r="E75">
+        <v>60.7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2">
+        <v>40179</v>
+      </c>
+      <c r="C76">
+        <v>30.48</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2">
+        <v>40210</v>
+      </c>
+      <c r="C77">
+        <v>45.84</v>
+      </c>
+      <c r="D77">
+        <v>4.4</v>
+      </c>
+      <c r="E77">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2">
+        <v>40238</v>
+      </c>
+      <c r="C78">
+        <v>77.28</v>
+      </c>
+      <c r="D78">
+        <v>20.7</v>
+      </c>
+      <c r="E78">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2">
+        <v>40269</v>
+      </c>
+      <c r="C79">
+        <v>169.36</v>
+      </c>
+      <c r="D79">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="E79">
+        <v>129.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2">
+        <v>40299</v>
+      </c>
+      <c r="C80">
+        <v>124</v>
+      </c>
+      <c r="D80">
+        <v>5.5</v>
+      </c>
+      <c r="E80">
+        <v>79.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2">
+        <v>40330</v>
+      </c>
+      <c r="C81">
+        <v>225.84</v>
+      </c>
+      <c r="D81">
+        <v>29.6</v>
+      </c>
+      <c r="E81">
+        <v>131.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2">
+        <v>40360</v>
+      </c>
+      <c r="C82">
+        <v>174.24</v>
+      </c>
+      <c r="D82">
+        <v>66</v>
+      </c>
+      <c r="E82">
+        <v>105.8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2">
+        <v>40391</v>
+      </c>
+      <c r="C83">
+        <v>184.8</v>
+      </c>
+      <c r="D83">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="E83">
+        <v>119.9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2">
+        <v>40422</v>
+      </c>
+      <c r="C84">
+        <v>130.8</v>
+      </c>
+      <c r="D84">
+        <v>33.2</v>
+      </c>
+      <c r="E84">
+        <v>65.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2">
+        <v>40452</v>
+      </c>
+      <c r="C85">
+        <v>58.62</v>
+      </c>
+      <c r="D85">
+        <v>51.8</v>
+      </c>
+      <c r="E85">
+        <v>36.7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2">
+        <v>40483</v>
+      </c>
+      <c r="C86">
+        <v>164.68</v>
+      </c>
+      <c r="D86">
+        <v>7.6</v>
+      </c>
+      <c r="E86">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2">
+        <v>40513</v>
+      </c>
+      <c r="C87">
+        <v>131.28</v>
+      </c>
+      <c r="D87">
+        <v>3.6</v>
+      </c>
+      <c r="E87">
+        <v>71.59999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2">
+        <v>40544</v>
+      </c>
+      <c r="C88">
+        <v>53.76</v>
+      </c>
+      <c r="D88">
+        <v>37.6</v>
+      </c>
+      <c r="E88">
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2">
+        <v>40575</v>
+      </c>
+      <c r="C89">
+        <v>128.32</v>
+      </c>
+      <c r="D89">
+        <v>3.6</v>
+      </c>
+      <c r="E89">
+        <v>129.7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2">
+        <v>40603</v>
+      </c>
+      <c r="C90">
+        <v>86.88</v>
+      </c>
+      <c r="D90">
+        <v>74.8</v>
+      </c>
+      <c r="E90">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2">
+        <v>40634</v>
+      </c>
+      <c r="C91">
+        <v>143.76</v>
+      </c>
+      <c r="D91">
+        <v>111.6</v>
+      </c>
+      <c r="E91">
+        <v>151.9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2">
+        <v>40664</v>
+      </c>
+      <c r="C92">
+        <v>189.6</v>
+      </c>
+      <c r="D92">
+        <v>141.2</v>
+      </c>
+      <c r="E92">
+        <v>110.6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2">
+        <v>40695</v>
+      </c>
+      <c r="C93">
+        <v>144</v>
+      </c>
+      <c r="D93">
+        <v>144.5</v>
+      </c>
+      <c r="E93">
+        <v>109.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2">
+        <v>40725</v>
+      </c>
+      <c r="C94">
+        <v>256.24</v>
+      </c>
+      <c r="D94">
+        <v>138</v>
+      </c>
+      <c r="E94">
+        <v>141.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2">
+        <v>40756</v>
+      </c>
+      <c r="C95">
+        <v>143.28</v>
+      </c>
+      <c r="D95">
+        <v>63.7</v>
+      </c>
+      <c r="E95">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2">
+        <v>40787</v>
+      </c>
+      <c r="C96">
+        <v>161.76</v>
+      </c>
+      <c r="D96">
+        <v>87.3</v>
+      </c>
+      <c r="E96">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2">
+        <v>40817</v>
+      </c>
+      <c r="C97">
+        <v>109.04</v>
+      </c>
+      <c r="D97">
+        <v>74</v>
+      </c>
+      <c r="E97">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2">
+        <v>40848</v>
+      </c>
+      <c r="C98">
+        <v>178.36</v>
+      </c>
+      <c r="D98">
+        <v>96.3</v>
+      </c>
+      <c r="E98">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2">
+        <v>40878</v>
+      </c>
+      <c r="C99">
+        <v>183.04</v>
+      </c>
+      <c r="D99">
+        <v>115.9</v>
+      </c>
+      <c r="E99">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2">
+        <v>40909</v>
+      </c>
+      <c r="C100">
+        <v>138.72</v>
+      </c>
+      <c r="D100">
+        <v>114.2</v>
+      </c>
+      <c r="E100">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2">
+        <v>40940</v>
+      </c>
+      <c r="C101">
+        <v>114.96</v>
+      </c>
+      <c r="D101">
+        <v>83.40000000000001</v>
+      </c>
+      <c r="E101">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2">
+        <v>40969</v>
+      </c>
+      <c r="C102">
+        <v>145.44</v>
+      </c>
+      <c r="D102">
+        <v>90.8</v>
+      </c>
+      <c r="E102">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2">
+        <v>41000</v>
+      </c>
+      <c r="C103">
+        <v>132.72</v>
+      </c>
+      <c r="D103">
+        <v>99.5</v>
+      </c>
+      <c r="E103">
+        <v>84.09999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" s="2">
+        <v>41030</v>
+      </c>
+      <c r="C104">
+        <v>130.08</v>
+      </c>
+      <c r="D104">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="E104">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" s="2">
+        <v>41061</v>
+      </c>
+      <c r="C105">
+        <v>133.44</v>
+      </c>
+      <c r="D105">
+        <v>83</v>
+      </c>
+      <c r="E105">
+        <v>53.7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2">
+        <v>41091</v>
+      </c>
+      <c r="C106">
+        <v>187.2</v>
+      </c>
+      <c r="D106">
+        <v>118</v>
+      </c>
+      <c r="E106">
+        <v>78.7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2">
+        <v>41122</v>
+      </c>
+      <c r="C107">
+        <v>174.96</v>
+      </c>
+      <c r="D107">
+        <v>117.4</v>
+      </c>
+      <c r="E107">
+        <v>88.59999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2">
+        <v>41153</v>
+      </c>
+      <c r="C108">
+        <v>91.68000000000001</v>
+      </c>
+      <c r="D108">
+        <v>57.5</v>
+      </c>
+      <c r="E108">
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2">
+        <v>41183</v>
+      </c>
+      <c r="C109">
+        <v>92.88</v>
+      </c>
+      <c r="D109">
+        <v>71</v>
+      </c>
+      <c r="E109">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2">
+        <v>41214</v>
+      </c>
+      <c r="C110">
+        <v>2.5</v>
+      </c>
+      <c r="D110">
+        <v>40.6</v>
+      </c>
+      <c r="E110">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2">
+        <v>41244</v>
+      </c>
+      <c r="C111">
+        <v>7.6</v>
+      </c>
+      <c r="D111">
+        <v>45.2</v>
+      </c>
+      <c r="E111">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2">
+        <v>41275</v>
+      </c>
+      <c r="C112">
+        <v>4.1</v>
+      </c>
+      <c r="D112">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="E112">
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2">
+        <v>41306</v>
+      </c>
+      <c r="C113">
+        <v>190.4</v>
+      </c>
+      <c r="D113">
+        <v>159.6</v>
+      </c>
+      <c r="E113">
+        <v>108.1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" s="2">
+        <v>41334</v>
+      </c>
+      <c r="C114">
+        <v>7.1</v>
+      </c>
+      <c r="D114">
+        <v>57.1</v>
+      </c>
+      <c r="E114">
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" s="2">
+        <v>41365</v>
+      </c>
+      <c r="C115">
+        <v>95.04000000000001</v>
+      </c>
+      <c r="D115">
+        <v>69.8</v>
+      </c>
+      <c r="E115">
+        <v>41.2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" s="2">
+        <v>41395</v>
+      </c>
+      <c r="C116">
+        <v>138.72</v>
+      </c>
+      <c r="D116">
+        <v>114.5</v>
+      </c>
+      <c r="E116">
+        <v>103.6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" s="2">
+        <v>41426</v>
+      </c>
+      <c r="C117">
+        <v>125.76</v>
+      </c>
+      <c r="D117">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="E117">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" s="2">
+        <v>41456</v>
+      </c>
+      <c r="C118">
+        <v>221.76</v>
+      </c>
+      <c r="D118">
+        <v>138.2</v>
+      </c>
+      <c r="E118">
+        <v>102.1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" s="2">
+        <v>41487</v>
+      </c>
+      <c r="C119">
+        <v>119.04</v>
+      </c>
+      <c r="D119">
+        <v>73.8</v>
+      </c>
+      <c r="E119">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" s="2">
+        <v>41518</v>
+      </c>
+      <c r="C120">
+        <v>127.68</v>
+      </c>
+      <c r="D120">
+        <v>86.8</v>
+      </c>
+      <c r="E120">
+        <v>65.8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" s="2">
+        <v>41548</v>
+      </c>
+      <c r="C121">
+        <v>138.96</v>
+      </c>
+      <c r="D121">
+        <v>83.5</v>
+      </c>
+      <c r="E121">
+        <v>75.90000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" s="2">
+        <v>41579</v>
+      </c>
+      <c r="C122">
+        <v>157.52</v>
+      </c>
+      <c r="D122">
+        <v>88.7</v>
+      </c>
+      <c r="E122">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" s="2">
+        <v>41609</v>
+      </c>
+      <c r="C123">
+        <v>56.4</v>
+      </c>
+      <c r="D123">
+        <v>36.5</v>
+      </c>
+      <c r="E123">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" s="2">
+        <v>41640</v>
+      </c>
+      <c r="C124">
+        <v>130.32</v>
+      </c>
+      <c r="D124">
+        <v>93.7</v>
+      </c>
+      <c r="E124">
+        <v>59.7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" s="2">
+        <v>41671</v>
+      </c>
+      <c r="C125">
+        <v>32.16</v>
+      </c>
+      <c r="D125">
+        <v>16.6</v>
+      </c>
+      <c r="E125">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" s="2">
+        <v>41699</v>
+      </c>
+      <c r="C126">
+        <v>128.16</v>
+      </c>
+      <c r="D126">
+        <v>100.8</v>
+      </c>
+      <c r="E126">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" s="2">
+        <v>41730</v>
+      </c>
+      <c r="C127">
+        <v>174.72</v>
+      </c>
+      <c r="D127">
+        <v>113.9</v>
+      </c>
+      <c r="E127">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" s="2">
+        <v>41760</v>
+      </c>
+      <c r="C128">
+        <v>160.32</v>
+      </c>
+      <c r="D128">
+        <v>118.8</v>
+      </c>
+      <c r="E128">
+        <v>97.59999999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" s="2">
+        <v>41791</v>
+      </c>
+      <c r="C129">
+        <v>244.8</v>
+      </c>
+      <c r="D129">
+        <v>172.1</v>
+      </c>
+      <c r="E129">
+        <v>131.8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" s="2">
+        <v>41821</v>
+      </c>
+      <c r="C130">
+        <v>189.6</v>
+      </c>
+      <c r="D130">
+        <v>114.8</v>
+      </c>
+      <c r="E130">
+        <v>83.90000000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" s="2">
+        <v>41852</v>
+      </c>
+      <c r="C131">
+        <v>152.88</v>
+      </c>
+      <c r="D131">
+        <v>97.5</v>
+      </c>
+      <c r="E131">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" s="2">
+        <v>41883</v>
+      </c>
+      <c r="C132">
+        <v>156.72</v>
+      </c>
+      <c r="D132">
+        <v>95</v>
+      </c>
+      <c r="E132">
+        <v>71.2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" s="2">
+        <v>41913</v>
+      </c>
+      <c r="C133">
+        <v>169.2</v>
+      </c>
+      <c r="D133">
+        <v>105.9</v>
+      </c>
+      <c r="E133">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" s="2">
+        <v>41944</v>
+      </c>
+      <c r="C134">
+        <v>119.76</v>
+      </c>
+      <c r="D134">
+        <v>81.7</v>
+      </c>
+      <c r="E134">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" s="2">
+        <v>41974</v>
+      </c>
+      <c r="C135">
+        <v>109.68</v>
+      </c>
+      <c r="D135">
+        <v>76.8</v>
+      </c>
+      <c r="E135">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" s="2">
+        <v>42005</v>
+      </c>
+      <c r="C136">
+        <v>107.52</v>
+      </c>
+      <c r="D136">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="E136">
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" s="2">
+        <v>42036</v>
+      </c>
+      <c r="C137">
+        <v>70.08</v>
+      </c>
+      <c r="D137">
+        <v>39.6</v>
+      </c>
+      <c r="E137">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" s="2">
+        <v>42064</v>
+      </c>
+      <c r="C138">
+        <v>151.68</v>
+      </c>
+      <c r="D138">
+        <v>95.8</v>
+      </c>
+      <c r="E138">
+        <v>85.40000000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" s="2">
+        <v>42095</v>
+      </c>
+      <c r="C139">
+        <v>204.96</v>
+      </c>
+      <c r="D139">
+        <v>110.7</v>
+      </c>
+      <c r="E139">
+        <v>72.3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" s="2">
+        <v>42125</v>
+      </c>
+      <c r="C140">
+        <v>169.44</v>
+      </c>
+      <c r="D140">
+        <v>102.5</v>
+      </c>
+      <c r="E140">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2">
+        <v>42156</v>
+      </c>
+      <c r="C141">
+        <v>373.44</v>
+      </c>
+      <c r="D141">
+        <v>201.9</v>
+      </c>
+      <c r="E141">
+        <v>153.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" s="2">
+        <v>42186</v>
+      </c>
+      <c r="C142">
+        <v>338.16</v>
+      </c>
+      <c r="D142">
+        <v>174.5</v>
+      </c>
+      <c r="E142">
+        <v>136.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" s="2">
+        <v>42217</v>
+      </c>
+      <c r="C143">
+        <v>193.2</v>
+      </c>
+      <c r="D143">
+        <v>92.8</v>
+      </c>
+      <c r="E143">
+        <v>67.09999999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" s="2">
+        <v>42248</v>
+      </c>
+      <c r="C144">
+        <v>8.5</v>
+      </c>
+      <c r="D144">
+        <v>38.4</v>
+      </c>
+      <c r="E144">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" s="2">
+        <v>42278</v>
+      </c>
+      <c r="C145">
+        <v>133.68</v>
+      </c>
+      <c r="D145">
+        <v>84.5</v>
+      </c>
+      <c r="E145">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" s="2">
+        <v>42309</v>
+      </c>
+      <c r="C146">
+        <v>132.72</v>
+      </c>
+      <c r="D146">
+        <v>78.5</v>
+      </c>
+      <c r="E146">
+        <v>70.40000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" s="2">
+        <v>42339</v>
+      </c>
+      <c r="C147">
+        <v>95.04000000000001</v>
+      </c>
+      <c r="D147">
+        <v>46.8</v>
+      </c>
+      <c r="E147">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148" s="2">
+        <v>42370</v>
+      </c>
+      <c r="C148">
+        <v>21.36</v>
+      </c>
+      <c r="D148">
+        <v>15</v>
+      </c>
+      <c r="E148">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149" s="2">
+        <v>42401</v>
+      </c>
+      <c r="C149">
+        <v>154.08</v>
+      </c>
+      <c r="D149">
+        <v>83.2</v>
+      </c>
+      <c r="E149">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150" s="2">
+        <v>42430</v>
+      </c>
+      <c r="C150">
+        <v>198.96</v>
+      </c>
+      <c r="D150">
+        <v>110.5</v>
+      </c>
+      <c r="E150">
+        <v>80.90000000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151" s="2">
+        <v>42461</v>
+      </c>
+      <c r="C151">
+        <v>224.16</v>
+      </c>
+      <c r="D151">
+        <v>146.9</v>
+      </c>
+      <c r="E151">
+        <v>160.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152" s="2">
+        <v>42491</v>
+      </c>
+      <c r="C152">
+        <v>155.04</v>
+      </c>
+      <c r="D152">
+        <v>82.2</v>
+      </c>
+      <c r="E152">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153" s="2">
+        <v>42522</v>
+      </c>
+      <c r="C153">
+        <v>342</v>
+      </c>
+      <c r="D153">
+        <v>187.9</v>
+      </c>
+      <c r="E153">
+        <v>136.2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154" s="2">
+        <v>42552</v>
+      </c>
+      <c r="C154">
+        <v>233.52</v>
+      </c>
+      <c r="D154">
+        <v>137</v>
+      </c>
+      <c r="E154">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155" s="2">
+        <v>42583</v>
+      </c>
+      <c r="C155">
+        <v>114.96</v>
+      </c>
+      <c r="D155">
+        <v>58</v>
+      </c>
+      <c r="E155">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156" s="2">
+        <v>42614</v>
+      </c>
+      <c r="C156">
+        <v>215.52</v>
+      </c>
+      <c r="D156">
+        <v>138.4</v>
+      </c>
+      <c r="E156">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157" s="2">
+        <v>42644</v>
+      </c>
+      <c r="C157">
+        <v>154.32</v>
+      </c>
+      <c r="D157">
+        <v>101</v>
+      </c>
+      <c r="E157">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158" s="2">
+        <v>42675</v>
+      </c>
+      <c r="C158">
+        <v>108.48</v>
+      </c>
+      <c r="D158">
+        <v>57.3</v>
+      </c>
+      <c r="E158">
+        <v>58.3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159" s="2">
+        <v>42705</v>
+      </c>
+      <c r="C159">
+        <v>61.44</v>
+      </c>
+      <c r="D159">
+        <v>45.2</v>
+      </c>
+      <c r="E159">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160" s="2">
+        <v>42736</v>
+      </c>
+      <c r="C160">
+        <v>16.5</v>
+      </c>
+      <c r="D160">
+        <v>113.9</v>
+      </c>
+      <c r="E160">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161" s="2">
+        <v>42767</v>
+      </c>
+      <c r="C161">
+        <v>78.72</v>
+      </c>
+      <c r="D161">
+        <v>61.6</v>
+      </c>
+      <c r="E161">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162" s="2">
+        <v>42795</v>
+      </c>
+      <c r="C162">
+        <v>173.76</v>
+      </c>
+      <c r="D162">
+        <v>106.8</v>
+      </c>
+      <c r="E162">
+        <v>133.9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163" s="2">
+        <v>42826</v>
+      </c>
+      <c r="C163">
+        <v>161.76</v>
+      </c>
+      <c r="D163">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="E163">
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164" s="2">
+        <v>42856</v>
+      </c>
+      <c r="C164">
+        <v>204.48</v>
+      </c>
+      <c r="D164">
+        <v>9.4</v>
+      </c>
+      <c r="E164">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165" s="2">
+        <v>42887</v>
+      </c>
+      <c r="C165">
+        <v>194.16</v>
+      </c>
+      <c r="D165">
+        <v>5.1</v>
+      </c>
+      <c r="E165">
+        <v>104.7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166" s="2">
+        <v>42917</v>
+      </c>
+      <c r="C166">
+        <v>253.44</v>
+      </c>
+      <c r="D166">
+        <v>5.7</v>
+      </c>
+      <c r="E166">
+        <v>104.9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167" s="2">
+        <v>42948</v>
+      </c>
+      <c r="C167">
+        <v>163.2</v>
+      </c>
+      <c r="D167">
+        <v>95.2</v>
+      </c>
+      <c r="E167">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168" s="2">
+        <v>42979</v>
+      </c>
+      <c r="C168">
+        <v>138.96</v>
+      </c>
+      <c r="D168">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="E168">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169" s="2">
+        <v>43009</v>
+      </c>
+      <c r="C169">
+        <v>128.64</v>
+      </c>
+      <c r="D169">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="E169">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170" s="2">
+        <v>43040</v>
+      </c>
+      <c r="C170">
+        <v>90.95999999999999</v>
+      </c>
+      <c r="D170">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="E170">
+        <v>91.90000000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171" s="2">
+        <v>43070</v>
+      </c>
+      <c r="C171">
+        <v>132.24</v>
+      </c>
+      <c r="D171">
+        <v>90.5</v>
+      </c>
+      <c r="E171">
+        <v>64.59999999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172" s="2">
+        <v>43101</v>
+      </c>
+      <c r="C172">
+        <v>91.26000000000001</v>
+      </c>
+      <c r="D172">
+        <v>107.6</v>
+      </c>
+      <c r="E172">
+        <v>86.09999999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173" s="2">
+        <v>43132</v>
+      </c>
+      <c r="C173">
+        <v>26.2</v>
+      </c>
+      <c r="D173">
+        <v>44.2</v>
+      </c>
+      <c r="E173">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174" s="2">
+        <v>43160</v>
+      </c>
+      <c r="C174">
+        <v>7.2</v>
+      </c>
+      <c r="D174">
+        <v>65.5</v>
+      </c>
+      <c r="E174">
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175" s="2">
+        <v>43191</v>
+      </c>
+      <c r="C175">
+        <v>15.5</v>
+      </c>
+      <c r="D175">
+        <v>150.7</v>
+      </c>
+      <c r="E175">
+        <v>112.9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176" s="2">
+        <v>43221</v>
+      </c>
+      <c r="C176">
+        <v>114.9</v>
+      </c>
+      <c r="D176">
+        <v>171.3</v>
+      </c>
+      <c r="E176">
+        <v>64.3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177" s="2">
+        <v>43252</v>
+      </c>
+      <c r="C177">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="D177">
+        <v>143.1</v>
+      </c>
+      <c r="E177">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C178">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="D178">
+        <v>91.2</v>
+      </c>
+      <c r="E178">
+        <v>65.09999999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179" s="2">
+        <v>43313</v>
+      </c>
+      <c r="C179">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="D179">
+        <v>100</v>
+      </c>
+      <c r="E179">
+        <v>77.59999999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180" s="2">
+        <v>43344</v>
+      </c>
+      <c r="C180">
+        <v>63.2</v>
+      </c>
+      <c r="D180">
+        <v>104.6</v>
+      </c>
+      <c r="E180">
+        <v>86.09999999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C181">
+        <v>39.8</v>
+      </c>
+      <c r="D181">
+        <v>55.9</v>
+      </c>
+      <c r="E181">
+        <v>103.1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182" s="2">
+        <v>43405</v>
+      </c>
+      <c r="C182">
+        <v>52.8</v>
+      </c>
+      <c r="D182">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="E182">
+        <v>149.3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183" s="2">
+        <v>43435</v>
+      </c>
+      <c r="C183">
+        <v>54.6</v>
+      </c>
+      <c r="D183">
+        <v>13.8</v>
+      </c>
+      <c r="E183">
+        <v>74.2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184" s="2">
+        <v>43466</v>
+      </c>
+      <c r="C184">
+        <v>36.9</v>
+      </c>
+      <c r="D184">
+        <v>4.3</v>
+      </c>
+      <c r="E184">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185" s="2">
+        <v>43497</v>
+      </c>
+      <c r="C185">
+        <v>42.6</v>
+      </c>
+      <c r="D185">
+        <v>11.3</v>
+      </c>
+      <c r="E185">
+        <v>85.59999999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186" s="2">
+        <v>43525</v>
+      </c>
+      <c r="C186">
+        <v>36.6</v>
+      </c>
+      <c r="D186">
+        <v>15.5</v>
+      </c>
+      <c r="E186">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187" s="2">
+        <v>43556</v>
+      </c>
+      <c r="C187">
+        <v>52.1</v>
+      </c>
+      <c r="D187">
+        <v>7.4</v>
+      </c>
+      <c r="E187">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188" s="2">
+        <v>43586</v>
+      </c>
+      <c r="C188">
+        <v>110.3</v>
+      </c>
+      <c r="D188">
+        <v>8.6</v>
+      </c>
+      <c r="E188">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189" s="2">
+        <v>43617</v>
+      </c>
+      <c r="C189">
+        <v>134.8</v>
+      </c>
+      <c r="D189">
+        <v>1.2</v>
+      </c>
+      <c r="E189">
+        <v>118.4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C190">
+        <v>92.3</v>
+      </c>
+      <c r="D190">
+        <v>127.7</v>
+      </c>
+      <c r="E190">
+        <v>127.8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C191">
+        <v>92.5</v>
+      </c>
+      <c r="D191">
+        <v>2.3</v>
+      </c>
+      <c r="E191">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192" s="2">
+        <v>43709</v>
+      </c>
+      <c r="C192">
+        <v>45.4</v>
+      </c>
+      <c r="D192">
+        <v>1.3</v>
+      </c>
+      <c r="E192">
+        <v>60.9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C193">
+        <v>31.9</v>
+      </c>
+      <c r="D193">
+        <v>7.8</v>
+      </c>
+      <c r="E193">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194" s="2">
+        <v>43770</v>
+      </c>
+      <c r="C194">
+        <v>61.9</v>
+      </c>
+      <c r="D194">
+        <v>10.4</v>
+      </c>
+      <c r="E194">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195" s="2">
+        <v>43800</v>
+      </c>
+      <c r="C195">
+        <v>92.09999999999999</v>
+      </c>
+      <c r="D195">
+        <v>69.8</v>
+      </c>
+      <c r="E195">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C196">
+        <v>129.7</v>
+      </c>
+      <c r="D196">
+        <v>81</v>
+      </c>
+      <c r="E196">
+        <v>82.59999999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197" s="2">
+        <v>43862</v>
+      </c>
+      <c r="C197">
+        <v>57.4</v>
+      </c>
+      <c r="D197">
+        <v>9</v>
+      </c>
+      <c r="E197">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198" s="2">
+        <v>43891</v>
+      </c>
+      <c r="C198">
+        <v>13.9</v>
+      </c>
+      <c r="D198">
+        <v>13.9</v>
+      </c>
+      <c r="E198">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C199">
+        <v>16.4</v>
+      </c>
+      <c r="D199">
+        <v>16.4</v>
+      </c>
+      <c r="E199">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200" s="2">
+        <v>43952</v>
+      </c>
+      <c r="C200">
+        <v>46</v>
+      </c>
+      <c r="D200">
+        <v>46</v>
+      </c>
+      <c r="E200">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201" s="2">
+        <v>43983</v>
+      </c>
+      <c r="C201">
+        <v>10.3</v>
+      </c>
+      <c r="D201">
+        <v>10.3</v>
+      </c>
+      <c r="E201">
+        <v>142.6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C202">
+        <v>12.7</v>
+      </c>
+      <c r="D202">
+        <v>12.7</v>
+      </c>
+      <c r="E202">
+        <v>144.5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203" s="2">
+        <v>44044</v>
+      </c>
+      <c r="C203">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D203">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E203">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204">
+        <v>202</v>
+      </c>
+      <c r="B204" s="2">
+        <v>44075</v>
+      </c>
+      <c r="C204">
+        <v>119.8</v>
+      </c>
+      <c r="D204">
+        <v>7.5</v>
+      </c>
+      <c r="E204">
+        <v>104.3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205">
+        <v>203</v>
+      </c>
+      <c r="B205" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C205">
+        <v>4.3</v>
+      </c>
+      <c r="D205">
+        <v>4.3</v>
+      </c>
+      <c r="E205">
+        <v>49.8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206">
+        <v>204</v>
+      </c>
+      <c r="B206" s="2">
+        <v>44136</v>
+      </c>
+      <c r="C206">
+        <v>3.2</v>
+      </c>
+      <c r="D206">
+        <v>111.8</v>
+      </c>
+      <c r="E206">
+        <v>125.6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207">
+        <v>205</v>
+      </c>
+      <c r="B207" s="2">
+        <v>44166</v>
+      </c>
+      <c r="C207">
+        <v>10.7</v>
+      </c>
+      <c r="D207">
+        <v>57.5</v>
+      </c>
+      <c r="E207">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208">
+        <v>206</v>
+      </c>
+      <c r="B208" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C208">
+        <v>7.6</v>
+      </c>
+      <c r="D208">
+        <v>86.2</v>
+      </c>
+      <c r="E208">
+        <v>64.59999999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209">
+        <v>207</v>
+      </c>
+      <c r="B209" s="2">
+        <v>44228</v>
+      </c>
+      <c r="C209">
+        <v>10</v>
+      </c>
+      <c r="D209">
+        <v>83.2</v>
+      </c>
+      <c r="E209">
+        <v>75.2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210" s="2">
+        <v>44256</v>
+      </c>
+      <c r="C210">
+        <v>11.2</v>
+      </c>
+      <c r="D210">
+        <v>136</v>
+      </c>
+      <c r="E210">
+        <v>209.4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211">
+        <v>209</v>
+      </c>
+      <c r="B211" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C211">
+        <v>169.4</v>
+      </c>
+      <c r="D211">
+        <v>175.7</v>
+      </c>
+      <c r="E211">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212">
+        <v>210</v>
+      </c>
+      <c r="B212" s="2">
+        <v>44317</v>
+      </c>
+      <c r="C212">
+        <v>156.4</v>
+      </c>
+      <c r="D212">
+        <v>167.1</v>
+      </c>
+      <c r="E212">
+        <v>126.7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213">
+        <v>211</v>
+      </c>
+      <c r="B213" s="2">
+        <v>44348</v>
+      </c>
+      <c r="C213">
+        <v>176.3</v>
+      </c>
+      <c r="D213">
+        <v>195.7</v>
+      </c>
+      <c r="E213">
+        <v>116.7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214">
+        <v>212</v>
+      </c>
+      <c r="B214" s="2">
+        <v>44378</v>
+      </c>
+      <c r="C214">
+        <v>9.4</v>
+      </c>
+      <c r="D214">
+        <v>177.9</v>
+      </c>
+      <c r="E214">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215" s="2">
+        <v>44409</v>
+      </c>
+      <c r="C215">
+        <v>10</v>
+      </c>
+      <c r="D215">
+        <v>104.9</v>
+      </c>
+      <c r="E215">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216" s="2">
+        <v>44440</v>
+      </c>
+      <c r="C216">
+        <v>158</v>
+      </c>
+      <c r="D216">
+        <v>156.4</v>
+      </c>
+      <c r="E216">
+        <v>112.8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217">
+        <v>215</v>
+      </c>
+      <c r="B217" s="2">
+        <v>44470</v>
+      </c>
+      <c r="C217">
+        <v>76.8</v>
+      </c>
+      <c r="D217">
+        <v>90.3</v>
+      </c>
+      <c r="E217">
+        <v>86.90000000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218">
+        <v>216</v>
+      </c>
+      <c r="B218" s="2">
+        <v>44501</v>
+      </c>
+      <c r="C218">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="D218">
+        <v>80.8</v>
+      </c>
+      <c r="E218">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219" s="2">
+        <v>44531</v>
+      </c>
+      <c r="C219">
+        <v>15.9</v>
+      </c>
+      <c r="D219">
+        <v>73.8</v>
+      </c>
+      <c r="E219">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220">
+        <v>218</v>
+      </c>
+      <c r="B220" s="2">
+        <v>44562</v>
+      </c>
+      <c r="C220">
+        <v>0.3</v>
+      </c>
+      <c r="D220">
+        <v>45</v>
+      </c>
+      <c r="E220">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221" s="2">
+        <v>44593</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="E221">
+        <v>60.1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222" s="2">
+        <v>44621</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>105.2</v>
+      </c>
+      <c r="E222">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C223">
+        <v>69.5</v>
+      </c>
+      <c r="D223">
+        <v>128.5</v>
+      </c>
+      <c r="E223">
+        <v>80.90000000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224" s="2">
+        <v>44682</v>
+      </c>
+      <c r="C224">
+        <v>129.1</v>
+      </c>
+      <c r="D224">
+        <v>154.1</v>
+      </c>
+      <c r="E224">
+        <v>104.9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225" s="2">
+        <v>44713</v>
+      </c>
+      <c r="C225">
+        <v>170.1</v>
+      </c>
+      <c r="D225">
+        <v>188</v>
+      </c>
+      <c r="E225">
+        <v>158.8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226" s="2">
+        <v>44743</v>
+      </c>
+      <c r="C226">
+        <v>165.2</v>
+      </c>
+      <c r="D226">
+        <v>172.3</v>
+      </c>
+      <c r="E226">
+        <v>133.3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227" s="2">
+        <v>44774</v>
+      </c>
+      <c r="C227">
+        <v>1.8</v>
+      </c>
+      <c r="D227">
+        <v>1.8</v>
+      </c>
+      <c r="E227">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228" s="2">
+        <v>44805</v>
+      </c>
+      <c r="C228">
+        <v>1.6</v>
+      </c>
+      <c r="D228">
+        <v>1.6</v>
+      </c>
+      <c r="E228">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229" s="2">
+        <v>44835</v>
+      </c>
+      <c r="C229">
+        <v>11.7</v>
+      </c>
+      <c r="D229">
+        <v>63.6</v>
+      </c>
+      <c r="E229">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230" s="2">
+        <v>44866</v>
+      </c>
+      <c r="C230">
+        <v>52.7</v>
+      </c>
       <c r="D230">
-        <v>16.9</v>
+        <v>55</v>
       </c>
       <c r="E230">
-        <v>-1.5</v>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231">
+        <v>229</v>
+      </c>
+      <c r="B231" s="2">
+        <v>44896</v>
+      </c>
+      <c r="C231">
+        <v>0.9</v>
+      </c>
+      <c r="D231">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="E231">
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C232">
+        <v>5.1</v>
+      </c>
+      <c r="D232">
+        <v>80.3</v>
+      </c>
+      <c r="E232">
+        <v>70.40000000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233" s="2">
+        <v>44958</v>
+      </c>
+      <c r="C233">
+        <v>6.8</v>
+      </c>
+      <c r="D233">
+        <v>45.2</v>
+      </c>
+      <c r="E233">
+        <v>40.6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234" s="2">
+        <v>44986</v>
+      </c>
+      <c r="C234">
+        <v>167.4</v>
+      </c>
+      <c r="D234">
+        <v>146.4</v>
+      </c>
+      <c r="E234">
+        <v>124.8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235" s="2">
+        <v>45017</v>
+      </c>
+      <c r="C235">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="D235">
+        <v>106</v>
+      </c>
+      <c r="E235">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236" s="2">
+        <v>45047</v>
+      </c>
+      <c r="C236">
+        <v>11</v>
+      </c>
+      <c r="D236">
+        <v>143</v>
+      </c>
+      <c r="E236">
+        <v>91.3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237" s="2">
+        <v>45078</v>
+      </c>
+      <c r="C237">
+        <v>31.5</v>
+      </c>
+      <c r="D237">
+        <v>177.5</v>
+      </c>
+      <c r="E237">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238" s="2">
+        <v>45108</v>
+      </c>
+      <c r="C238">
+        <v>157.5</v>
+      </c>
+      <c r="D238">
+        <v>230.6</v>
+      </c>
+      <c r="E238">
+        <v>93.59999999999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239" s="2">
+        <v>45139</v>
+      </c>
+      <c r="C239">
+        <v>127.9</v>
+      </c>
+      <c r="D239">
+        <v>159.2</v>
+      </c>
+      <c r="E239">
+        <v>78.7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240" s="2">
+        <v>45170</v>
+      </c>
+      <c r="C240">
+        <v>63</v>
+      </c>
+      <c r="D240">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="E240">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241" s="2">
+        <v>45200</v>
+      </c>
+      <c r="C241">
+        <v>45.4</v>
+      </c>
+      <c r="D241">
+        <v>56.6</v>
+      </c>
+      <c r="E241">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242" s="2">
+        <v>45231</v>
+      </c>
+      <c r="C242">
+        <v>6.3</v>
+      </c>
+      <c r="D242">
+        <v>6.3</v>
+      </c>
+      <c r="E242">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243" s="2">
+        <v>45261</v>
+      </c>
+      <c r="C243">
+        <v>4.7</v>
+      </c>
+      <c r="D243">
+        <v>4.7</v>
+      </c>
+      <c r="E243">
+        <v>78.09999999999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244" s="2">
+        <v>45292</v>
+      </c>
+      <c r="C244">
+        <v>42.2</v>
+      </c>
+      <c r="D244">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="E244">
+        <v>61.1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245" s="2">
+        <v>45323</v>
+      </c>
+      <c r="C245">
+        <v>80.3</v>
+      </c>
+      <c r="D245">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="E245">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246" s="2">
+        <v>45352</v>
+      </c>
+      <c r="C246">
+        <v>76.2</v>
+      </c>
+      <c r="D246">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="E246">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247" s="2">
+        <v>45383</v>
+      </c>
+      <c r="C247">
+        <v>129.89</v>
+      </c>
+      <c r="D247">
+        <v>156.3</v>
+      </c>
+      <c r="E247">
+        <v>120.9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248" s="2">
+        <v>45413</v>
+      </c>
+      <c r="C248">
+        <v>13.86</v>
+      </c>
+      <c r="D248">
+        <v>162.1</v>
+      </c>
+      <c r="E248">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249" s="2">
+        <v>45444</v>
+      </c>
+      <c r="C249">
+        <v>14.83</v>
+      </c>
+      <c r="D249">
+        <v>179.7</v>
+      </c>
+      <c r="E249">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250">
+        <v>248</v>
+      </c>
+      <c r="B250" s="2">
+        <v>45474</v>
+      </c>
+      <c r="C250">
+        <v>14.2</v>
+      </c>
+      <c r="D250">
+        <v>165.9</v>
+      </c>
+      <c r="E250">
+        <v>93.59999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/SISTEMA_MANTENIMIENTO/uploads/faltantes_resultado.xlsx
+++ b/SISTEMA_MANTENIMIENTO/uploads/faltantes_resultado.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
-    <sheet name="Completados" sheetId="2" r:id="rId2"/>
-    <sheet name="Completado_Filas" sheetId="3" r:id="rId3"/>
+    <sheet name="Completado_Filas" sheetId="2" r:id="rId2"/>
+    <sheet name="Detalle_Clima_Relleno" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -3980,6 +3980,4269 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E250"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>37926</v>
+      </c>
+      <c r="C2">
+        <v>75.8</v>
+      </c>
+      <c r="D2">
+        <v>0.3</v>
+      </c>
+      <c r="E2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>37956</v>
+      </c>
+      <c r="C3">
+        <v>101.64</v>
+      </c>
+      <c r="D3">
+        <v>18.2</v>
+      </c>
+      <c r="E3">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>37987</v>
+      </c>
+      <c r="C4">
+        <v>0.3</v>
+      </c>
+      <c r="D4">
+        <v>0.3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>38018</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>38047</v>
+      </c>
+      <c r="C6">
+        <v>7.3</v>
+      </c>
+      <c r="D6">
+        <v>7.3</v>
+      </c>
+      <c r="E6">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>38078</v>
+      </c>
+      <c r="C7">
+        <v>4.4</v>
+      </c>
+      <c r="D7">
+        <v>4.4</v>
+      </c>
+      <c r="E7">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>38108</v>
+      </c>
+      <c r="C8">
+        <v>4.2</v>
+      </c>
+      <c r="D8">
+        <v>4.2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>38139</v>
+      </c>
+      <c r="C9">
+        <v>4.9</v>
+      </c>
+      <c r="D9">
+        <v>4.9</v>
+      </c>
+      <c r="E9">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>38169</v>
+      </c>
+      <c r="C10">
+        <v>1.2</v>
+      </c>
+      <c r="D10">
+        <v>1.2</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>38200</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>38231</v>
+      </c>
+      <c r="C12">
+        <v>74.64</v>
+      </c>
+      <c r="D12">
+        <v>0.2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>38261</v>
+      </c>
+      <c r="C13">
+        <v>66.98</v>
+      </c>
+      <c r="D13">
+        <v>4.9</v>
+      </c>
+      <c r="E13">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>38292</v>
+      </c>
+      <c r="C14">
+        <v>35.76</v>
+      </c>
+      <c r="D14">
+        <v>4.6</v>
+      </c>
+      <c r="E14">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>38322</v>
+      </c>
+      <c r="C15">
+        <v>42.96</v>
+      </c>
+      <c r="D15">
+        <v>8.1</v>
+      </c>
+      <c r="E15">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>38353</v>
+      </c>
+      <c r="C16">
+        <v>12.72</v>
+      </c>
+      <c r="D16">
+        <v>1.4</v>
+      </c>
+      <c r="E16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>38384</v>
+      </c>
+      <c r="C17">
+        <v>41.04</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>38412</v>
+      </c>
+      <c r="C18">
+        <v>49.6</v>
+      </c>
+      <c r="D18">
+        <v>0.9</v>
+      </c>
+      <c r="E18">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>38443</v>
+      </c>
+      <c r="C19">
+        <v>204.96</v>
+      </c>
+      <c r="D19">
+        <v>6.8</v>
+      </c>
+      <c r="E19">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>38473</v>
+      </c>
+      <c r="C20">
+        <v>117.12</v>
+      </c>
+      <c r="D20">
+        <v>2.2</v>
+      </c>
+      <c r="E20">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>38504</v>
+      </c>
+      <c r="C21">
+        <v>167.5</v>
+      </c>
+      <c r="D21">
+        <v>6.1</v>
+      </c>
+      <c r="E21">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>38534</v>
+      </c>
+      <c r="C22">
+        <v>104.68</v>
+      </c>
+      <c r="D22">
+        <v>0.7</v>
+      </c>
+      <c r="E22">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>38565</v>
+      </c>
+      <c r="C23">
+        <v>57.12</v>
+      </c>
+      <c r="D23">
+        <v>3.4</v>
+      </c>
+      <c r="E23">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>38596</v>
+      </c>
+      <c r="C24">
+        <v>67.2</v>
+      </c>
+      <c r="D24">
+        <v>1.8</v>
+      </c>
+      <c r="E24">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>38626</v>
+      </c>
+      <c r="C25">
+        <v>8.6</v>
+      </c>
+      <c r="D25">
+        <v>8.6</v>
+      </c>
+      <c r="E25">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>38657</v>
+      </c>
+      <c r="C26">
+        <v>6.1</v>
+      </c>
+      <c r="D26">
+        <v>6.1</v>
+      </c>
+      <c r="E26">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>38687</v>
+      </c>
+      <c r="C27">
+        <v>149.04</v>
+      </c>
+      <c r="D27">
+        <v>2.5</v>
+      </c>
+      <c r="E27">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <v>38718</v>
+      </c>
+      <c r="C28">
+        <v>97.92</v>
+      </c>
+      <c r="D28">
+        <v>0.9</v>
+      </c>
+      <c r="E28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>38749</v>
+      </c>
+      <c r="C29">
+        <v>71.76000000000001</v>
+      </c>
+      <c r="D29">
+        <v>6.8</v>
+      </c>
+      <c r="E29">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>38777</v>
+      </c>
+      <c r="C30">
+        <v>134.64</v>
+      </c>
+      <c r="D30">
+        <v>5.8</v>
+      </c>
+      <c r="E30">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>38808</v>
+      </c>
+      <c r="C31">
+        <v>107.4</v>
+      </c>
+      <c r="D31">
+        <v>10.2</v>
+      </c>
+      <c r="E31">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>38838</v>
+      </c>
+      <c r="C32">
+        <v>122.4</v>
+      </c>
+      <c r="D32">
+        <v>6.2</v>
+      </c>
+      <c r="E32">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>38869</v>
+      </c>
+      <c r="C33">
+        <v>181.12</v>
+      </c>
+      <c r="D33">
+        <v>13.1</v>
+      </c>
+      <c r="E33">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>38899</v>
+      </c>
+      <c r="C34">
+        <v>119.12</v>
+      </c>
+      <c r="D34">
+        <v>4.6</v>
+      </c>
+      <c r="E34">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>38930</v>
+      </c>
+      <c r="C35">
+        <v>4.8</v>
+      </c>
+      <c r="D35">
+        <v>4.8</v>
+      </c>
+      <c r="E35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <v>38961</v>
+      </c>
+      <c r="C36">
+        <v>0.8</v>
+      </c>
+      <c r="D36">
+        <v>0.8</v>
+      </c>
+      <c r="E36">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <v>38991</v>
+      </c>
+      <c r="C37">
+        <v>1.9</v>
+      </c>
+      <c r="D37">
+        <v>1.9</v>
+      </c>
+      <c r="E37">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <v>39022</v>
+      </c>
+      <c r="C38">
+        <v>2.2</v>
+      </c>
+      <c r="D38">
+        <v>2.2</v>
+      </c>
+      <c r="E38">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <v>39052</v>
+      </c>
+      <c r="C39">
+        <v>4.1</v>
+      </c>
+      <c r="D39">
+        <v>4.1</v>
+      </c>
+      <c r="E39">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
+        <v>39083</v>
+      </c>
+      <c r="C40">
+        <v>45.28</v>
+      </c>
+      <c r="D40">
+        <v>1.8</v>
+      </c>
+      <c r="E40">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <v>39114</v>
+      </c>
+      <c r="C41">
+        <v>39.12</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
+        <v>39142</v>
+      </c>
+      <c r="C42">
+        <v>70.56</v>
+      </c>
+      <c r="D42">
+        <v>5.8</v>
+      </c>
+      <c r="E42">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
+        <v>39173</v>
+      </c>
+      <c r="C43">
+        <v>134.88</v>
+      </c>
+      <c r="D43">
+        <v>2.6</v>
+      </c>
+      <c r="E43">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2">
+        <v>39203</v>
+      </c>
+      <c r="C44">
+        <v>109.27</v>
+      </c>
+      <c r="D44">
+        <v>2.6</v>
+      </c>
+      <c r="E44">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2">
+        <v>39234</v>
+      </c>
+      <c r="C45">
+        <v>205.92</v>
+      </c>
+      <c r="D45">
+        <v>4.6</v>
+      </c>
+      <c r="E45">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2">
+        <v>39264</v>
+      </c>
+      <c r="C46">
+        <v>55.2</v>
+      </c>
+      <c r="D46">
+        <v>1.4</v>
+      </c>
+      <c r="E46">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2">
+        <v>39295</v>
+      </c>
+      <c r="C47">
+        <v>176.4</v>
+      </c>
+      <c r="D47">
+        <v>0.2</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2">
+        <v>39326</v>
+      </c>
+      <c r="C48">
+        <v>97.2</v>
+      </c>
+      <c r="D48">
+        <v>1.4</v>
+      </c>
+      <c r="E48">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2">
+        <v>39356</v>
+      </c>
+      <c r="C49">
+        <v>67.44</v>
+      </c>
+      <c r="D49">
+        <v>7.1</v>
+      </c>
+      <c r="E49">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2">
+        <v>39387</v>
+      </c>
+      <c r="C50">
+        <v>85.44</v>
+      </c>
+      <c r="D50">
+        <v>8.6</v>
+      </c>
+      <c r="E50">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2">
+        <v>39417</v>
+      </c>
+      <c r="C51">
+        <v>59.28</v>
+      </c>
+      <c r="D51">
+        <v>6.1</v>
+      </c>
+      <c r="E51">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2">
+        <v>39448</v>
+      </c>
+      <c r="C52">
+        <v>64.8</v>
+      </c>
+      <c r="D52">
+        <v>2.9</v>
+      </c>
+      <c r="E52">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2">
+        <v>39479</v>
+      </c>
+      <c r="C53">
+        <v>94.56</v>
+      </c>
+      <c r="D53">
+        <v>1.1</v>
+      </c>
+      <c r="E53">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2">
+        <v>39508</v>
+      </c>
+      <c r="C54">
+        <v>64.56</v>
+      </c>
+      <c r="D54">
+        <v>1.9</v>
+      </c>
+      <c r="E54">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2">
+        <v>39539</v>
+      </c>
+      <c r="C55">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2">
+        <v>39569</v>
+      </c>
+      <c r="C56">
+        <v>119.04</v>
+      </c>
+      <c r="D56">
+        <v>13</v>
+      </c>
+      <c r="E56">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2">
+        <v>39600</v>
+      </c>
+      <c r="C57">
+        <v>138</v>
+      </c>
+      <c r="D57">
+        <v>4.8</v>
+      </c>
+      <c r="E57">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2">
+        <v>39630</v>
+      </c>
+      <c r="C58">
+        <v>132</v>
+      </c>
+      <c r="D58">
+        <v>4.8</v>
+      </c>
+      <c r="E58">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2">
+        <v>39661</v>
+      </c>
+      <c r="C59">
+        <v>112.56</v>
+      </c>
+      <c r="D59">
+        <v>40.3</v>
+      </c>
+      <c r="E59">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2">
+        <v>39692</v>
+      </c>
+      <c r="C60">
+        <v>126</v>
+      </c>
+      <c r="D60">
+        <v>58.5</v>
+      </c>
+      <c r="E60">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2">
+        <v>39722</v>
+      </c>
+      <c r="C61">
+        <v>162.24</v>
+      </c>
+      <c r="D61">
+        <v>6.1</v>
+      </c>
+      <c r="E61">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2">
+        <v>39753</v>
+      </c>
+      <c r="C62">
+        <v>101.92</v>
+      </c>
+      <c r="D62">
+        <v>8.4</v>
+      </c>
+      <c r="E62">
+        <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2">
+        <v>39783</v>
+      </c>
+      <c r="C63">
+        <v>77.04000000000001</v>
+      </c>
+      <c r="D63">
+        <v>49.9</v>
+      </c>
+      <c r="E63">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2">
+        <v>39814</v>
+      </c>
+      <c r="C64">
+        <v>106.76</v>
+      </c>
+      <c r="D64">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="E64">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2">
+        <v>39845</v>
+      </c>
+      <c r="C65">
+        <v>78.23999999999999</v>
+      </c>
+      <c r="D65">
+        <v>48</v>
+      </c>
+      <c r="E65">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2">
+        <v>39873</v>
+      </c>
+      <c r="C66">
+        <v>73.76000000000001</v>
+      </c>
+      <c r="D66">
+        <v>25.1</v>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2">
+        <v>39904</v>
+      </c>
+      <c r="C67">
+        <v>109.96</v>
+      </c>
+      <c r="D67">
+        <v>65.2</v>
+      </c>
+      <c r="E67">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2">
+        <v>39934</v>
+      </c>
+      <c r="C68">
+        <v>103.44</v>
+      </c>
+      <c r="D68">
+        <v>71.5</v>
+      </c>
+      <c r="E68">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2">
+        <v>39965</v>
+      </c>
+      <c r="C69">
+        <v>110.88</v>
+      </c>
+      <c r="D69">
+        <v>1.1</v>
+      </c>
+      <c r="E69">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2">
+        <v>39995</v>
+      </c>
+      <c r="C70">
+        <v>169.2</v>
+      </c>
+      <c r="D70">
+        <v>1.1</v>
+      </c>
+      <c r="E70">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2">
+        <v>40026</v>
+      </c>
+      <c r="C71">
+        <v>133.2</v>
+      </c>
+      <c r="D71">
+        <v>38.9</v>
+      </c>
+      <c r="E71">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2">
+        <v>40057</v>
+      </c>
+      <c r="C72">
+        <v>53.28</v>
+      </c>
+      <c r="D72">
+        <v>15</v>
+      </c>
+      <c r="E72">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2">
+        <v>40087</v>
+      </c>
+      <c r="C73">
+        <v>67.44</v>
+      </c>
+      <c r="D73">
+        <v>3.2</v>
+      </c>
+      <c r="E73">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2">
+        <v>40118</v>
+      </c>
+      <c r="C74">
+        <v>32.64</v>
+      </c>
+      <c r="D74">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="E74">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2">
+        <v>40148</v>
+      </c>
+      <c r="C75">
+        <v>59.28</v>
+      </c>
+      <c r="D75">
+        <v>5.1</v>
+      </c>
+      <c r="E75">
+        <v>60.7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2">
+        <v>40179</v>
+      </c>
+      <c r="C76">
+        <v>30.48</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2">
+        <v>40210</v>
+      </c>
+      <c r="C77">
+        <v>45.84</v>
+      </c>
+      <c r="D77">
+        <v>4.4</v>
+      </c>
+      <c r="E77">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2">
+        <v>40238</v>
+      </c>
+      <c r="C78">
+        <v>77.28</v>
+      </c>
+      <c r="D78">
+        <v>20.7</v>
+      </c>
+      <c r="E78">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2">
+        <v>40269</v>
+      </c>
+      <c r="C79">
+        <v>169.36</v>
+      </c>
+      <c r="D79">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="E79">
+        <v>129.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2">
+        <v>40299</v>
+      </c>
+      <c r="C80">
+        <v>124</v>
+      </c>
+      <c r="D80">
+        <v>5.5</v>
+      </c>
+      <c r="E80">
+        <v>79.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2">
+        <v>40330</v>
+      </c>
+      <c r="C81">
+        <v>225.84</v>
+      </c>
+      <c r="D81">
+        <v>29.6</v>
+      </c>
+      <c r="E81">
+        <v>131.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2">
+        <v>40360</v>
+      </c>
+      <c r="C82">
+        <v>174.24</v>
+      </c>
+      <c r="D82">
+        <v>66</v>
+      </c>
+      <c r="E82">
+        <v>105.8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2">
+        <v>40391</v>
+      </c>
+      <c r="C83">
+        <v>184.8</v>
+      </c>
+      <c r="D83">
+        <v>73.40000000000001</v>
+      </c>
+      <c r="E83">
+        <v>119.9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2">
+        <v>40422</v>
+      </c>
+      <c r="C84">
+        <v>130.8</v>
+      </c>
+      <c r="D84">
+        <v>33.2</v>
+      </c>
+      <c r="E84">
+        <v>65.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2">
+        <v>40452</v>
+      </c>
+      <c r="C85">
+        <v>58.62</v>
+      </c>
+      <c r="D85">
+        <v>51.8</v>
+      </c>
+      <c r="E85">
+        <v>36.7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2">
+        <v>40483</v>
+      </c>
+      <c r="C86">
+        <v>164.68</v>
+      </c>
+      <c r="D86">
+        <v>7.6</v>
+      </c>
+      <c r="E86">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2">
+        <v>40513</v>
+      </c>
+      <c r="C87">
+        <v>131.28</v>
+      </c>
+      <c r="D87">
+        <v>3.6</v>
+      </c>
+      <c r="E87">
+        <v>71.59999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2">
+        <v>40544</v>
+      </c>
+      <c r="C88">
+        <v>53.76</v>
+      </c>
+      <c r="D88">
+        <v>37.6</v>
+      </c>
+      <c r="E88">
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2">
+        <v>40575</v>
+      </c>
+      <c r="C89">
+        <v>128.32</v>
+      </c>
+      <c r="D89">
+        <v>3.6</v>
+      </c>
+      <c r="E89">
+        <v>129.7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2">
+        <v>40603</v>
+      </c>
+      <c r="C90">
+        <v>86.88</v>
+      </c>
+      <c r="D90">
+        <v>74.8</v>
+      </c>
+      <c r="E90">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2">
+        <v>40634</v>
+      </c>
+      <c r="C91">
+        <v>143.76</v>
+      </c>
+      <c r="D91">
+        <v>111.6</v>
+      </c>
+      <c r="E91">
+        <v>151.9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2">
+        <v>40664</v>
+      </c>
+      <c r="C92">
+        <v>189.6</v>
+      </c>
+      <c r="D92">
+        <v>141.2</v>
+      </c>
+      <c r="E92">
+        <v>110.6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2">
+        <v>40695</v>
+      </c>
+      <c r="C93">
+        <v>144</v>
+      </c>
+      <c r="D93">
+        <v>144.5</v>
+      </c>
+      <c r="E93">
+        <v>109.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2">
+        <v>40725</v>
+      </c>
+      <c r="C94">
+        <v>256.24</v>
+      </c>
+      <c r="D94">
+        <v>138</v>
+      </c>
+      <c r="E94">
+        <v>141.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2">
+        <v>40756</v>
+      </c>
+      <c r="C95">
+        <v>143.28</v>
+      </c>
+      <c r="D95">
+        <v>63.7</v>
+      </c>
+      <c r="E95">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2">
+        <v>40787</v>
+      </c>
+      <c r="C96">
+        <v>161.76</v>
+      </c>
+      <c r="D96">
+        <v>87.3</v>
+      </c>
+      <c r="E96">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2">
+        <v>40817</v>
+      </c>
+      <c r="C97">
+        <v>109.04</v>
+      </c>
+      <c r="D97">
+        <v>74</v>
+      </c>
+      <c r="E97">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2">
+        <v>40848</v>
+      </c>
+      <c r="C98">
+        <v>178.36</v>
+      </c>
+      <c r="D98">
+        <v>96.3</v>
+      </c>
+      <c r="E98">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2">
+        <v>40878</v>
+      </c>
+      <c r="C99">
+        <v>183.04</v>
+      </c>
+      <c r="D99">
+        <v>115.9</v>
+      </c>
+      <c r="E99">
+        <v>84.90000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2">
+        <v>40909</v>
+      </c>
+      <c r="C100">
+        <v>138.72</v>
+      </c>
+      <c r="D100">
+        <v>114.2</v>
+      </c>
+      <c r="E100">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2">
+        <v>40940</v>
+      </c>
+      <c r="C101">
+        <v>114.96</v>
+      </c>
+      <c r="D101">
+        <v>83.40000000000001</v>
+      </c>
+      <c r="E101">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2">
+        <v>40969</v>
+      </c>
+      <c r="C102">
+        <v>145.44</v>
+      </c>
+      <c r="D102">
+        <v>90.8</v>
+      </c>
+      <c r="E102">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2">
+        <v>41000</v>
+      </c>
+      <c r="C103">
+        <v>132.72</v>
+      </c>
+      <c r="D103">
+        <v>99.5</v>
+      </c>
+      <c r="E103">
+        <v>84.09999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104" s="2">
+        <v>41030</v>
+      </c>
+      <c r="C104">
+        <v>130.08</v>
+      </c>
+      <c r="D104">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="E104">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105" s="2">
+        <v>41061</v>
+      </c>
+      <c r="C105">
+        <v>133.44</v>
+      </c>
+      <c r="D105">
+        <v>83</v>
+      </c>
+      <c r="E105">
+        <v>53.7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2">
+        <v>41091</v>
+      </c>
+      <c r="C106">
+        <v>187.2</v>
+      </c>
+      <c r="D106">
+        <v>118</v>
+      </c>
+      <c r="E106">
+        <v>78.7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2">
+        <v>41122</v>
+      </c>
+      <c r="C107">
+        <v>174.96</v>
+      </c>
+      <c r="D107">
+        <v>117.4</v>
+      </c>
+      <c r="E107">
+        <v>88.59999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2">
+        <v>41153</v>
+      </c>
+      <c r="C108">
+        <v>91.68000000000001</v>
+      </c>
+      <c r="D108">
+        <v>57.5</v>
+      </c>
+      <c r="E108">
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2">
+        <v>41183</v>
+      </c>
+      <c r="C109">
+        <v>92.88</v>
+      </c>
+      <c r="D109">
+        <v>71</v>
+      </c>
+      <c r="E109">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2">
+        <v>41214</v>
+      </c>
+      <c r="C110">
+        <v>2.5</v>
+      </c>
+      <c r="D110">
+        <v>40.6</v>
+      </c>
+      <c r="E110">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2">
+        <v>41244</v>
+      </c>
+      <c r="C111">
+        <v>7.6</v>
+      </c>
+      <c r="D111">
+        <v>45.2</v>
+      </c>
+      <c r="E111">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2">
+        <v>41275</v>
+      </c>
+      <c r="C112">
+        <v>4.1</v>
+      </c>
+      <c r="D112">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="E112">
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2">
+        <v>41306</v>
+      </c>
+      <c r="C113">
+        <v>190.4</v>
+      </c>
+      <c r="D113">
+        <v>159.6</v>
+      </c>
+      <c r="E113">
+        <v>108.1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" s="2">
+        <v>41334</v>
+      </c>
+      <c r="C114">
+        <v>7.1</v>
+      </c>
+      <c r="D114">
+        <v>57.1</v>
+      </c>
+      <c r="E114">
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" s="2">
+        <v>41365</v>
+      </c>
+      <c r="C115">
+        <v>95.04000000000001</v>
+      </c>
+      <c r="D115">
+        <v>69.8</v>
+      </c>
+      <c r="E115">
+        <v>41.2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" s="2">
+        <v>41395</v>
+      </c>
+      <c r="C116">
+        <v>138.72</v>
+      </c>
+      <c r="D116">
+        <v>114.5</v>
+      </c>
+      <c r="E116">
+        <v>103.6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" s="2">
+        <v>41426</v>
+      </c>
+      <c r="C117">
+        <v>125.76</v>
+      </c>
+      <c r="D117">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="E117">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" s="2">
+        <v>41456</v>
+      </c>
+      <c r="C118">
+        <v>221.76</v>
+      </c>
+      <c r="D118">
+        <v>138.2</v>
+      </c>
+      <c r="E118">
+        <v>102.1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" s="2">
+        <v>41487</v>
+      </c>
+      <c r="C119">
+        <v>119.04</v>
+      </c>
+      <c r="D119">
+        <v>73.8</v>
+      </c>
+      <c r="E119">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" s="2">
+        <v>41518</v>
+      </c>
+      <c r="C120">
+        <v>127.68</v>
+      </c>
+      <c r="D120">
+        <v>86.8</v>
+      </c>
+      <c r="E120">
+        <v>65.8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" s="2">
+        <v>41548</v>
+      </c>
+      <c r="C121">
+        <v>138.96</v>
+      </c>
+      <c r="D121">
+        <v>83.5</v>
+      </c>
+      <c r="E121">
+        <v>75.90000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" s="2">
+        <v>41579</v>
+      </c>
+      <c r="C122">
+        <v>157.52</v>
+      </c>
+      <c r="D122">
+        <v>88.7</v>
+      </c>
+      <c r="E122">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" s="2">
+        <v>41609</v>
+      </c>
+      <c r="C123">
+        <v>56.4</v>
+      </c>
+      <c r="D123">
+        <v>36.5</v>
+      </c>
+      <c r="E123">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" s="2">
+        <v>41640</v>
+      </c>
+      <c r="C124">
+        <v>130.32</v>
+      </c>
+      <c r="D124">
+        <v>93.7</v>
+      </c>
+      <c r="E124">
+        <v>59.7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" s="2">
+        <v>41671</v>
+      </c>
+      <c r="C125">
+        <v>32.16</v>
+      </c>
+      <c r="D125">
+        <v>16.6</v>
+      </c>
+      <c r="E125">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" s="2">
+        <v>41699</v>
+      </c>
+      <c r="C126">
+        <v>128.16</v>
+      </c>
+      <c r="D126">
+        <v>100.8</v>
+      </c>
+      <c r="E126">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" s="2">
+        <v>41730</v>
+      </c>
+      <c r="C127">
+        <v>174.72</v>
+      </c>
+      <c r="D127">
+        <v>113.9</v>
+      </c>
+      <c r="E127">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" s="2">
+        <v>41760</v>
+      </c>
+      <c r="C128">
+        <v>160.32</v>
+      </c>
+      <c r="D128">
+        <v>118.8</v>
+      </c>
+      <c r="E128">
+        <v>97.59999999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" s="2">
+        <v>41791</v>
+      </c>
+      <c r="C129">
+        <v>244.8</v>
+      </c>
+      <c r="D129">
+        <v>172.1</v>
+      </c>
+      <c r="E129">
+        <v>131.8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" s="2">
+        <v>41821</v>
+      </c>
+      <c r="C130">
+        <v>189.6</v>
+      </c>
+      <c r="D130">
+        <v>114.8</v>
+      </c>
+      <c r="E130">
+        <v>83.90000000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" s="2">
+        <v>41852</v>
+      </c>
+      <c r="C131">
+        <v>152.88</v>
+      </c>
+      <c r="D131">
+        <v>97.5</v>
+      </c>
+      <c r="E131">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" s="2">
+        <v>41883</v>
+      </c>
+      <c r="C132">
+        <v>156.72</v>
+      </c>
+      <c r="D132">
+        <v>95</v>
+      </c>
+      <c r="E132">
+        <v>71.2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" s="2">
+        <v>41913</v>
+      </c>
+      <c r="C133">
+        <v>169.2</v>
+      </c>
+      <c r="D133">
+        <v>105.9</v>
+      </c>
+      <c r="E133">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" s="2">
+        <v>41944</v>
+      </c>
+      <c r="C134">
+        <v>119.76</v>
+      </c>
+      <c r="D134">
+        <v>81.7</v>
+      </c>
+      <c r="E134">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" s="2">
+        <v>41974</v>
+      </c>
+      <c r="C135">
+        <v>109.68</v>
+      </c>
+      <c r="D135">
+        <v>76.8</v>
+      </c>
+      <c r="E135">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" s="2">
+        <v>42005</v>
+      </c>
+      <c r="C136">
+        <v>107.52</v>
+      </c>
+      <c r="D136">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="E136">
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" s="2">
+        <v>42036</v>
+      </c>
+      <c r="C137">
+        <v>70.08</v>
+      </c>
+      <c r="D137">
+        <v>39.6</v>
+      </c>
+      <c r="E137">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" s="2">
+        <v>42064</v>
+      </c>
+      <c r="C138">
+        <v>151.68</v>
+      </c>
+      <c r="D138">
+        <v>95.8</v>
+      </c>
+      <c r="E138">
+        <v>85.40000000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" s="2">
+        <v>42095</v>
+      </c>
+      <c r="C139">
+        <v>204.96</v>
+      </c>
+      <c r="D139">
+        <v>110.7</v>
+      </c>
+      <c r="E139">
+        <v>72.3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" s="2">
+        <v>42125</v>
+      </c>
+      <c r="C140">
+        <v>169.44</v>
+      </c>
+      <c r="D140">
+        <v>102.5</v>
+      </c>
+      <c r="E140">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2">
+        <v>42156</v>
+      </c>
+      <c r="C141">
+        <v>373.44</v>
+      </c>
+      <c r="D141">
+        <v>201.9</v>
+      </c>
+      <c r="E141">
+        <v>153.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" s="2">
+        <v>42186</v>
+      </c>
+      <c r="C142">
+        <v>338.16</v>
+      </c>
+      <c r="D142">
+        <v>174.5</v>
+      </c>
+      <c r="E142">
+        <v>136.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" s="2">
+        <v>42217</v>
+      </c>
+      <c r="C143">
+        <v>193.2</v>
+      </c>
+      <c r="D143">
+        <v>92.8</v>
+      </c>
+      <c r="E143">
+        <v>67.09999999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" s="2">
+        <v>42248</v>
+      </c>
+      <c r="C144">
+        <v>8.5</v>
+      </c>
+      <c r="D144">
+        <v>38.4</v>
+      </c>
+      <c r="E144">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" s="2">
+        <v>42278</v>
+      </c>
+      <c r="C145">
+        <v>133.68</v>
+      </c>
+      <c r="D145">
+        <v>84.5</v>
+      </c>
+      <c r="E145">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" s="2">
+        <v>42309</v>
+      </c>
+      <c r="C146">
+        <v>132.72</v>
+      </c>
+      <c r="D146">
+        <v>78.5</v>
+      </c>
+      <c r="E146">
+        <v>70.40000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" s="2">
+        <v>42339</v>
+      </c>
+      <c r="C147">
+        <v>95.04000000000001</v>
+      </c>
+      <c r="D147">
+        <v>46.8</v>
+      </c>
+      <c r="E147">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148" s="2">
+        <v>42370</v>
+      </c>
+      <c r="C148">
+        <v>21.36</v>
+      </c>
+      <c r="D148">
+        <v>15</v>
+      </c>
+      <c r="E148">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149" s="2">
+        <v>42401</v>
+      </c>
+      <c r="C149">
+        <v>154.08</v>
+      </c>
+      <c r="D149">
+        <v>83.2</v>
+      </c>
+      <c r="E149">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150" s="2">
+        <v>42430</v>
+      </c>
+      <c r="C150">
+        <v>198.96</v>
+      </c>
+      <c r="D150">
+        <v>110.5</v>
+      </c>
+      <c r="E150">
+        <v>80.90000000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151" s="2">
+        <v>42461</v>
+      </c>
+      <c r="C151">
+        <v>224.16</v>
+      </c>
+      <c r="D151">
+        <v>146.9</v>
+      </c>
+      <c r="E151">
+        <v>160.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152" s="2">
+        <v>42491</v>
+      </c>
+      <c r="C152">
+        <v>155.04</v>
+      </c>
+      <c r="D152">
+        <v>82.2</v>
+      </c>
+      <c r="E152">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153" s="2">
+        <v>42522</v>
+      </c>
+      <c r="C153">
+        <v>342</v>
+      </c>
+      <c r="D153">
+        <v>187.9</v>
+      </c>
+      <c r="E153">
+        <v>136.2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154" s="2">
+        <v>42552</v>
+      </c>
+      <c r="C154">
+        <v>233.52</v>
+      </c>
+      <c r="D154">
+        <v>137</v>
+      </c>
+      <c r="E154">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155" s="2">
+        <v>42583</v>
+      </c>
+      <c r="C155">
+        <v>114.96</v>
+      </c>
+      <c r="D155">
+        <v>58</v>
+      </c>
+      <c r="E155">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156" s="2">
+        <v>42614</v>
+      </c>
+      <c r="C156">
+        <v>215.52</v>
+      </c>
+      <c r="D156">
+        <v>138.4</v>
+      </c>
+      <c r="E156">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157" s="2">
+        <v>42644</v>
+      </c>
+      <c r="C157">
+        <v>154.32</v>
+      </c>
+      <c r="D157">
+        <v>101</v>
+      </c>
+      <c r="E157">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158" s="2">
+        <v>42675</v>
+      </c>
+      <c r="C158">
+        <v>108.48</v>
+      </c>
+      <c r="D158">
+        <v>57.3</v>
+      </c>
+      <c r="E158">
+        <v>58.3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159" s="2">
+        <v>42705</v>
+      </c>
+      <c r="C159">
+        <v>61.44</v>
+      </c>
+      <c r="D159">
+        <v>45.2</v>
+      </c>
+      <c r="E159">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160" s="2">
+        <v>42736</v>
+      </c>
+      <c r="C160">
+        <v>16.5</v>
+      </c>
+      <c r="D160">
+        <v>113.9</v>
+      </c>
+      <c r="E160">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161" s="2">
+        <v>42767</v>
+      </c>
+      <c r="C161">
+        <v>78.72</v>
+      </c>
+      <c r="D161">
+        <v>61.6</v>
+      </c>
+      <c r="E161">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162" s="2">
+        <v>42795</v>
+      </c>
+      <c r="C162">
+        <v>173.76</v>
+      </c>
+      <c r="D162">
+        <v>106.8</v>
+      </c>
+      <c r="E162">
+        <v>133.9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163" s="2">
+        <v>42826</v>
+      </c>
+      <c r="C163">
+        <v>161.76</v>
+      </c>
+      <c r="D163">
+        <v>85.90000000000001</v>
+      </c>
+      <c r="E163">
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164" s="2">
+        <v>42856</v>
+      </c>
+      <c r="C164">
+        <v>204.48</v>
+      </c>
+      <c r="D164">
+        <v>9.4</v>
+      </c>
+      <c r="E164">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165" s="2">
+        <v>42887</v>
+      </c>
+      <c r="C165">
+        <v>194.16</v>
+      </c>
+      <c r="D165">
+        <v>5.1</v>
+      </c>
+      <c r="E165">
+        <v>104.7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166" s="2">
+        <v>42917</v>
+      </c>
+      <c r="C166">
+        <v>253.44</v>
+      </c>
+      <c r="D166">
+        <v>5.7</v>
+      </c>
+      <c r="E166">
+        <v>104.9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167" s="2">
+        <v>42948</v>
+      </c>
+      <c r="C167">
+        <v>163.2</v>
+      </c>
+      <c r="D167">
+        <v>95.2</v>
+      </c>
+      <c r="E167">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168" s="2">
+        <v>42979</v>
+      </c>
+      <c r="C168">
+        <v>138.96</v>
+      </c>
+      <c r="D168">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="E168">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169" s="2">
+        <v>43009</v>
+      </c>
+      <c r="C169">
+        <v>128.64</v>
+      </c>
+      <c r="D169">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="E169">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170" s="2">
+        <v>43040</v>
+      </c>
+      <c r="C170">
+        <v>90.95999999999999</v>
+      </c>
+      <c r="D170">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="E170">
+        <v>91.90000000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171" s="2">
+        <v>43070</v>
+      </c>
+      <c r="C171">
+        <v>132.24</v>
+      </c>
+      <c r="D171">
+        <v>90.5</v>
+      </c>
+      <c r="E171">
+        <v>64.59999999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172" s="2">
+        <v>43101</v>
+      </c>
+      <c r="C172">
+        <v>91.26000000000001</v>
+      </c>
+      <c r="D172">
+        <v>107.6</v>
+      </c>
+      <c r="E172">
+        <v>86.09999999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173" s="2">
+        <v>43132</v>
+      </c>
+      <c r="C173">
+        <v>26.2</v>
+      </c>
+      <c r="D173">
+        <v>44.2</v>
+      </c>
+      <c r="E173">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174" s="2">
+        <v>43160</v>
+      </c>
+      <c r="C174">
+        <v>7.2</v>
+      </c>
+      <c r="D174">
+        <v>65.5</v>
+      </c>
+      <c r="E174">
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175" s="2">
+        <v>43191</v>
+      </c>
+      <c r="C175">
+        <v>15.5</v>
+      </c>
+      <c r="D175">
+        <v>150.7</v>
+      </c>
+      <c r="E175">
+        <v>112.9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176" s="2">
+        <v>43221</v>
+      </c>
+      <c r="C176">
+        <v>114.9</v>
+      </c>
+      <c r="D176">
+        <v>171.3</v>
+      </c>
+      <c r="E176">
+        <v>64.3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177" s="2">
+        <v>43252</v>
+      </c>
+      <c r="C177">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="D177">
+        <v>143.1</v>
+      </c>
+      <c r="E177">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178" s="2">
+        <v>43282</v>
+      </c>
+      <c r="C178">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="D178">
+        <v>91.2</v>
+      </c>
+      <c r="E178">
+        <v>65.09999999999999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179" s="2">
+        <v>43313</v>
+      </c>
+      <c r="C179">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="D179">
+        <v>100</v>
+      </c>
+      <c r="E179">
+        <v>77.59999999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180" s="2">
+        <v>43344</v>
+      </c>
+      <c r="C180">
+        <v>63.2</v>
+      </c>
+      <c r="D180">
+        <v>104.6</v>
+      </c>
+      <c r="E180">
+        <v>86.09999999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181" s="2">
+        <v>43374</v>
+      </c>
+      <c r="C181">
+        <v>39.8</v>
+      </c>
+      <c r="D181">
+        <v>55.9</v>
+      </c>
+      <c r="E181">
+        <v>103.1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182" s="2">
+        <v>43405</v>
+      </c>
+      <c r="C182">
+        <v>52.8</v>
+      </c>
+      <c r="D182">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="E182">
+        <v>149.3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183" s="2">
+        <v>43435</v>
+      </c>
+      <c r="C183">
+        <v>54.6</v>
+      </c>
+      <c r="D183">
+        <v>13.8</v>
+      </c>
+      <c r="E183">
+        <v>74.2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184" s="2">
+        <v>43466</v>
+      </c>
+      <c r="C184">
+        <v>36.9</v>
+      </c>
+      <c r="D184">
+        <v>4.3</v>
+      </c>
+      <c r="E184">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185" s="2">
+        <v>43497</v>
+      </c>
+      <c r="C185">
+        <v>42.6</v>
+      </c>
+      <c r="D185">
+        <v>11.3</v>
+      </c>
+      <c r="E185">
+        <v>85.59999999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186" s="2">
+        <v>43525</v>
+      </c>
+      <c r="C186">
+        <v>36.6</v>
+      </c>
+      <c r="D186">
+        <v>15.5</v>
+      </c>
+      <c r="E186">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187" s="2">
+        <v>43556</v>
+      </c>
+      <c r="C187">
+        <v>52.1</v>
+      </c>
+      <c r="D187">
+        <v>7.4</v>
+      </c>
+      <c r="E187">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188" s="2">
+        <v>43586</v>
+      </c>
+      <c r="C188">
+        <v>110.3</v>
+      </c>
+      <c r="D188">
+        <v>8.6</v>
+      </c>
+      <c r="E188">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189" s="2">
+        <v>43617</v>
+      </c>
+      <c r="C189">
+        <v>134.8</v>
+      </c>
+      <c r="D189">
+        <v>1.2</v>
+      </c>
+      <c r="E189">
+        <v>118.4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190" s="2">
+        <v>43647</v>
+      </c>
+      <c r="C190">
+        <v>92.3</v>
+      </c>
+      <c r="D190">
+        <v>127.7</v>
+      </c>
+      <c r="E190">
+        <v>127.8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191" s="2">
+        <v>43678</v>
+      </c>
+      <c r="C191">
+        <v>92.5</v>
+      </c>
+      <c r="D191">
+        <v>2.3</v>
+      </c>
+      <c r="E191">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192" s="2">
+        <v>43709</v>
+      </c>
+      <c r="C192">
+        <v>45.4</v>
+      </c>
+      <c r="D192">
+        <v>1.3</v>
+      </c>
+      <c r="E192">
+        <v>60.9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193" s="2">
+        <v>43739</v>
+      </c>
+      <c r="C193">
+        <v>31.9</v>
+      </c>
+      <c r="D193">
+        <v>7.8</v>
+      </c>
+      <c r="E193">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194" s="2">
+        <v>43770</v>
+      </c>
+      <c r="C194">
+        <v>61.9</v>
+      </c>
+      <c r="D194">
+        <v>10.4</v>
+      </c>
+      <c r="E194">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195" s="2">
+        <v>43800</v>
+      </c>
+      <c r="C195">
+        <v>92.09999999999999</v>
+      </c>
+      <c r="D195">
+        <v>69.8</v>
+      </c>
+      <c r="E195">
+        <v>67.40000000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C196">
+        <v>129.7</v>
+      </c>
+      <c r="D196">
+        <v>81</v>
+      </c>
+      <c r="E196">
+        <v>82.59999999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197" s="2">
+        <v>43862</v>
+      </c>
+      <c r="C197">
+        <v>57.4</v>
+      </c>
+      <c r="D197">
+        <v>9</v>
+      </c>
+      <c r="E197">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198" s="2">
+        <v>43891</v>
+      </c>
+      <c r="C198">
+        <v>13.9</v>
+      </c>
+      <c r="D198">
+        <v>13.9</v>
+      </c>
+      <c r="E198">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199" s="2">
+        <v>43922</v>
+      </c>
+      <c r="C199">
+        <v>16.4</v>
+      </c>
+      <c r="D199">
+        <v>16.4</v>
+      </c>
+      <c r="E199">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200" s="2">
+        <v>43952</v>
+      </c>
+      <c r="C200">
+        <v>46</v>
+      </c>
+      <c r="D200">
+        <v>46</v>
+      </c>
+      <c r="E200">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201" s="2">
+        <v>43983</v>
+      </c>
+      <c r="C201">
+        <v>10.3</v>
+      </c>
+      <c r="D201">
+        <v>10.3</v>
+      </c>
+      <c r="E201">
+        <v>142.6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C202">
+        <v>12.7</v>
+      </c>
+      <c r="D202">
+        <v>12.7</v>
+      </c>
+      <c r="E202">
+        <v>144.5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203" s="2">
+        <v>44044</v>
+      </c>
+      <c r="C203">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D203">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E203">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204">
+        <v>202</v>
+      </c>
+      <c r="B204" s="2">
+        <v>44075</v>
+      </c>
+      <c r="C204">
+        <v>119.8</v>
+      </c>
+      <c r="D204">
+        <v>7.5</v>
+      </c>
+      <c r="E204">
+        <v>104.3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205">
+        <v>203</v>
+      </c>
+      <c r="B205" s="2">
+        <v>44105</v>
+      </c>
+      <c r="C205">
+        <v>4.3</v>
+      </c>
+      <c r="D205">
+        <v>4.3</v>
+      </c>
+      <c r="E205">
+        <v>49.8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206">
+        <v>204</v>
+      </c>
+      <c r="B206" s="2">
+        <v>44136</v>
+      </c>
+      <c r="C206">
+        <v>3.2</v>
+      </c>
+      <c r="D206">
+        <v>111.8</v>
+      </c>
+      <c r="E206">
+        <v>125.6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207">
+        <v>205</v>
+      </c>
+      <c r="B207" s="2">
+        <v>44166</v>
+      </c>
+      <c r="C207">
+        <v>10.7</v>
+      </c>
+      <c r="D207">
+        <v>57.5</v>
+      </c>
+      <c r="E207">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208">
+        <v>206</v>
+      </c>
+      <c r="B208" s="2">
+        <v>44197</v>
+      </c>
+      <c r="C208">
+        <v>7.6</v>
+      </c>
+      <c r="D208">
+        <v>86.2</v>
+      </c>
+      <c r="E208">
+        <v>64.59999999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209">
+        <v>207</v>
+      </c>
+      <c r="B209" s="2">
+        <v>44228</v>
+      </c>
+      <c r="C209">
+        <v>10</v>
+      </c>
+      <c r="D209">
+        <v>83.2</v>
+      </c>
+      <c r="E209">
+        <v>75.2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210" s="2">
+        <v>44256</v>
+      </c>
+      <c r="C210">
+        <v>11.2</v>
+      </c>
+      <c r="D210">
+        <v>136</v>
+      </c>
+      <c r="E210">
+        <v>209.4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211">
+        <v>209</v>
+      </c>
+      <c r="B211" s="2">
+        <v>44287</v>
+      </c>
+      <c r="C211">
+        <v>169.4</v>
+      </c>
+      <c r="D211">
+        <v>175.7</v>
+      </c>
+      <c r="E211">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212">
+        <v>210</v>
+      </c>
+      <c r="B212" s="2">
+        <v>44317</v>
+      </c>
+      <c r="C212">
+        <v>156.4</v>
+      </c>
+      <c r="D212">
+        <v>167.1</v>
+      </c>
+      <c r="E212">
+        <v>126.7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213">
+        <v>211</v>
+      </c>
+      <c r="B213" s="2">
+        <v>44348</v>
+      </c>
+      <c r="C213">
+        <v>176.3</v>
+      </c>
+      <c r="D213">
+        <v>195.7</v>
+      </c>
+      <c r="E213">
+        <v>116.7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214">
+        <v>212</v>
+      </c>
+      <c r="B214" s="2">
+        <v>44378</v>
+      </c>
+      <c r="C214">
+        <v>9.4</v>
+      </c>
+      <c r="D214">
+        <v>177.9</v>
+      </c>
+      <c r="E214">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215" s="2">
+        <v>44409</v>
+      </c>
+      <c r="C215">
+        <v>10</v>
+      </c>
+      <c r="D215">
+        <v>104.9</v>
+      </c>
+      <c r="E215">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216" s="2">
+        <v>44440</v>
+      </c>
+      <c r="C216">
+        <v>158</v>
+      </c>
+      <c r="D216">
+        <v>156.4</v>
+      </c>
+      <c r="E216">
+        <v>112.8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217">
+        <v>215</v>
+      </c>
+      <c r="B217" s="2">
+        <v>44470</v>
+      </c>
+      <c r="C217">
+        <v>76.8</v>
+      </c>
+      <c r="D217">
+        <v>90.3</v>
+      </c>
+      <c r="E217">
+        <v>86.90000000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218">
+        <v>216</v>
+      </c>
+      <c r="B218" s="2">
+        <v>44501</v>
+      </c>
+      <c r="C218">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="D218">
+        <v>80.8</v>
+      </c>
+      <c r="E218">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219" s="2">
+        <v>44531</v>
+      </c>
+      <c r="C219">
+        <v>15.9</v>
+      </c>
+      <c r="D219">
+        <v>73.8</v>
+      </c>
+      <c r="E219">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220">
+        <v>218</v>
+      </c>
+      <c r="B220" s="2">
+        <v>44562</v>
+      </c>
+      <c r="C220">
+        <v>0.3</v>
+      </c>
+      <c r="D220">
+        <v>45</v>
+      </c>
+      <c r="E220">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221" s="2">
+        <v>44593</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="E221">
+        <v>60.1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222" s="2">
+        <v>44621</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>105.2</v>
+      </c>
+      <c r="E222">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223" s="2">
+        <v>44652</v>
+      </c>
+      <c r="C223">
+        <v>69.5</v>
+      </c>
+      <c r="D223">
+        <v>128.5</v>
+      </c>
+      <c r="E223">
+        <v>80.90000000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224" s="2">
+        <v>44682</v>
+      </c>
+      <c r="C224">
+        <v>129.1</v>
+      </c>
+      <c r="D224">
+        <v>154.1</v>
+      </c>
+      <c r="E224">
+        <v>104.9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225" s="2">
+        <v>44713</v>
+      </c>
+      <c r="C225">
+        <v>170.1</v>
+      </c>
+      <c r="D225">
+        <v>188</v>
+      </c>
+      <c r="E225">
+        <v>158.8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226" s="2">
+        <v>44743</v>
+      </c>
+      <c r="C226">
+        <v>165.2</v>
+      </c>
+      <c r="D226">
+        <v>172.3</v>
+      </c>
+      <c r="E226">
+        <v>133.3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227" s="2">
+        <v>44774</v>
+      </c>
+      <c r="C227">
+        <v>1.8</v>
+      </c>
+      <c r="D227">
+        <v>1.8</v>
+      </c>
+      <c r="E227">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228" s="2">
+        <v>44805</v>
+      </c>
+      <c r="C228">
+        <v>1.6</v>
+      </c>
+      <c r="D228">
+        <v>1.6</v>
+      </c>
+      <c r="E228">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229" s="2">
+        <v>44835</v>
+      </c>
+      <c r="C229">
+        <v>11.7</v>
+      </c>
+      <c r="D229">
+        <v>63.6</v>
+      </c>
+      <c r="E229">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230" s="2">
+        <v>44866</v>
+      </c>
+      <c r="C230">
+        <v>52.7</v>
+      </c>
+      <c r="D230">
+        <v>55</v>
+      </c>
+      <c r="E230">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231">
+        <v>229</v>
+      </c>
+      <c r="B231" s="2">
+        <v>44896</v>
+      </c>
+      <c r="C231">
+        <v>0.9</v>
+      </c>
+      <c r="D231">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="E231">
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232" s="2">
+        <v>44927</v>
+      </c>
+      <c r="C232">
+        <v>5.1</v>
+      </c>
+      <c r="D232">
+        <v>80.3</v>
+      </c>
+      <c r="E232">
+        <v>70.40000000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233" s="2">
+        <v>44958</v>
+      </c>
+      <c r="C233">
+        <v>6.8</v>
+      </c>
+      <c r="D233">
+        <v>45.2</v>
+      </c>
+      <c r="E233">
+        <v>40.6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234" s="2">
+        <v>44986</v>
+      </c>
+      <c r="C234">
+        <v>167.4</v>
+      </c>
+      <c r="D234">
+        <v>146.4</v>
+      </c>
+      <c r="E234">
+        <v>124.8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235" s="2">
+        <v>45017</v>
+      </c>
+      <c r="C235">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="D235">
+        <v>106</v>
+      </c>
+      <c r="E235">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236" s="2">
+        <v>45047</v>
+      </c>
+      <c r="C236">
+        <v>11</v>
+      </c>
+      <c r="D236">
+        <v>143</v>
+      </c>
+      <c r="E236">
+        <v>91.3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237" s="2">
+        <v>45078</v>
+      </c>
+      <c r="C237">
+        <v>31.5</v>
+      </c>
+      <c r="D237">
+        <v>177.5</v>
+      </c>
+      <c r="E237">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238" s="2">
+        <v>45108</v>
+      </c>
+      <c r="C238">
+        <v>157.5</v>
+      </c>
+      <c r="D238">
+        <v>230.6</v>
+      </c>
+      <c r="E238">
+        <v>93.59999999999999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239" s="2">
+        <v>45139</v>
+      </c>
+      <c r="C239">
+        <v>127.9</v>
+      </c>
+      <c r="D239">
+        <v>159.2</v>
+      </c>
+      <c r="E239">
+        <v>78.7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240" s="2">
+        <v>45170</v>
+      </c>
+      <c r="C240">
+        <v>63</v>
+      </c>
+      <c r="D240">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="E240">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241" s="2">
+        <v>45200</v>
+      </c>
+      <c r="C241">
+        <v>45.4</v>
+      </c>
+      <c r="D241">
+        <v>56.6</v>
+      </c>
+      <c r="E241">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242" s="2">
+        <v>45231</v>
+      </c>
+      <c r="C242">
+        <v>6.3</v>
+      </c>
+      <c r="D242">
+        <v>6.3</v>
+      </c>
+      <c r="E242">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243" s="2">
+        <v>45261</v>
+      </c>
+      <c r="C243">
+        <v>4.7</v>
+      </c>
+      <c r="D243">
+        <v>4.7</v>
+      </c>
+      <c r="E243">
+        <v>78.09999999999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244" s="2">
+        <v>45292</v>
+      </c>
+      <c r="C244">
+        <v>42.2</v>
+      </c>
+      <c r="D244">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="E244">
+        <v>61.1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245" s="2">
+        <v>45323</v>
+      </c>
+      <c r="C245">
+        <v>80.3</v>
+      </c>
+      <c r="D245">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="E245">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246" s="2">
+        <v>45352</v>
+      </c>
+      <c r="C246">
+        <v>76.2</v>
+      </c>
+      <c r="D246">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="E246">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247" s="2">
+        <v>45383</v>
+      </c>
+      <c r="C247">
+        <v>129.89</v>
+      </c>
+      <c r="D247">
+        <v>156.3</v>
+      </c>
+      <c r="E247">
+        <v>120.9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248" s="2">
+        <v>45413</v>
+      </c>
+      <c r="C248">
+        <v>13.86</v>
+      </c>
+      <c r="D248">
+        <v>162.1</v>
+      </c>
+      <c r="E248">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249" s="2">
+        <v>45444</v>
+      </c>
+      <c r="C249">
+        <v>14.83</v>
+      </c>
+      <c r="D249">
+        <v>179.7</v>
+      </c>
+      <c r="E249">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250">
+        <v>248</v>
+      </c>
+      <c r="B250" s="2">
+        <v>45474</v>
+      </c>
+      <c r="C250">
+        <v>14.2</v>
+      </c>
+      <c r="D250">
+        <v>165.9</v>
+      </c>
+      <c r="E250">
+        <v>93.59999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E230"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7899,4267 +12162,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E250"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>37926</v>
-      </c>
-      <c r="C2">
-        <v>75.8</v>
-      </c>
-      <c r="D2">
-        <v>0.3</v>
-      </c>
-      <c r="E2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>37956</v>
-      </c>
-      <c r="C3">
-        <v>101.64</v>
-      </c>
-      <c r="D3">
-        <v>18.2</v>
-      </c>
-      <c r="E3">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>37987</v>
-      </c>
-      <c r="C4">
-        <v>0.3</v>
-      </c>
-      <c r="D4">
-        <v>0.3</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>38018</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>38047</v>
-      </c>
-      <c r="C6">
-        <v>7.3</v>
-      </c>
-      <c r="D6">
-        <v>7.3</v>
-      </c>
-      <c r="E6">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>38078</v>
-      </c>
-      <c r="C7">
-        <v>4.4</v>
-      </c>
-      <c r="D7">
-        <v>4.4</v>
-      </c>
-      <c r="E7">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>38108</v>
-      </c>
-      <c r="C8">
-        <v>4.2</v>
-      </c>
-      <c r="D8">
-        <v>4.2</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>38139</v>
-      </c>
-      <c r="C9">
-        <v>4.9</v>
-      </c>
-      <c r="D9">
-        <v>4.9</v>
-      </c>
-      <c r="E9">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>38169</v>
-      </c>
-      <c r="C10">
-        <v>1.2</v>
-      </c>
-      <c r="D10">
-        <v>1.2</v>
-      </c>
-      <c r="E10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>38200</v>
-      </c>
-      <c r="C11">
-        <v>0.5</v>
-      </c>
-      <c r="D11">
-        <v>0.5</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>38231</v>
-      </c>
-      <c r="C12">
-        <v>74.64</v>
-      </c>
-      <c r="D12">
-        <v>0.2</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
-        <v>38261</v>
-      </c>
-      <c r="C13">
-        <v>66.98</v>
-      </c>
-      <c r="D13">
-        <v>4.9</v>
-      </c>
-      <c r="E13">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
-        <v>38292</v>
-      </c>
-      <c r="C14">
-        <v>35.76</v>
-      </c>
-      <c r="D14">
-        <v>4.6</v>
-      </c>
-      <c r="E14">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
-        <v>38322</v>
-      </c>
-      <c r="C15">
-        <v>42.96</v>
-      </c>
-      <c r="D15">
-        <v>8.1</v>
-      </c>
-      <c r="E15">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
-        <v>38353</v>
-      </c>
-      <c r="C16">
-        <v>12.72</v>
-      </c>
-      <c r="D16">
-        <v>1.4</v>
-      </c>
-      <c r="E16">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
-        <v>38384</v>
-      </c>
-      <c r="C17">
-        <v>41.04</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
-        <v>38412</v>
-      </c>
-      <c r="C18">
-        <v>49.6</v>
-      </c>
-      <c r="D18">
-        <v>0.9</v>
-      </c>
-      <c r="E18">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2">
-        <v>38443</v>
-      </c>
-      <c r="C19">
-        <v>204.96</v>
-      </c>
-      <c r="D19">
-        <v>6.8</v>
-      </c>
-      <c r="E19">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2">
-        <v>38473</v>
-      </c>
-      <c r="C20">
-        <v>117.12</v>
-      </c>
-      <c r="D20">
-        <v>2.2</v>
-      </c>
-      <c r="E20">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2">
-        <v>38504</v>
-      </c>
-      <c r="C21">
-        <v>167.5</v>
-      </c>
-      <c r="D21">
-        <v>6.1</v>
-      </c>
-      <c r="E21">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2">
-        <v>38534</v>
-      </c>
-      <c r="C22">
-        <v>104.68</v>
-      </c>
-      <c r="D22">
-        <v>0.7</v>
-      </c>
-      <c r="E22">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2">
-        <v>38565</v>
-      </c>
-      <c r="C23">
-        <v>57.12</v>
-      </c>
-      <c r="D23">
-        <v>3.4</v>
-      </c>
-      <c r="E23">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2">
-        <v>38596</v>
-      </c>
-      <c r="C24">
-        <v>67.2</v>
-      </c>
-      <c r="D24">
-        <v>1.8</v>
-      </c>
-      <c r="E24">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2">
-        <v>38626</v>
-      </c>
-      <c r="C25">
-        <v>8.6</v>
-      </c>
-      <c r="D25">
-        <v>8.6</v>
-      </c>
-      <c r="E25">
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2">
-        <v>38657</v>
-      </c>
-      <c r="C26">
-        <v>6.1</v>
-      </c>
-      <c r="D26">
-        <v>6.1</v>
-      </c>
-      <c r="E26">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2">
-        <v>38687</v>
-      </c>
-      <c r="C27">
-        <v>149.04</v>
-      </c>
-      <c r="D27">
-        <v>2.5</v>
-      </c>
-      <c r="E27">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2">
-        <v>38718</v>
-      </c>
-      <c r="C28">
-        <v>97.92</v>
-      </c>
-      <c r="D28">
-        <v>0.9</v>
-      </c>
-      <c r="E28">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2">
-        <v>38749</v>
-      </c>
-      <c r="C29">
-        <v>71.76000000000001</v>
-      </c>
-      <c r="D29">
-        <v>6.8</v>
-      </c>
-      <c r="E29">
-        <v>11.6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2">
-        <v>38777</v>
-      </c>
-      <c r="C30">
-        <v>134.64</v>
-      </c>
-      <c r="D30">
-        <v>5.8</v>
-      </c>
-      <c r="E30">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2">
-        <v>38808</v>
-      </c>
-      <c r="C31">
-        <v>107.4</v>
-      </c>
-      <c r="D31">
-        <v>10.2</v>
-      </c>
-      <c r="E31">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2">
-        <v>38838</v>
-      </c>
-      <c r="C32">
-        <v>122.4</v>
-      </c>
-      <c r="D32">
-        <v>6.2</v>
-      </c>
-      <c r="E32">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2">
-        <v>38869</v>
-      </c>
-      <c r="C33">
-        <v>181.12</v>
-      </c>
-      <c r="D33">
-        <v>13.1</v>
-      </c>
-      <c r="E33">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2">
-        <v>38899</v>
-      </c>
-      <c r="C34">
-        <v>119.12</v>
-      </c>
-      <c r="D34">
-        <v>4.6</v>
-      </c>
-      <c r="E34">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2">
-        <v>38930</v>
-      </c>
-      <c r="C35">
-        <v>4.8</v>
-      </c>
-      <c r="D35">
-        <v>4.8</v>
-      </c>
-      <c r="E35">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2">
-        <v>38961</v>
-      </c>
-      <c r="C36">
-        <v>0.8</v>
-      </c>
-      <c r="D36">
-        <v>0.8</v>
-      </c>
-      <c r="E36">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2">
-        <v>38991</v>
-      </c>
-      <c r="C37">
-        <v>1.9</v>
-      </c>
-      <c r="D37">
-        <v>1.9</v>
-      </c>
-      <c r="E37">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2">
-        <v>39022</v>
-      </c>
-      <c r="C38">
-        <v>2.2</v>
-      </c>
-      <c r="D38">
-        <v>2.2</v>
-      </c>
-      <c r="E38">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2">
-        <v>39052</v>
-      </c>
-      <c r="C39">
-        <v>4.1</v>
-      </c>
-      <c r="D39">
-        <v>4.1</v>
-      </c>
-      <c r="E39">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40" s="2">
-        <v>39083</v>
-      </c>
-      <c r="C40">
-        <v>45.28</v>
-      </c>
-      <c r="D40">
-        <v>1.8</v>
-      </c>
-      <c r="E40">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41" s="2">
-        <v>39114</v>
-      </c>
-      <c r="C41">
-        <v>39.12</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42" s="2">
-        <v>39142</v>
-      </c>
-      <c r="C42">
-        <v>70.56</v>
-      </c>
-      <c r="D42">
-        <v>5.8</v>
-      </c>
-      <c r="E42">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43" s="2">
-        <v>39173</v>
-      </c>
-      <c r="C43">
-        <v>134.88</v>
-      </c>
-      <c r="D43">
-        <v>2.6</v>
-      </c>
-      <c r="E43">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44" s="2">
-        <v>39203</v>
-      </c>
-      <c r="C44">
-        <v>109.27</v>
-      </c>
-      <c r="D44">
-        <v>2.6</v>
-      </c>
-      <c r="E44">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45" s="2">
-        <v>39234</v>
-      </c>
-      <c r="C45">
-        <v>205.92</v>
-      </c>
-      <c r="D45">
-        <v>4.6</v>
-      </c>
-      <c r="E45">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46" s="2">
-        <v>39264</v>
-      </c>
-      <c r="C46">
-        <v>55.2</v>
-      </c>
-      <c r="D46">
-        <v>1.4</v>
-      </c>
-      <c r="E46">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47">
-        <v>45</v>
-      </c>
-      <c r="B47" s="2">
-        <v>39295</v>
-      </c>
-      <c r="C47">
-        <v>176.4</v>
-      </c>
-      <c r="D47">
-        <v>0.2</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48">
-        <v>46</v>
-      </c>
-      <c r="B48" s="2">
-        <v>39326</v>
-      </c>
-      <c r="C48">
-        <v>97.2</v>
-      </c>
-      <c r="D48">
-        <v>1.4</v>
-      </c>
-      <c r="E48">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49">
-        <v>47</v>
-      </c>
-      <c r="B49" s="2">
-        <v>39356</v>
-      </c>
-      <c r="C49">
-        <v>67.44</v>
-      </c>
-      <c r="D49">
-        <v>7.1</v>
-      </c>
-      <c r="E49">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50">
-        <v>48</v>
-      </c>
-      <c r="B50" s="2">
-        <v>39387</v>
-      </c>
-      <c r="C50">
-        <v>85.44</v>
-      </c>
-      <c r="D50">
-        <v>8.6</v>
-      </c>
-      <c r="E50">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51">
-        <v>49</v>
-      </c>
-      <c r="B51" s="2">
-        <v>39417</v>
-      </c>
-      <c r="C51">
-        <v>59.28</v>
-      </c>
-      <c r="D51">
-        <v>6.1</v>
-      </c>
-      <c r="E51">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52">
-        <v>50</v>
-      </c>
-      <c r="B52" s="2">
-        <v>39448</v>
-      </c>
-      <c r="C52">
-        <v>64.8</v>
-      </c>
-      <c r="D52">
-        <v>2.9</v>
-      </c>
-      <c r="E52">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53">
-        <v>51</v>
-      </c>
-      <c r="B53" s="2">
-        <v>39479</v>
-      </c>
-      <c r="C53">
-        <v>94.56</v>
-      </c>
-      <c r="D53">
-        <v>1.1</v>
-      </c>
-      <c r="E53">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54">
-        <v>52</v>
-      </c>
-      <c r="B54" s="2">
-        <v>39508</v>
-      </c>
-      <c r="C54">
-        <v>64.56</v>
-      </c>
-      <c r="D54">
-        <v>1.9</v>
-      </c>
-      <c r="E54">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55">
-        <v>53</v>
-      </c>
-      <c r="B55" s="2">
-        <v>39539</v>
-      </c>
-      <c r="C55">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="D55">
-        <v>3</v>
-      </c>
-      <c r="E55">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56">
-        <v>54</v>
-      </c>
-      <c r="B56" s="2">
-        <v>39569</v>
-      </c>
-      <c r="C56">
-        <v>119.04</v>
-      </c>
-      <c r="D56">
-        <v>13</v>
-      </c>
-      <c r="E56">
-        <v>17.8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57">
-        <v>55</v>
-      </c>
-      <c r="B57" s="2">
-        <v>39600</v>
-      </c>
-      <c r="C57">
-        <v>138</v>
-      </c>
-      <c r="D57">
-        <v>4.8</v>
-      </c>
-      <c r="E57">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58">
-        <v>56</v>
-      </c>
-      <c r="B58" s="2">
-        <v>39630</v>
-      </c>
-      <c r="C58">
-        <v>132</v>
-      </c>
-      <c r="D58">
-        <v>4.8</v>
-      </c>
-      <c r="E58">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59">
-        <v>57</v>
-      </c>
-      <c r="B59" s="2">
-        <v>39661</v>
-      </c>
-      <c r="C59">
-        <v>112.56</v>
-      </c>
-      <c r="D59">
-        <v>40.3</v>
-      </c>
-      <c r="E59">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60">
-        <v>58</v>
-      </c>
-      <c r="B60" s="2">
-        <v>39692</v>
-      </c>
-      <c r="C60">
-        <v>126</v>
-      </c>
-      <c r="D60">
-        <v>58.5</v>
-      </c>
-      <c r="E60">
-        <v>8.699999999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61">
-        <v>59</v>
-      </c>
-      <c r="B61" s="2">
-        <v>39722</v>
-      </c>
-      <c r="C61">
-        <v>162.24</v>
-      </c>
-      <c r="D61">
-        <v>6.1</v>
-      </c>
-      <c r="E61">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62">
-        <v>60</v>
-      </c>
-      <c r="B62" s="2">
-        <v>39753</v>
-      </c>
-      <c r="C62">
-        <v>101.92</v>
-      </c>
-      <c r="D62">
-        <v>8.4</v>
-      </c>
-      <c r="E62">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63">
-        <v>61</v>
-      </c>
-      <c r="B63" s="2">
-        <v>39783</v>
-      </c>
-      <c r="C63">
-        <v>77.04000000000001</v>
-      </c>
-      <c r="D63">
-        <v>49.9</v>
-      </c>
-      <c r="E63">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64">
-        <v>62</v>
-      </c>
-      <c r="B64" s="2">
-        <v>39814</v>
-      </c>
-      <c r="C64">
-        <v>106.76</v>
-      </c>
-      <c r="D64">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="E64">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65">
-        <v>63</v>
-      </c>
-      <c r="B65" s="2">
-        <v>39845</v>
-      </c>
-      <c r="C65">
-        <v>78.23999999999999</v>
-      </c>
-      <c r="D65">
-        <v>48</v>
-      </c>
-      <c r="E65">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66">
-        <v>64</v>
-      </c>
-      <c r="B66" s="2">
-        <v>39873</v>
-      </c>
-      <c r="C66">
-        <v>73.76000000000001</v>
-      </c>
-      <c r="D66">
-        <v>25.1</v>
-      </c>
-      <c r="E66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67">
-        <v>65</v>
-      </c>
-      <c r="B67" s="2">
-        <v>39904</v>
-      </c>
-      <c r="C67">
-        <v>109.96</v>
-      </c>
-      <c r="D67">
-        <v>65.2</v>
-      </c>
-      <c r="E67">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68">
-        <v>66</v>
-      </c>
-      <c r="B68" s="2">
-        <v>39934</v>
-      </c>
-      <c r="C68">
-        <v>103.44</v>
-      </c>
-      <c r="D68">
-        <v>71.5</v>
-      </c>
-      <c r="E68">
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69">
-        <v>67</v>
-      </c>
-      <c r="B69" s="2">
-        <v>39965</v>
-      </c>
-      <c r="C69">
-        <v>110.88</v>
-      </c>
-      <c r="D69">
-        <v>1.1</v>
-      </c>
-      <c r="E69">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70">
-        <v>68</v>
-      </c>
-      <c r="B70" s="2">
-        <v>39995</v>
-      </c>
-      <c r="C70">
-        <v>169.2</v>
-      </c>
-      <c r="D70">
-        <v>1.1</v>
-      </c>
-      <c r="E70">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71">
-        <v>69</v>
-      </c>
-      <c r="B71" s="2">
-        <v>40026</v>
-      </c>
-      <c r="C71">
-        <v>133.2</v>
-      </c>
-      <c r="D71">
-        <v>38.9</v>
-      </c>
-      <c r="E71">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72">
-        <v>70</v>
-      </c>
-      <c r="B72" s="2">
-        <v>40057</v>
-      </c>
-      <c r="C72">
-        <v>53.28</v>
-      </c>
-      <c r="D72">
-        <v>15</v>
-      </c>
-      <c r="E72">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73">
-        <v>71</v>
-      </c>
-      <c r="B73" s="2">
-        <v>40087</v>
-      </c>
-      <c r="C73">
-        <v>67.44</v>
-      </c>
-      <c r="D73">
-        <v>3.2</v>
-      </c>
-      <c r="E73">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74">
-        <v>72</v>
-      </c>
-      <c r="B74" s="2">
-        <v>40118</v>
-      </c>
-      <c r="C74">
-        <v>32.64</v>
-      </c>
-      <c r="D74">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="E74">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75">
-        <v>73</v>
-      </c>
-      <c r="B75" s="2">
-        <v>40148</v>
-      </c>
-      <c r="C75">
-        <v>59.28</v>
-      </c>
-      <c r="D75">
-        <v>5.1</v>
-      </c>
-      <c r="E75">
-        <v>60.7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76">
-        <v>74</v>
-      </c>
-      <c r="B76" s="2">
-        <v>40179</v>
-      </c>
-      <c r="C76">
-        <v>30.48</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77">
-        <v>75</v>
-      </c>
-      <c r="B77" s="2">
-        <v>40210</v>
-      </c>
-      <c r="C77">
-        <v>45.84</v>
-      </c>
-      <c r="D77">
-        <v>4.4</v>
-      </c>
-      <c r="E77">
-        <v>21.3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78">
-        <v>76</v>
-      </c>
-      <c r="B78" s="2">
-        <v>40238</v>
-      </c>
-      <c r="C78">
-        <v>77.28</v>
-      </c>
-      <c r="D78">
-        <v>20.7</v>
-      </c>
-      <c r="E78">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79">
-        <v>77</v>
-      </c>
-      <c r="B79" s="2">
-        <v>40269</v>
-      </c>
-      <c r="C79">
-        <v>169.36</v>
-      </c>
-      <c r="D79">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="E79">
-        <v>129.6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80">
-        <v>78</v>
-      </c>
-      <c r="B80" s="2">
-        <v>40299</v>
-      </c>
-      <c r="C80">
-        <v>124</v>
-      </c>
-      <c r="D80">
-        <v>5.5</v>
-      </c>
-      <c r="E80">
-        <v>79.2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81">
-        <v>79</v>
-      </c>
-      <c r="B81" s="2">
-        <v>40330</v>
-      </c>
-      <c r="C81">
-        <v>225.84</v>
-      </c>
-      <c r="D81">
-        <v>29.6</v>
-      </c>
-      <c r="E81">
-        <v>131.4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82">
-        <v>80</v>
-      </c>
-      <c r="B82" s="2">
-        <v>40360</v>
-      </c>
-      <c r="C82">
-        <v>174.24</v>
-      </c>
-      <c r="D82">
-        <v>66</v>
-      </c>
-      <c r="E82">
-        <v>105.8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83">
-        <v>81</v>
-      </c>
-      <c r="B83" s="2">
-        <v>40391</v>
-      </c>
-      <c r="C83">
-        <v>184.8</v>
-      </c>
-      <c r="D83">
-        <v>73.40000000000001</v>
-      </c>
-      <c r="E83">
-        <v>119.9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84">
-        <v>82</v>
-      </c>
-      <c r="B84" s="2">
-        <v>40422</v>
-      </c>
-      <c r="C84">
-        <v>130.8</v>
-      </c>
-      <c r="D84">
-        <v>33.2</v>
-      </c>
-      <c r="E84">
-        <v>65.8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85">
-        <v>83</v>
-      </c>
-      <c r="B85" s="2">
-        <v>40452</v>
-      </c>
-      <c r="C85">
-        <v>58.62</v>
-      </c>
-      <c r="D85">
-        <v>51.8</v>
-      </c>
-      <c r="E85">
-        <v>36.7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86">
-        <v>84</v>
-      </c>
-      <c r="B86" s="2">
-        <v>40483</v>
-      </c>
-      <c r="C86">
-        <v>164.68</v>
-      </c>
-      <c r="D86">
-        <v>7.6</v>
-      </c>
-      <c r="E86">
-        <v>104.5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87">
-        <v>85</v>
-      </c>
-      <c r="B87" s="2">
-        <v>40513</v>
-      </c>
-      <c r="C87">
-        <v>131.28</v>
-      </c>
-      <c r="D87">
-        <v>3.6</v>
-      </c>
-      <c r="E87">
-        <v>71.59999999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88">
-        <v>86</v>
-      </c>
-      <c r="B88" s="2">
-        <v>40544</v>
-      </c>
-      <c r="C88">
-        <v>53.76</v>
-      </c>
-      <c r="D88">
-        <v>37.6</v>
-      </c>
-      <c r="E88">
-        <v>51.3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89">
-        <v>87</v>
-      </c>
-      <c r="B89" s="2">
-        <v>40575</v>
-      </c>
-      <c r="C89">
-        <v>128.32</v>
-      </c>
-      <c r="D89">
-        <v>3.6</v>
-      </c>
-      <c r="E89">
-        <v>129.7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90">
-        <v>88</v>
-      </c>
-      <c r="B90" s="2">
-        <v>40603</v>
-      </c>
-      <c r="C90">
-        <v>86.88</v>
-      </c>
-      <c r="D90">
-        <v>74.8</v>
-      </c>
-      <c r="E90">
-        <v>63.7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91">
-        <v>89</v>
-      </c>
-      <c r="B91" s="2">
-        <v>40634</v>
-      </c>
-      <c r="C91">
-        <v>143.76</v>
-      </c>
-      <c r="D91">
-        <v>111.6</v>
-      </c>
-      <c r="E91">
-        <v>151.9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92">
-        <v>90</v>
-      </c>
-      <c r="B92" s="2">
-        <v>40664</v>
-      </c>
-      <c r="C92">
-        <v>189.6</v>
-      </c>
-      <c r="D92">
-        <v>141.2</v>
-      </c>
-      <c r="E92">
-        <v>110.6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93">
-        <v>91</v>
-      </c>
-      <c r="B93" s="2">
-        <v>40695</v>
-      </c>
-      <c r="C93">
-        <v>144</v>
-      </c>
-      <c r="D93">
-        <v>144.5</v>
-      </c>
-      <c r="E93">
-        <v>109.2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94">
-        <v>92</v>
-      </c>
-      <c r="B94" s="2">
-        <v>40725</v>
-      </c>
-      <c r="C94">
-        <v>256.24</v>
-      </c>
-      <c r="D94">
-        <v>138</v>
-      </c>
-      <c r="E94">
-        <v>141.2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95">
-        <v>93</v>
-      </c>
-      <c r="B95" s="2">
-        <v>40756</v>
-      </c>
-      <c r="C95">
-        <v>143.28</v>
-      </c>
-      <c r="D95">
-        <v>63.7</v>
-      </c>
-      <c r="E95">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96">
-        <v>94</v>
-      </c>
-      <c r="B96" s="2">
-        <v>40787</v>
-      </c>
-      <c r="C96">
-        <v>161.76</v>
-      </c>
-      <c r="D96">
-        <v>87.3</v>
-      </c>
-      <c r="E96">
-        <v>70.5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97">
-        <v>95</v>
-      </c>
-      <c r="B97" s="2">
-        <v>40817</v>
-      </c>
-      <c r="C97">
-        <v>109.04</v>
-      </c>
-      <c r="D97">
-        <v>74</v>
-      </c>
-      <c r="E97">
-        <v>78.5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98">
-        <v>96</v>
-      </c>
-      <c r="B98" s="2">
-        <v>40848</v>
-      </c>
-      <c r="C98">
-        <v>178.36</v>
-      </c>
-      <c r="D98">
-        <v>96.3</v>
-      </c>
-      <c r="E98">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99">
-        <v>97</v>
-      </c>
-      <c r="B99" s="2">
-        <v>40878</v>
-      </c>
-      <c r="C99">
-        <v>183.04</v>
-      </c>
-      <c r="D99">
-        <v>115.9</v>
-      </c>
-      <c r="E99">
-        <v>84.90000000000001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100">
-        <v>98</v>
-      </c>
-      <c r="B100" s="2">
-        <v>40909</v>
-      </c>
-      <c r="C100">
-        <v>138.72</v>
-      </c>
-      <c r="D100">
-        <v>114.2</v>
-      </c>
-      <c r="E100">
-        <v>95.7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101">
-        <v>99</v>
-      </c>
-      <c r="B101" s="2">
-        <v>40940</v>
-      </c>
-      <c r="C101">
-        <v>114.96</v>
-      </c>
-      <c r="D101">
-        <v>83.40000000000001</v>
-      </c>
-      <c r="E101">
-        <v>53.5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102">
-        <v>100</v>
-      </c>
-      <c r="B102" s="2">
-        <v>40969</v>
-      </c>
-      <c r="C102">
-        <v>145.44</v>
-      </c>
-      <c r="D102">
-        <v>90.8</v>
-      </c>
-      <c r="E102">
-        <v>75.5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103">
-        <v>101</v>
-      </c>
-      <c r="B103" s="2">
-        <v>41000</v>
-      </c>
-      <c r="C103">
-        <v>132.72</v>
-      </c>
-      <c r="D103">
-        <v>99.5</v>
-      </c>
-      <c r="E103">
-        <v>84.09999999999999</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104">
-        <v>102</v>
-      </c>
-      <c r="B104" s="2">
-        <v>41030</v>
-      </c>
-      <c r="C104">
-        <v>130.08</v>
-      </c>
-      <c r="D104">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="E104">
-        <v>62.1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105">
-        <v>103</v>
-      </c>
-      <c r="B105" s="2">
-        <v>41061</v>
-      </c>
-      <c r="C105">
-        <v>133.44</v>
-      </c>
-      <c r="D105">
-        <v>83</v>
-      </c>
-      <c r="E105">
-        <v>53.7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106">
-        <v>104</v>
-      </c>
-      <c r="B106" s="2">
-        <v>41091</v>
-      </c>
-      <c r="C106">
-        <v>187.2</v>
-      </c>
-      <c r="D106">
-        <v>118</v>
-      </c>
-      <c r="E106">
-        <v>78.7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107">
-        <v>105</v>
-      </c>
-      <c r="B107" s="2">
-        <v>41122</v>
-      </c>
-      <c r="C107">
-        <v>174.96</v>
-      </c>
-      <c r="D107">
-        <v>117.4</v>
-      </c>
-      <c r="E107">
-        <v>88.59999999999999</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108">
-        <v>106</v>
-      </c>
-      <c r="B108" s="2">
-        <v>41153</v>
-      </c>
-      <c r="C108">
-        <v>91.68000000000001</v>
-      </c>
-      <c r="D108">
-        <v>57.5</v>
-      </c>
-      <c r="E108">
-        <v>42.1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109">
-        <v>107</v>
-      </c>
-      <c r="B109" s="2">
-        <v>41183</v>
-      </c>
-      <c r="C109">
-        <v>92.88</v>
-      </c>
-      <c r="D109">
-        <v>71</v>
-      </c>
-      <c r="E109">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110">
-        <v>108</v>
-      </c>
-      <c r="B110" s="2">
-        <v>41214</v>
-      </c>
-      <c r="C110">
-        <v>2.5</v>
-      </c>
-      <c r="D110">
-        <v>40.6</v>
-      </c>
-      <c r="E110">
-        <v>81.7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111">
-        <v>109</v>
-      </c>
-      <c r="B111" s="2">
-        <v>41244</v>
-      </c>
-      <c r="C111">
-        <v>7.6</v>
-      </c>
-      <c r="D111">
-        <v>45.2</v>
-      </c>
-      <c r="E111">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112">
-        <v>110</v>
-      </c>
-      <c r="B112" s="2">
-        <v>41275</v>
-      </c>
-      <c r="C112">
-        <v>4.1</v>
-      </c>
-      <c r="D112">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="E112">
-        <v>54.7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113">
-        <v>111</v>
-      </c>
-      <c r="B113" s="2">
-        <v>41306</v>
-      </c>
-      <c r="C113">
-        <v>190.4</v>
-      </c>
-      <c r="D113">
-        <v>159.6</v>
-      </c>
-      <c r="E113">
-        <v>108.1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114">
-        <v>112</v>
-      </c>
-      <c r="B114" s="2">
-        <v>41334</v>
-      </c>
-      <c r="C114">
-        <v>7.1</v>
-      </c>
-      <c r="D114">
-        <v>57.1</v>
-      </c>
-      <c r="E114">
-        <v>45.9</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115">
-        <v>113</v>
-      </c>
-      <c r="B115" s="2">
-        <v>41365</v>
-      </c>
-      <c r="C115">
-        <v>95.04000000000001</v>
-      </c>
-      <c r="D115">
-        <v>69.8</v>
-      </c>
-      <c r="E115">
-        <v>41.2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116">
-        <v>114</v>
-      </c>
-      <c r="B116" s="2">
-        <v>41395</v>
-      </c>
-      <c r="C116">
-        <v>138.72</v>
-      </c>
-      <c r="D116">
-        <v>114.5</v>
-      </c>
-      <c r="E116">
-        <v>103.6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117">
-        <v>115</v>
-      </c>
-      <c r="B117" s="2">
-        <v>41426</v>
-      </c>
-      <c r="C117">
-        <v>125.76</v>
-      </c>
-      <c r="D117">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="E117">
-        <v>39.9</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118">
-        <v>116</v>
-      </c>
-      <c r="B118" s="2">
-        <v>41456</v>
-      </c>
-      <c r="C118">
-        <v>221.76</v>
-      </c>
-      <c r="D118">
-        <v>138.2</v>
-      </c>
-      <c r="E118">
-        <v>102.1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119">
-        <v>117</v>
-      </c>
-      <c r="B119" s="2">
-        <v>41487</v>
-      </c>
-      <c r="C119">
-        <v>119.04</v>
-      </c>
-      <c r="D119">
-        <v>73.8</v>
-      </c>
-      <c r="E119">
-        <v>44.4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120">
-        <v>118</v>
-      </c>
-      <c r="B120" s="2">
-        <v>41518</v>
-      </c>
-      <c r="C120">
-        <v>127.68</v>
-      </c>
-      <c r="D120">
-        <v>86.8</v>
-      </c>
-      <c r="E120">
-        <v>65.8</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121">
-        <v>119</v>
-      </c>
-      <c r="B121" s="2">
-        <v>41548</v>
-      </c>
-      <c r="C121">
-        <v>138.96</v>
-      </c>
-      <c r="D121">
-        <v>83.5</v>
-      </c>
-      <c r="E121">
-        <v>75.90000000000001</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122">
-        <v>120</v>
-      </c>
-      <c r="B122" s="2">
-        <v>41579</v>
-      </c>
-      <c r="C122">
-        <v>157.52</v>
-      </c>
-      <c r="D122">
-        <v>88.7</v>
-      </c>
-      <c r="E122">
-        <v>57.7</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123">
-        <v>121</v>
-      </c>
-      <c r="B123" s="2">
-        <v>41609</v>
-      </c>
-      <c r="C123">
-        <v>56.4</v>
-      </c>
-      <c r="D123">
-        <v>36.5</v>
-      </c>
-      <c r="E123">
-        <v>29.8</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124">
-        <v>122</v>
-      </c>
-      <c r="B124" s="2">
-        <v>41640</v>
-      </c>
-      <c r="C124">
-        <v>130.32</v>
-      </c>
-      <c r="D124">
-        <v>93.7</v>
-      </c>
-      <c r="E124">
-        <v>59.7</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125">
-        <v>123</v>
-      </c>
-      <c r="B125" s="2">
-        <v>41671</v>
-      </c>
-      <c r="C125">
-        <v>32.16</v>
-      </c>
-      <c r="D125">
-        <v>16.6</v>
-      </c>
-      <c r="E125">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126">
-        <v>124</v>
-      </c>
-      <c r="B126" s="2">
-        <v>41699</v>
-      </c>
-      <c r="C126">
-        <v>128.16</v>
-      </c>
-      <c r="D126">
-        <v>100.8</v>
-      </c>
-      <c r="E126">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127">
-        <v>125</v>
-      </c>
-      <c r="B127" s="2">
-        <v>41730</v>
-      </c>
-      <c r="C127">
-        <v>174.72</v>
-      </c>
-      <c r="D127">
-        <v>113.9</v>
-      </c>
-      <c r="E127">
-        <v>66.5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128">
-        <v>126</v>
-      </c>
-      <c r="B128" s="2">
-        <v>41760</v>
-      </c>
-      <c r="C128">
-        <v>160.32</v>
-      </c>
-      <c r="D128">
-        <v>118.8</v>
-      </c>
-      <c r="E128">
-        <v>97.59999999999999</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129">
-        <v>127</v>
-      </c>
-      <c r="B129" s="2">
-        <v>41791</v>
-      </c>
-      <c r="C129">
-        <v>244.8</v>
-      </c>
-      <c r="D129">
-        <v>172.1</v>
-      </c>
-      <c r="E129">
-        <v>131.8</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130">
-        <v>128</v>
-      </c>
-      <c r="B130" s="2">
-        <v>41821</v>
-      </c>
-      <c r="C130">
-        <v>189.6</v>
-      </c>
-      <c r="D130">
-        <v>114.8</v>
-      </c>
-      <c r="E130">
-        <v>83.90000000000001</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131">
-        <v>129</v>
-      </c>
-      <c r="B131" s="2">
-        <v>41852</v>
-      </c>
-      <c r="C131">
-        <v>152.88</v>
-      </c>
-      <c r="D131">
-        <v>97.5</v>
-      </c>
-      <c r="E131">
-        <v>67.40000000000001</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132">
-        <v>130</v>
-      </c>
-      <c r="B132" s="2">
-        <v>41883</v>
-      </c>
-      <c r="C132">
-        <v>156.72</v>
-      </c>
-      <c r="D132">
-        <v>95</v>
-      </c>
-      <c r="E132">
-        <v>71.2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133">
-        <v>131</v>
-      </c>
-      <c r="B133" s="2">
-        <v>41913</v>
-      </c>
-      <c r="C133">
-        <v>169.2</v>
-      </c>
-      <c r="D133">
-        <v>105.9</v>
-      </c>
-      <c r="E133">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134">
-        <v>132</v>
-      </c>
-      <c r="B134" s="2">
-        <v>41944</v>
-      </c>
-      <c r="C134">
-        <v>119.76</v>
-      </c>
-      <c r="D134">
-        <v>81.7</v>
-      </c>
-      <c r="E134">
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135">
-        <v>133</v>
-      </c>
-      <c r="B135" s="2">
-        <v>41974</v>
-      </c>
-      <c r="C135">
-        <v>109.68</v>
-      </c>
-      <c r="D135">
-        <v>76.8</v>
-      </c>
-      <c r="E135">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136">
-        <v>134</v>
-      </c>
-      <c r="B136" s="2">
-        <v>42005</v>
-      </c>
-      <c r="C136">
-        <v>107.52</v>
-      </c>
-      <c r="D136">
-        <v>64.40000000000001</v>
-      </c>
-      <c r="E136">
-        <v>62.7</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137">
-        <v>135</v>
-      </c>
-      <c r="B137" s="2">
-        <v>42036</v>
-      </c>
-      <c r="C137">
-        <v>70.08</v>
-      </c>
-      <c r="D137">
-        <v>39.6</v>
-      </c>
-      <c r="E137">
-        <v>28.3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138">
-        <v>136</v>
-      </c>
-      <c r="B138" s="2">
-        <v>42064</v>
-      </c>
-      <c r="C138">
-        <v>151.68</v>
-      </c>
-      <c r="D138">
-        <v>95.8</v>
-      </c>
-      <c r="E138">
-        <v>85.40000000000001</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139">
-        <v>137</v>
-      </c>
-      <c r="B139" s="2">
-        <v>42095</v>
-      </c>
-      <c r="C139">
-        <v>204.96</v>
-      </c>
-      <c r="D139">
-        <v>110.7</v>
-      </c>
-      <c r="E139">
-        <v>72.3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140">
-        <v>138</v>
-      </c>
-      <c r="B140" s="2">
-        <v>42125</v>
-      </c>
-      <c r="C140">
-        <v>169.44</v>
-      </c>
-      <c r="D140">
-        <v>102.5</v>
-      </c>
-      <c r="E140">
-        <v>63.7</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141">
-        <v>139</v>
-      </c>
-      <c r="B141" s="2">
-        <v>42156</v>
-      </c>
-      <c r="C141">
-        <v>373.44</v>
-      </c>
-      <c r="D141">
-        <v>201.9</v>
-      </c>
-      <c r="E141">
-        <v>153.5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142">
-        <v>140</v>
-      </c>
-      <c r="B142" s="2">
-        <v>42186</v>
-      </c>
-      <c r="C142">
-        <v>338.16</v>
-      </c>
-      <c r="D142">
-        <v>174.5</v>
-      </c>
-      <c r="E142">
-        <v>136.5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143">
-        <v>141</v>
-      </c>
-      <c r="B143" s="2">
-        <v>42217</v>
-      </c>
-      <c r="C143">
-        <v>193.2</v>
-      </c>
-      <c r="D143">
-        <v>92.8</v>
-      </c>
-      <c r="E143">
-        <v>67.09999999999999</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144">
-        <v>142</v>
-      </c>
-      <c r="B144" s="2">
-        <v>42248</v>
-      </c>
-      <c r="C144">
-        <v>8.5</v>
-      </c>
-      <c r="D144">
-        <v>38.4</v>
-      </c>
-      <c r="E144">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145">
-        <v>143</v>
-      </c>
-      <c r="B145" s="2">
-        <v>42278</v>
-      </c>
-      <c r="C145">
-        <v>133.68</v>
-      </c>
-      <c r="D145">
-        <v>84.5</v>
-      </c>
-      <c r="E145">
-        <v>57.4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146">
-        <v>144</v>
-      </c>
-      <c r="B146" s="2">
-        <v>42309</v>
-      </c>
-      <c r="C146">
-        <v>132.72</v>
-      </c>
-      <c r="D146">
-        <v>78.5</v>
-      </c>
-      <c r="E146">
-        <v>70.40000000000001</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147">
-        <v>145</v>
-      </c>
-      <c r="B147" s="2">
-        <v>42339</v>
-      </c>
-      <c r="C147">
-        <v>95.04000000000001</v>
-      </c>
-      <c r="D147">
-        <v>46.8</v>
-      </c>
-      <c r="E147">
-        <v>29.1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148">
-        <v>146</v>
-      </c>
-      <c r="B148" s="2">
-        <v>42370</v>
-      </c>
-      <c r="C148">
-        <v>21.36</v>
-      </c>
-      <c r="D148">
-        <v>15</v>
-      </c>
-      <c r="E148">
-        <v>38.4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149">
-        <v>147</v>
-      </c>
-      <c r="B149" s="2">
-        <v>42401</v>
-      </c>
-      <c r="C149">
-        <v>154.08</v>
-      </c>
-      <c r="D149">
-        <v>83.2</v>
-      </c>
-      <c r="E149">
-        <v>48.5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150">
-        <v>148</v>
-      </c>
-      <c r="B150" s="2">
-        <v>42430</v>
-      </c>
-      <c r="C150">
-        <v>198.96</v>
-      </c>
-      <c r="D150">
-        <v>110.5</v>
-      </c>
-      <c r="E150">
-        <v>80.90000000000001</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151">
-        <v>149</v>
-      </c>
-      <c r="B151" s="2">
-        <v>42461</v>
-      </c>
-      <c r="C151">
-        <v>224.16</v>
-      </c>
-      <c r="D151">
-        <v>146.9</v>
-      </c>
-      <c r="E151">
-        <v>160.5</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152">
-        <v>150</v>
-      </c>
-      <c r="B152" s="2">
-        <v>42491</v>
-      </c>
-      <c r="C152">
-        <v>155.04</v>
-      </c>
-      <c r="D152">
-        <v>82.2</v>
-      </c>
-      <c r="E152">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153">
-        <v>151</v>
-      </c>
-      <c r="B153" s="2">
-        <v>42522</v>
-      </c>
-      <c r="C153">
-        <v>342</v>
-      </c>
-      <c r="D153">
-        <v>187.9</v>
-      </c>
-      <c r="E153">
-        <v>136.2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154">
-        <v>152</v>
-      </c>
-      <c r="B154" s="2">
-        <v>42552</v>
-      </c>
-      <c r="C154">
-        <v>233.52</v>
-      </c>
-      <c r="D154">
-        <v>137</v>
-      </c>
-      <c r="E154">
-        <v>97.7</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155">
-        <v>153</v>
-      </c>
-      <c r="B155" s="2">
-        <v>42583</v>
-      </c>
-      <c r="C155">
-        <v>114.96</v>
-      </c>
-      <c r="D155">
-        <v>58</v>
-      </c>
-      <c r="E155">
-        <v>37.4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156">
-        <v>154</v>
-      </c>
-      <c r="B156" s="2">
-        <v>42614</v>
-      </c>
-      <c r="C156">
-        <v>215.52</v>
-      </c>
-      <c r="D156">
-        <v>138.4</v>
-      </c>
-      <c r="E156">
-        <v>100.2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157">
-        <v>155</v>
-      </c>
-      <c r="B157" s="2">
-        <v>42644</v>
-      </c>
-      <c r="C157">
-        <v>154.32</v>
-      </c>
-      <c r="D157">
-        <v>101</v>
-      </c>
-      <c r="E157">
-        <v>63.5</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158">
-        <v>156</v>
-      </c>
-      <c r="B158" s="2">
-        <v>42675</v>
-      </c>
-      <c r="C158">
-        <v>108.48</v>
-      </c>
-      <c r="D158">
-        <v>57.3</v>
-      </c>
-      <c r="E158">
-        <v>58.3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159">
-        <v>157</v>
-      </c>
-      <c r="B159" s="2">
-        <v>42705</v>
-      </c>
-      <c r="C159">
-        <v>61.44</v>
-      </c>
-      <c r="D159">
-        <v>45.2</v>
-      </c>
-      <c r="E159">
-        <v>54.5</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160">
-        <v>158</v>
-      </c>
-      <c r="B160" s="2">
-        <v>42736</v>
-      </c>
-      <c r="C160">
-        <v>16.5</v>
-      </c>
-      <c r="D160">
-        <v>113.9</v>
-      </c>
-      <c r="E160">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161">
-        <v>159</v>
-      </c>
-      <c r="B161" s="2">
-        <v>42767</v>
-      </c>
-      <c r="C161">
-        <v>78.72</v>
-      </c>
-      <c r="D161">
-        <v>61.6</v>
-      </c>
-      <c r="E161">
-        <v>73.7</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="A162">
-        <v>160</v>
-      </c>
-      <c r="B162" s="2">
-        <v>42795</v>
-      </c>
-      <c r="C162">
-        <v>173.76</v>
-      </c>
-      <c r="D162">
-        <v>106.8</v>
-      </c>
-      <c r="E162">
-        <v>133.9</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163">
-        <v>161</v>
-      </c>
-      <c r="B163" s="2">
-        <v>42826</v>
-      </c>
-      <c r="C163">
-        <v>161.76</v>
-      </c>
-      <c r="D163">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="E163">
-        <v>52.7</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164">
-        <v>162</v>
-      </c>
-      <c r="B164" s="2">
-        <v>42856</v>
-      </c>
-      <c r="C164">
-        <v>204.48</v>
-      </c>
-      <c r="D164">
-        <v>9.4</v>
-      </c>
-      <c r="E164">
-        <v>85.7</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="A165">
-        <v>163</v>
-      </c>
-      <c r="B165" s="2">
-        <v>42887</v>
-      </c>
-      <c r="C165">
-        <v>194.16</v>
-      </c>
-      <c r="D165">
-        <v>5.1</v>
-      </c>
-      <c r="E165">
-        <v>104.7</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="A166">
-        <v>164</v>
-      </c>
-      <c r="B166" s="2">
-        <v>42917</v>
-      </c>
-      <c r="C166">
-        <v>253.44</v>
-      </c>
-      <c r="D166">
-        <v>5.7</v>
-      </c>
-      <c r="E166">
-        <v>104.9</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167">
-        <v>165</v>
-      </c>
-      <c r="B167" s="2">
-        <v>42948</v>
-      </c>
-      <c r="C167">
-        <v>163.2</v>
-      </c>
-      <c r="D167">
-        <v>95.2</v>
-      </c>
-      <c r="E167">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168">
-        <v>166</v>
-      </c>
-      <c r="B168" s="2">
-        <v>42979</v>
-      </c>
-      <c r="C168">
-        <v>138.96</v>
-      </c>
-      <c r="D168">
-        <v>85.59999999999999</v>
-      </c>
-      <c r="E168">
-        <v>63.7</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169">
-        <v>167</v>
-      </c>
-      <c r="B169" s="2">
-        <v>43009</v>
-      </c>
-      <c r="C169">
-        <v>128.64</v>
-      </c>
-      <c r="D169">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="E169">
-        <v>42.3</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="A170">
-        <v>168</v>
-      </c>
-      <c r="B170" s="2">
-        <v>43040</v>
-      </c>
-      <c r="C170">
-        <v>90.95999999999999</v>
-      </c>
-      <c r="D170">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="E170">
-        <v>91.90000000000001</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171">
-        <v>169</v>
-      </c>
-      <c r="B171" s="2">
-        <v>43070</v>
-      </c>
-      <c r="C171">
-        <v>132.24</v>
-      </c>
-      <c r="D171">
-        <v>90.5</v>
-      </c>
-      <c r="E171">
-        <v>64.59999999999999</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172">
-        <v>170</v>
-      </c>
-      <c r="B172" s="2">
-        <v>43101</v>
-      </c>
-      <c r="C172">
-        <v>91.26000000000001</v>
-      </c>
-      <c r="D172">
-        <v>107.6</v>
-      </c>
-      <c r="E172">
-        <v>86.09999999999999</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="A173">
-        <v>171</v>
-      </c>
-      <c r="B173" s="2">
-        <v>43132</v>
-      </c>
-      <c r="C173">
-        <v>26.2</v>
-      </c>
-      <c r="D173">
-        <v>44.2</v>
-      </c>
-      <c r="E173">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
-      <c r="A174">
-        <v>172</v>
-      </c>
-      <c r="B174" s="2">
-        <v>43160</v>
-      </c>
-      <c r="C174">
-        <v>7.2</v>
-      </c>
-      <c r="D174">
-        <v>65.5</v>
-      </c>
-      <c r="E174">
-        <v>54.7</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175">
-        <v>173</v>
-      </c>
-      <c r="B175" s="2">
-        <v>43191</v>
-      </c>
-      <c r="C175">
-        <v>15.5</v>
-      </c>
-      <c r="D175">
-        <v>150.7</v>
-      </c>
-      <c r="E175">
-        <v>112.9</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="A176">
-        <v>174</v>
-      </c>
-      <c r="B176" s="2">
-        <v>43221</v>
-      </c>
-      <c r="C176">
-        <v>114.9</v>
-      </c>
-      <c r="D176">
-        <v>171.3</v>
-      </c>
-      <c r="E176">
-        <v>64.3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="A177">
-        <v>175</v>
-      </c>
-      <c r="B177" s="2">
-        <v>43252</v>
-      </c>
-      <c r="C177">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="D177">
-        <v>143.1</v>
-      </c>
-      <c r="E177">
-        <v>67.3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178">
-        <v>176</v>
-      </c>
-      <c r="B178" s="2">
-        <v>43282</v>
-      </c>
-      <c r="C178">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="D178">
-        <v>91.2</v>
-      </c>
-      <c r="E178">
-        <v>65.09999999999999</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
-      <c r="A179">
-        <v>177</v>
-      </c>
-      <c r="B179" s="2">
-        <v>43313</v>
-      </c>
-      <c r="C179">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="D179">
-        <v>100</v>
-      </c>
-      <c r="E179">
-        <v>77.59999999999999</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180">
-        <v>178</v>
-      </c>
-      <c r="B180" s="2">
-        <v>43344</v>
-      </c>
-      <c r="C180">
-        <v>63.2</v>
-      </c>
-      <c r="D180">
-        <v>104.6</v>
-      </c>
-      <c r="E180">
-        <v>86.09999999999999</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181">
-        <v>179</v>
-      </c>
-      <c r="B181" s="2">
-        <v>43374</v>
-      </c>
-      <c r="C181">
-        <v>39.8</v>
-      </c>
-      <c r="D181">
-        <v>55.9</v>
-      </c>
-      <c r="E181">
-        <v>103.1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182">
-        <v>180</v>
-      </c>
-      <c r="B182" s="2">
-        <v>43405</v>
-      </c>
-      <c r="C182">
-        <v>52.8</v>
-      </c>
-      <c r="D182">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="E182">
-        <v>149.3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
-      <c r="A183">
-        <v>181</v>
-      </c>
-      <c r="B183" s="2">
-        <v>43435</v>
-      </c>
-      <c r="C183">
-        <v>54.6</v>
-      </c>
-      <c r="D183">
-        <v>13.8</v>
-      </c>
-      <c r="E183">
-        <v>74.2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
-      <c r="A184">
-        <v>182</v>
-      </c>
-      <c r="B184" s="2">
-        <v>43466</v>
-      </c>
-      <c r="C184">
-        <v>36.9</v>
-      </c>
-      <c r="D184">
-        <v>4.3</v>
-      </c>
-      <c r="E184">
-        <v>67.7</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="A185">
-        <v>183</v>
-      </c>
-      <c r="B185" s="2">
-        <v>43497</v>
-      </c>
-      <c r="C185">
-        <v>42.6</v>
-      </c>
-      <c r="D185">
-        <v>11.3</v>
-      </c>
-      <c r="E185">
-        <v>85.59999999999999</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="A186">
-        <v>184</v>
-      </c>
-      <c r="B186" s="2">
-        <v>43525</v>
-      </c>
-      <c r="C186">
-        <v>36.6</v>
-      </c>
-      <c r="D186">
-        <v>15.5</v>
-      </c>
-      <c r="E186">
-        <v>96.3</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="A187">
-        <v>185</v>
-      </c>
-      <c r="B187" s="2">
-        <v>43556</v>
-      </c>
-      <c r="C187">
-        <v>52.1</v>
-      </c>
-      <c r="D187">
-        <v>7.4</v>
-      </c>
-      <c r="E187">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="A188">
-        <v>186</v>
-      </c>
-      <c r="B188" s="2">
-        <v>43586</v>
-      </c>
-      <c r="C188">
-        <v>110.3</v>
-      </c>
-      <c r="D188">
-        <v>8.6</v>
-      </c>
-      <c r="E188">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
-      <c r="A189">
-        <v>187</v>
-      </c>
-      <c r="B189" s="2">
-        <v>43617</v>
-      </c>
-      <c r="C189">
-        <v>134.8</v>
-      </c>
-      <c r="D189">
-        <v>1.2</v>
-      </c>
-      <c r="E189">
-        <v>118.4</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="A190">
-        <v>188</v>
-      </c>
-      <c r="B190" s="2">
-        <v>43647</v>
-      </c>
-      <c r="C190">
-        <v>92.3</v>
-      </c>
-      <c r="D190">
-        <v>127.7</v>
-      </c>
-      <c r="E190">
-        <v>127.8</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="A191">
-        <v>189</v>
-      </c>
-      <c r="B191" s="2">
-        <v>43678</v>
-      </c>
-      <c r="C191">
-        <v>92.5</v>
-      </c>
-      <c r="D191">
-        <v>2.3</v>
-      </c>
-      <c r="E191">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
-      <c r="A192">
-        <v>190</v>
-      </c>
-      <c r="B192" s="2">
-        <v>43709</v>
-      </c>
-      <c r="C192">
-        <v>45.4</v>
-      </c>
-      <c r="D192">
-        <v>1.3</v>
-      </c>
-      <c r="E192">
-        <v>60.9</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193">
-        <v>191</v>
-      </c>
-      <c r="B193" s="2">
-        <v>43739</v>
-      </c>
-      <c r="C193">
-        <v>31.9</v>
-      </c>
-      <c r="D193">
-        <v>7.8</v>
-      </c>
-      <c r="E193">
-        <v>104.5</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194">
-        <v>192</v>
-      </c>
-      <c r="B194" s="2">
-        <v>43770</v>
-      </c>
-      <c r="C194">
-        <v>61.9</v>
-      </c>
-      <c r="D194">
-        <v>10.4</v>
-      </c>
-      <c r="E194">
-        <v>68.5</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="A195">
-        <v>193</v>
-      </c>
-      <c r="B195" s="2">
-        <v>43800</v>
-      </c>
-      <c r="C195">
-        <v>92.09999999999999</v>
-      </c>
-      <c r="D195">
-        <v>69.8</v>
-      </c>
-      <c r="E195">
-        <v>67.40000000000001</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196">
-        <v>194</v>
-      </c>
-      <c r="B196" s="2">
-        <v>43831</v>
-      </c>
-      <c r="C196">
-        <v>129.7</v>
-      </c>
-      <c r="D196">
-        <v>81</v>
-      </c>
-      <c r="E196">
-        <v>82.59999999999999</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="A197">
-        <v>195</v>
-      </c>
-      <c r="B197" s="2">
-        <v>43862</v>
-      </c>
-      <c r="C197">
-        <v>57.4</v>
-      </c>
-      <c r="D197">
-        <v>9</v>
-      </c>
-      <c r="E197">
-        <v>63.7</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="A198">
-        <v>196</v>
-      </c>
-      <c r="B198" s="2">
-        <v>43891</v>
-      </c>
-      <c r="C198">
-        <v>13.9</v>
-      </c>
-      <c r="D198">
-        <v>13.9</v>
-      </c>
-      <c r="E198">
-        <v>31.7</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199">
-        <v>197</v>
-      </c>
-      <c r="B199" s="2">
-        <v>43922</v>
-      </c>
-      <c r="C199">
-        <v>16.4</v>
-      </c>
-      <c r="D199">
-        <v>16.4</v>
-      </c>
-      <c r="E199">
-        <v>50.4</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="A200">
-        <v>198</v>
-      </c>
-      <c r="B200" s="2">
-        <v>43952</v>
-      </c>
-      <c r="C200">
-        <v>46</v>
-      </c>
-      <c r="D200">
-        <v>46</v>
-      </c>
-      <c r="E200">
-        <v>44.2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="A201">
-        <v>199</v>
-      </c>
-      <c r="B201" s="2">
-        <v>43983</v>
-      </c>
-      <c r="C201">
-        <v>10.3</v>
-      </c>
-      <c r="D201">
-        <v>10.3</v>
-      </c>
-      <c r="E201">
-        <v>142.6</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="A202">
-        <v>200</v>
-      </c>
-      <c r="B202" s="2">
-        <v>44013</v>
-      </c>
-      <c r="C202">
-        <v>12.7</v>
-      </c>
-      <c r="D202">
-        <v>12.7</v>
-      </c>
-      <c r="E202">
-        <v>144.5</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203">
-        <v>201</v>
-      </c>
-      <c r="B203" s="2">
-        <v>44044</v>
-      </c>
-      <c r="C203">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="D203">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="E203">
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="A204">
-        <v>202</v>
-      </c>
-      <c r="B204" s="2">
-        <v>44075</v>
-      </c>
-      <c r="C204">
-        <v>119.8</v>
-      </c>
-      <c r="D204">
-        <v>7.5</v>
-      </c>
-      <c r="E204">
-        <v>104.3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="A205">
-        <v>203</v>
-      </c>
-      <c r="B205" s="2">
-        <v>44105</v>
-      </c>
-      <c r="C205">
-        <v>4.3</v>
-      </c>
-      <c r="D205">
-        <v>4.3</v>
-      </c>
-      <c r="E205">
-        <v>49.8</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="A206">
-        <v>204</v>
-      </c>
-      <c r="B206" s="2">
-        <v>44136</v>
-      </c>
-      <c r="C206">
-        <v>3.2</v>
-      </c>
-      <c r="D206">
-        <v>111.8</v>
-      </c>
-      <c r="E206">
-        <v>125.6</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="A207">
-        <v>205</v>
-      </c>
-      <c r="B207" s="2">
-        <v>44166</v>
-      </c>
-      <c r="C207">
-        <v>10.7</v>
-      </c>
-      <c r="D207">
-        <v>57.5</v>
-      </c>
-      <c r="E207">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208">
-        <v>206</v>
-      </c>
-      <c r="B208" s="2">
-        <v>44197</v>
-      </c>
-      <c r="C208">
-        <v>7.6</v>
-      </c>
-      <c r="D208">
-        <v>86.2</v>
-      </c>
-      <c r="E208">
-        <v>64.59999999999999</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209">
-        <v>207</v>
-      </c>
-      <c r="B209" s="2">
-        <v>44228</v>
-      </c>
-      <c r="C209">
-        <v>10</v>
-      </c>
-      <c r="D209">
-        <v>83.2</v>
-      </c>
-      <c r="E209">
-        <v>75.2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210">
-        <v>208</v>
-      </c>
-      <c r="B210" s="2">
-        <v>44256</v>
-      </c>
-      <c r="C210">
-        <v>11.2</v>
-      </c>
-      <c r="D210">
-        <v>136</v>
-      </c>
-      <c r="E210">
-        <v>209.4</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211">
-        <v>209</v>
-      </c>
-      <c r="B211" s="2">
-        <v>44287</v>
-      </c>
-      <c r="C211">
-        <v>169.4</v>
-      </c>
-      <c r="D211">
-        <v>175.7</v>
-      </c>
-      <c r="E211">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212">
-        <v>210</v>
-      </c>
-      <c r="B212" s="2">
-        <v>44317</v>
-      </c>
-      <c r="C212">
-        <v>156.4</v>
-      </c>
-      <c r="D212">
-        <v>167.1</v>
-      </c>
-      <c r="E212">
-        <v>126.7</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213">
-        <v>211</v>
-      </c>
-      <c r="B213" s="2">
-        <v>44348</v>
-      </c>
-      <c r="C213">
-        <v>176.3</v>
-      </c>
-      <c r="D213">
-        <v>195.7</v>
-      </c>
-      <c r="E213">
-        <v>116.7</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214">
-        <v>212</v>
-      </c>
-      <c r="B214" s="2">
-        <v>44378</v>
-      </c>
-      <c r="C214">
-        <v>9.4</v>
-      </c>
-      <c r="D214">
-        <v>177.9</v>
-      </c>
-      <c r="E214">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215">
-        <v>213</v>
-      </c>
-      <c r="B215" s="2">
-        <v>44409</v>
-      </c>
-      <c r="C215">
-        <v>10</v>
-      </c>
-      <c r="D215">
-        <v>104.9</v>
-      </c>
-      <c r="E215">
-        <v>73.7</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216">
-        <v>214</v>
-      </c>
-      <c r="B216" s="2">
-        <v>44440</v>
-      </c>
-      <c r="C216">
-        <v>158</v>
-      </c>
-      <c r="D216">
-        <v>156.4</v>
-      </c>
-      <c r="E216">
-        <v>112.8</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="A217">
-        <v>215</v>
-      </c>
-      <c r="B217" s="2">
-        <v>44470</v>
-      </c>
-      <c r="C217">
-        <v>76.8</v>
-      </c>
-      <c r="D217">
-        <v>90.3</v>
-      </c>
-      <c r="E217">
-        <v>86.90000000000001</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218">
-        <v>216</v>
-      </c>
-      <c r="B218" s="2">
-        <v>44501</v>
-      </c>
-      <c r="C218">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="D218">
-        <v>80.8</v>
-      </c>
-      <c r="E218">
-        <v>57.4</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219">
-        <v>217</v>
-      </c>
-      <c r="B219" s="2">
-        <v>44531</v>
-      </c>
-      <c r="C219">
-        <v>15.9</v>
-      </c>
-      <c r="D219">
-        <v>73.8</v>
-      </c>
-      <c r="E219">
-        <v>51.8</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220">
-        <v>218</v>
-      </c>
-      <c r="B220" s="2">
-        <v>44562</v>
-      </c>
-      <c r="C220">
-        <v>0.3</v>
-      </c>
-      <c r="D220">
-        <v>45</v>
-      </c>
-      <c r="E220">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="A221">
-        <v>219</v>
-      </c>
-      <c r="B221" s="2">
-        <v>44593</v>
-      </c>
-      <c r="C221">
-        <v>0</v>
-      </c>
-      <c r="D221">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="E221">
-        <v>60.1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222">
-        <v>220</v>
-      </c>
-      <c r="B222" s="2">
-        <v>44621</v>
-      </c>
-      <c r="C222">
-        <v>0</v>
-      </c>
-      <c r="D222">
-        <v>105.2</v>
-      </c>
-      <c r="E222">
-        <v>60.5</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="A223">
-        <v>221</v>
-      </c>
-      <c r="B223" s="2">
-        <v>44652</v>
-      </c>
-      <c r="C223">
-        <v>69.5</v>
-      </c>
-      <c r="D223">
-        <v>128.5</v>
-      </c>
-      <c r="E223">
-        <v>80.90000000000001</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="A224">
-        <v>222</v>
-      </c>
-      <c r="B224" s="2">
-        <v>44682</v>
-      </c>
-      <c r="C224">
-        <v>129.1</v>
-      </c>
-      <c r="D224">
-        <v>154.1</v>
-      </c>
-      <c r="E224">
-        <v>104.9</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
-      <c r="A225">
-        <v>223</v>
-      </c>
-      <c r="B225" s="2">
-        <v>44713</v>
-      </c>
-      <c r="C225">
-        <v>170.1</v>
-      </c>
-      <c r="D225">
-        <v>188</v>
-      </c>
-      <c r="E225">
-        <v>158.8</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
-      <c r="A226">
-        <v>224</v>
-      </c>
-      <c r="B226" s="2">
-        <v>44743</v>
-      </c>
-      <c r="C226">
-        <v>165.2</v>
-      </c>
-      <c r="D226">
-        <v>172.3</v>
-      </c>
-      <c r="E226">
-        <v>133.3</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
-      <c r="A227">
-        <v>225</v>
-      </c>
-      <c r="B227" s="2">
-        <v>44774</v>
-      </c>
-      <c r="C227">
-        <v>1.8</v>
-      </c>
-      <c r="D227">
-        <v>1.8</v>
-      </c>
-      <c r="E227">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
-      <c r="A228">
-        <v>226</v>
-      </c>
-      <c r="B228" s="2">
-        <v>44805</v>
-      </c>
-      <c r="C228">
-        <v>1.6</v>
-      </c>
-      <c r="D228">
-        <v>1.6</v>
-      </c>
-      <c r="E228">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
-      <c r="A229">
-        <v>227</v>
-      </c>
-      <c r="B229" s="2">
-        <v>44835</v>
-      </c>
-      <c r="C229">
-        <v>11.7</v>
-      </c>
-      <c r="D229">
-        <v>63.6</v>
-      </c>
-      <c r="E229">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
-      <c r="A230">
-        <v>228</v>
-      </c>
-      <c r="B230" s="2">
-        <v>44866</v>
-      </c>
-      <c r="C230">
-        <v>52.7</v>
-      </c>
-      <c r="D230">
-        <v>55</v>
-      </c>
-      <c r="E230">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
-      <c r="A231">
-        <v>229</v>
-      </c>
-      <c r="B231" s="2">
-        <v>44896</v>
-      </c>
-      <c r="C231">
-        <v>0.9</v>
-      </c>
-      <c r="D231">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="E231">
-        <v>54.9</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
-      <c r="A232">
-        <v>230</v>
-      </c>
-      <c r="B232" s="2">
-        <v>44927</v>
-      </c>
-      <c r="C232">
-        <v>5.1</v>
-      </c>
-      <c r="D232">
-        <v>80.3</v>
-      </c>
-      <c r="E232">
-        <v>70.40000000000001</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
-      <c r="A233">
-        <v>231</v>
-      </c>
-      <c r="B233" s="2">
-        <v>44958</v>
-      </c>
-      <c r="C233">
-        <v>6.8</v>
-      </c>
-      <c r="D233">
-        <v>45.2</v>
-      </c>
-      <c r="E233">
-        <v>40.6</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
-      <c r="A234">
-        <v>232</v>
-      </c>
-      <c r="B234" s="2">
-        <v>44986</v>
-      </c>
-      <c r="C234">
-        <v>167.4</v>
-      </c>
-      <c r="D234">
-        <v>146.4</v>
-      </c>
-      <c r="E234">
-        <v>124.8</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
-      <c r="A235">
-        <v>233</v>
-      </c>
-      <c r="B235" s="2">
-        <v>45017</v>
-      </c>
-      <c r="C235">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="D235">
-        <v>106</v>
-      </c>
-      <c r="E235">
-        <v>98.8</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
-      <c r="A236">
-        <v>234</v>
-      </c>
-      <c r="B236" s="2">
-        <v>45047</v>
-      </c>
-      <c r="C236">
-        <v>11</v>
-      </c>
-      <c r="D236">
-        <v>143</v>
-      </c>
-      <c r="E236">
-        <v>91.3</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="A237">
-        <v>235</v>
-      </c>
-      <c r="B237" s="2">
-        <v>45078</v>
-      </c>
-      <c r="C237">
-        <v>31.5</v>
-      </c>
-      <c r="D237">
-        <v>177.5</v>
-      </c>
-      <c r="E237">
-        <v>73.5</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
-      <c r="A238">
-        <v>236</v>
-      </c>
-      <c r="B238" s="2">
-        <v>45108</v>
-      </c>
-      <c r="C238">
-        <v>157.5</v>
-      </c>
-      <c r="D238">
-        <v>230.6</v>
-      </c>
-      <c r="E238">
-        <v>93.59999999999999</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
-      <c r="A239">
-        <v>237</v>
-      </c>
-      <c r="B239" s="2">
-        <v>45139</v>
-      </c>
-      <c r="C239">
-        <v>127.9</v>
-      </c>
-      <c r="D239">
-        <v>159.2</v>
-      </c>
-      <c r="E239">
-        <v>78.7</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
-      <c r="A240">
-        <v>238</v>
-      </c>
-      <c r="B240" s="2">
-        <v>45170</v>
-      </c>
-      <c r="C240">
-        <v>63</v>
-      </c>
-      <c r="D240">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="E240">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
-      <c r="A241">
-        <v>239</v>
-      </c>
-      <c r="B241" s="2">
-        <v>45200</v>
-      </c>
-      <c r="C241">
-        <v>45.4</v>
-      </c>
-      <c r="D241">
-        <v>56.6</v>
-      </c>
-      <c r="E241">
-        <v>41.5</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
-      <c r="A242">
-        <v>240</v>
-      </c>
-      <c r="B242" s="2">
-        <v>45231</v>
-      </c>
-      <c r="C242">
-        <v>6.3</v>
-      </c>
-      <c r="D242">
-        <v>6.3</v>
-      </c>
-      <c r="E242">
-        <v>69.3</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
-      <c r="A243">
-        <v>241</v>
-      </c>
-      <c r="B243" s="2">
-        <v>45261</v>
-      </c>
-      <c r="C243">
-        <v>4.7</v>
-      </c>
-      <c r="D243">
-        <v>4.7</v>
-      </c>
-      <c r="E243">
-        <v>78.09999999999999</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
-      <c r="A244">
-        <v>242</v>
-      </c>
-      <c r="B244" s="2">
-        <v>45292</v>
-      </c>
-      <c r="C244">
-        <v>42.2</v>
-      </c>
-      <c r="D244">
-        <v>73.59999999999999</v>
-      </c>
-      <c r="E244">
-        <v>61.1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
-      <c r="A245">
-        <v>243</v>
-      </c>
-      <c r="B245" s="2">
-        <v>45323</v>
-      </c>
-      <c r="C245">
-        <v>80.3</v>
-      </c>
-      <c r="D245">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="E245">
-        <v>73.2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
-      <c r="A246">
-        <v>244</v>
-      </c>
-      <c r="B246" s="2">
-        <v>45352</v>
-      </c>
-      <c r="C246">
-        <v>76.2</v>
-      </c>
-      <c r="D246">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="E246">
-        <v>73.5</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
-      <c r="A247">
-        <v>245</v>
-      </c>
-      <c r="B247" s="2">
-        <v>45383</v>
-      </c>
-      <c r="C247">
-        <v>129.89</v>
-      </c>
-      <c r="D247">
-        <v>156.3</v>
-      </c>
-      <c r="E247">
-        <v>120.9</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
-      <c r="A248">
-        <v>246</v>
-      </c>
-      <c r="B248" s="2">
-        <v>45413</v>
-      </c>
-      <c r="C248">
-        <v>13.86</v>
-      </c>
-      <c r="D248">
-        <v>162.1</v>
-      </c>
-      <c r="E248">
-        <v>92.7</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
-      <c r="A249">
-        <v>247</v>
-      </c>
-      <c r="B249" s="2">
-        <v>45444</v>
-      </c>
-      <c r="C249">
-        <v>14.83</v>
-      </c>
-      <c r="D249">
-        <v>179.7</v>
-      </c>
-      <c r="E249">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
-      <c r="A250">
-        <v>248</v>
-      </c>
-      <c r="B250" s="2">
-        <v>45474</v>
-      </c>
-      <c r="C250">
-        <v>14.2</v>
-      </c>
-      <c r="D250">
-        <v>165.9</v>
-      </c>
-      <c r="E250">
-        <v>93.59999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>